--- a/Code/Results/Cases/Case_0_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_40/res_bus/vm_pu.xlsx
@@ -418,31 +418,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9011378079628355</v>
+        <v>0.9011378079628366</v>
       </c>
       <c r="D2">
-        <v>0.9157776297168041</v>
+        <v>0.9157776297168049</v>
       </c>
       <c r="E2">
-        <v>0.9186811540528318</v>
+        <v>0.9186811540528332</v>
       </c>
       <c r="F2">
-        <v>0.9083617291852363</v>
+        <v>0.9083617291852376</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9267390284671746</v>
+        <v>0.9267390284671754</v>
       </c>
       <c r="K2">
-        <v>0.9285499534143365</v>
+        <v>0.9285499534143373</v>
       </c>
       <c r="L2">
-        <v>0.931403030848615</v>
+        <v>0.9314030308486163</v>
       </c>
       <c r="M2">
-        <v>0.9212647995636033</v>
+        <v>0.9212647995636045</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9184194175352484</v>
+        <v>0.9184194175352501</v>
       </c>
       <c r="D3">
-        <v>0.9314114846092502</v>
+        <v>0.9314114846092517</v>
       </c>
       <c r="E3">
-        <v>0.9338078562912683</v>
+        <v>0.9338078562912701</v>
       </c>
       <c r="F3">
-        <v>0.9257899368397331</v>
+        <v>0.9257899368397347</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9414113175671452</v>
+        <v>0.9414113175671468</v>
       </c>
       <c r="K3">
-        <v>0.9430043136593276</v>
+        <v>0.9430043136593294</v>
       </c>
       <c r="L3">
-        <v>0.9453641173042179</v>
+        <v>0.9453641173042193</v>
       </c>
       <c r="M3">
-        <v>0.9374694986684987</v>
+        <v>0.9374694986684998</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,31 +482,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9288242446037485</v>
+        <v>0.9288242446037498</v>
       </c>
       <c r="D4">
-        <v>0.9408360404631643</v>
+        <v>0.9408360404631659</v>
       </c>
       <c r="E4">
-        <v>0.9429279061070486</v>
+        <v>0.9429279061070497</v>
       </c>
       <c r="F4">
-        <v>0.9362978751151579</v>
+        <v>0.9362978751151594</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9502422008630877</v>
+        <v>0.9502422008630891</v>
       </c>
       <c r="K4">
-        <v>0.9517051743287501</v>
+        <v>0.9517051743287518</v>
       </c>
       <c r="L4">
-        <v>0.9537677088609515</v>
+        <v>0.9537677088609525</v>
       </c>
       <c r="M4">
-        <v>0.9472312108602898</v>
+        <v>0.9472312108602912</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -514,31 +514,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9330373261990462</v>
+        <v>0.9330373261990484</v>
       </c>
       <c r="D5">
-        <v>0.944654506799432</v>
+        <v>0.9446545067994341</v>
       </c>
       <c r="E5">
-        <v>0.9466231856204307</v>
+        <v>0.9466231856204327</v>
       </c>
       <c r="F5">
-        <v>0.9405559816939476</v>
+        <v>0.9405559816939498</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9538169126367412</v>
+        <v>0.9538169126367434</v>
       </c>
       <c r="K5">
-        <v>0.9552274697764321</v>
+        <v>0.9552274697764345</v>
       </c>
       <c r="L5">
-        <v>0.9571695176529157</v>
+        <v>0.9571695176529175</v>
       </c>
       <c r="M5">
-        <v>0.9511848371774341</v>
+        <v>0.9511848371774362</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -546,31 +546,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9337358958619788</v>
+        <v>0.9337358958619806</v>
       </c>
       <c r="D6">
-        <v>0.9452877685699907</v>
+        <v>0.9452877685699923</v>
       </c>
       <c r="E6">
-        <v>0.947236026218223</v>
+        <v>0.9472360262182247</v>
       </c>
       <c r="F6">
-        <v>0.9412622024581369</v>
+        <v>0.9412622024581383</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9544095634995982</v>
+        <v>0.9544095634995997</v>
       </c>
       <c r="K6">
-        <v>0.9558114418317751</v>
+        <v>0.9558114418317767</v>
       </c>
       <c r="L6">
-        <v>0.9577335036557185</v>
+        <v>0.9577335036557202</v>
       </c>
       <c r="M6">
-        <v>0.95184043491987</v>
+        <v>0.9518404349198718</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +578,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9288811442219016</v>
+        <v>0.9288811442219028</v>
       </c>
       <c r="D7">
-        <v>0.9408876020078445</v>
+        <v>0.9408876020078454</v>
       </c>
       <c r="E7">
-        <v>0.9429778036120394</v>
+        <v>0.9429778036120405</v>
       </c>
       <c r="F7">
-        <v>0.9363553701020166</v>
+        <v>0.9363553701020175</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9502904836174146</v>
+        <v>0.9502904836174157</v>
       </c>
       <c r="K7">
-        <v>0.9517527483136677</v>
+        <v>0.9517527483136686</v>
       </c>
       <c r="L7">
-        <v>0.9538136561461222</v>
+        <v>0.9538136561461233</v>
       </c>
       <c r="M7">
-        <v>0.9472846029820363</v>
+        <v>0.947284602982037</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,31 +610,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.90715631872141</v>
+        <v>0.9071563187214102</v>
       </c>
       <c r="D8">
-        <v>0.9212193582170157</v>
+        <v>0.9212193582170158</v>
       </c>
       <c r="E8">
-        <v>0.9239460160068059</v>
+        <v>0.9239460160068065</v>
       </c>
       <c r="F8">
-        <v>0.9144278644973526</v>
+        <v>0.9144278644973527</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.931849201152069</v>
+        <v>0.9318492011520692</v>
       </c>
       <c r="K8">
-        <v>0.9335839345567093</v>
+        <v>0.9335839345567095</v>
       </c>
       <c r="L8">
-        <v>0.9362652493552664</v>
+        <v>0.936265249355267</v>
       </c>
       <c r="M8">
-        <v>0.9269068979600821</v>
+        <v>0.9269068979600822</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -642,31 +642,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.8613269795968729</v>
+        <v>0.861326979596877</v>
       </c>
       <c r="D9">
-        <v>0.879872194093694</v>
+        <v>0.8798721940936975</v>
       </c>
       <c r="E9">
-        <v>0.8839553729457945</v>
+        <v>0.8839553729457982</v>
       </c>
       <c r="F9">
-        <v>0.8683252247609259</v>
+        <v>0.8683252247609298</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8929457961215868</v>
+        <v>0.8929457961215904</v>
       </c>
       <c r="K9">
-        <v>0.895269789314613</v>
+        <v>0.8952697893146165</v>
       </c>
       <c r="L9">
-        <v>0.899260924646873</v>
+        <v>0.8992609246468766</v>
       </c>
       <c r="M9">
-        <v>0.8839893918949386</v>
+        <v>0.8839893918949423</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,31 +674,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8220530238504131</v>
+        <v>0.822053023850415</v>
       </c>
       <c r="D10">
-        <v>0.8446339474419123</v>
+        <v>0.8446339474419141</v>
       </c>
       <c r="E10">
-        <v>0.8499048057273435</v>
+        <v>0.8499048057273451</v>
       </c>
       <c r="F10">
-        <v>0.8289779334892057</v>
+        <v>0.8289779334892077</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8596690123172906</v>
+        <v>0.8596690123172924</v>
       </c>
       <c r="K10">
-        <v>0.8625175333094049</v>
+        <v>0.8625175333094067</v>
       </c>
       <c r="L10">
-        <v>0.867640354371497</v>
+        <v>0.8676403543714986</v>
       </c>
       <c r="M10">
-        <v>0.8473165135711699</v>
+        <v>0.8473165135711714</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,31 +706,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8012537696372357</v>
+        <v>0.8012537696372327</v>
       </c>
       <c r="D11">
-        <v>0.8260606242189115</v>
+        <v>0.826060624218909</v>
       </c>
       <c r="E11">
-        <v>0.83197342000273</v>
+        <v>0.8319734200027276</v>
       </c>
       <c r="F11">
-        <v>0.8082007102842221</v>
+        <v>0.8082007102842192</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8420902650200504</v>
+        <v>0.8420902650200475</v>
       </c>
       <c r="K11">
-        <v>0.8452254159867099</v>
+        <v>0.8452254159867075</v>
       </c>
       <c r="L11">
-        <v>0.8509536246129595</v>
+        <v>0.8509536246129572</v>
       </c>
       <c r="M11">
-        <v>0.8279459235307873</v>
+        <v>0.8279459235307846</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,31 +738,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7926422610699912</v>
+        <v>0.7926422610699886</v>
       </c>
       <c r="D12">
-        <v>0.818390997685166</v>
+        <v>0.8183909976851635</v>
       </c>
       <c r="E12">
-        <v>0.8245726547605201</v>
+        <v>0.8245726547605176</v>
       </c>
       <c r="F12">
-        <v>0.7996110597810105</v>
+        <v>0.7996110597810077</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8348238762122926</v>
+        <v>0.8348238762122902</v>
       </c>
       <c r="K12">
-        <v>0.8380797111959372</v>
+        <v>0.8380797111959346</v>
       </c>
       <c r="L12">
-        <v>0.844060110642509</v>
+        <v>0.8440601106425069</v>
       </c>
       <c r="M12">
-        <v>0.8199379433212284</v>
+        <v>0.8199379433212257</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,31 +770,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7945379478225295</v>
+        <v>0.794537947822529</v>
       </c>
       <c r="D13">
-        <v>0.8200782746618936</v>
+        <v>0.8200782746618932</v>
       </c>
       <c r="E13">
-        <v>0.826200582168451</v>
+        <v>0.8262005821684504</v>
       </c>
       <c r="F13">
-        <v>0.801501283055446</v>
+        <v>0.8015012830554455</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.8364228111227634</v>
+        <v>0.836422811122763</v>
       </c>
       <c r="K13">
-        <v>0.8396519737086976</v>
+        <v>0.8396519737086972</v>
       </c>
       <c r="L13">
-        <v>0.8455767736671412</v>
+        <v>0.8455767736671407</v>
       </c>
       <c r="M13">
-        <v>0.8217001333786225</v>
+        <v>0.821700133378622</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -802,31 +802,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8005628865897548</v>
+        <v>0.8005628865897527</v>
       </c>
       <c r="D14">
-        <v>0.8254448515193198</v>
+        <v>0.825444851519318</v>
       </c>
       <c r="E14">
-        <v>0.8313791478379572</v>
+        <v>0.8313791478379557</v>
       </c>
       <c r="F14">
-        <v>0.807511301906618</v>
+        <v>0.8075113019066162</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8415070260178815</v>
+        <v>0.8415070260178796</v>
       </c>
       <c r="K14">
-        <v>0.8446518142087408</v>
+        <v>0.8446518142087391</v>
       </c>
       <c r="L14">
-        <v>0.8504002201727587</v>
+        <v>0.8504002201727574</v>
       </c>
       <c r="M14">
-        <v>0.8273031888003203</v>
+        <v>0.8273031888003184</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -834,31 +834,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8041434714050129</v>
+        <v>0.8041434714050179</v>
       </c>
       <c r="D15">
-        <v>0.8286370107033851</v>
+        <v>0.8286370107033894</v>
       </c>
       <c r="E15">
-        <v>0.8344600064399741</v>
+        <v>0.834460006439978</v>
       </c>
       <c r="F15">
-        <v>0.8110847673750697</v>
+        <v>0.8110847673750744</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.8445302281516142</v>
+        <v>0.8445302281516185</v>
       </c>
       <c r="K15">
-        <v>0.8476251537463997</v>
+        <v>0.8476251537464038</v>
       </c>
       <c r="L15">
-        <v>0.8532689494136639</v>
+        <v>0.8532689494136678</v>
       </c>
       <c r="M15">
-        <v>0.8306347403048677</v>
+        <v>0.8306347403048721</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,31 +866,31 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8233320416278065</v>
+        <v>0.8233320416278056</v>
       </c>
       <c r="D16">
-        <v>0.8457782265152047</v>
+        <v>0.8457782265152037</v>
       </c>
       <c r="E16">
-        <v>0.8510099305848456</v>
+        <v>0.8510099305848451</v>
       </c>
       <c r="F16">
-        <v>0.8302569918081413</v>
+        <v>0.8302569918081405</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.86075116241655</v>
+        <v>0.8607511624165493</v>
       </c>
       <c r="K16">
-        <v>0.8635822705107533</v>
+        <v>0.8635822705107524</v>
       </c>
       <c r="L16">
-        <v>0.8686680207766839</v>
+        <v>0.8686680207766834</v>
       </c>
       <c r="M16">
-        <v>0.8485089329368447</v>
+        <v>0.8485089329368439</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -898,31 +898,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8341982216878743</v>
+        <v>0.8341982216878722</v>
       </c>
       <c r="D17">
-        <v>0.8555091376157281</v>
+        <v>0.855509137615726</v>
       </c>
       <c r="E17">
-        <v>0.8604095837265294</v>
+        <v>0.8604095837265275</v>
       </c>
       <c r="F17">
-        <v>0.8411299400833037</v>
+        <v>0.8411299400833013</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.8699496092246818</v>
+        <v>0.8699496092246799</v>
       </c>
       <c r="K17">
-        <v>0.8726337232252035</v>
+        <v>0.8726337232252013</v>
       </c>
       <c r="L17">
-        <v>0.8774051832682627</v>
+        <v>0.8774051832682608</v>
       </c>
       <c r="M17">
-        <v>0.858644852334269</v>
+        <v>0.8586448523342668</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -930,31 +930,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8401984111906659</v>
+        <v>0.84019841119067</v>
       </c>
       <c r="D18">
-        <v>0.8608894445439013</v>
+        <v>0.8608894445439054</v>
       </c>
       <c r="E18">
-        <v>0.8656079878927457</v>
+        <v>0.8656079878927495</v>
       </c>
       <c r="F18">
-        <v>0.8471387625213238</v>
+        <v>0.847138762521328</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.8750322876544231</v>
+        <v>0.875032287654427</v>
       </c>
       <c r="K18">
-        <v>0.8776359325207971</v>
+        <v>0.8776359325208011</v>
       </c>
       <c r="L18">
-        <v>0.8822343115686292</v>
+        <v>0.8822343115686329</v>
       </c>
       <c r="M18">
-        <v>0.8642458154235034</v>
+        <v>0.8642458154235074</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -962,31 +962,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8421930622198961</v>
+        <v>0.8421930622198981</v>
       </c>
       <c r="D19">
-        <v>0.8626790928821275</v>
+        <v>0.8626790928821294</v>
       </c>
       <c r="E19">
-        <v>0.8673373180147393</v>
+        <v>0.8673373180147407</v>
       </c>
       <c r="F19">
-        <v>0.8491370507522786</v>
+        <v>0.8491370507522804</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.8767224168143649</v>
+        <v>0.8767224168143667</v>
       </c>
       <c r="K19">
-        <v>0.879299417854396</v>
+        <v>0.8792994178543977</v>
       </c>
       <c r="L19">
-        <v>0.88384032726173</v>
+        <v>0.8838403272617313</v>
       </c>
       <c r="M19">
-        <v>0.8661083568265157</v>
+        <v>0.8661083568265173</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -994,31 +994,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8330688626582012</v>
+        <v>0.8330688626582062</v>
       </c>
       <c r="D20">
-        <v>0.854497000389855</v>
+        <v>0.8544970003898599</v>
       </c>
       <c r="E20">
-        <v>0.8594317629950974</v>
+        <v>0.8594317629951015</v>
       </c>
       <c r="F20">
-        <v>0.8399993444919923</v>
+        <v>0.839999344491997</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.8689932023651743</v>
+        <v>0.868993202365179</v>
       </c>
       <c r="K20">
-        <v>0.8716925170213651</v>
+        <v>0.8716925170213697</v>
       </c>
       <c r="L20">
-        <v>0.8764965901397906</v>
+        <v>0.876496590139795</v>
       </c>
       <c r="M20">
-        <v>0.8575909483326484</v>
+        <v>0.857590948332653</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1026,31 +1026,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.7988171446024176</v>
+        <v>0.79881714460242</v>
       </c>
       <c r="D21">
-        <v>0.8238892501374939</v>
+        <v>0.8238892501374959</v>
       </c>
       <c r="E21">
-        <v>0.8298779280277739</v>
+        <v>0.829877928027776</v>
       </c>
       <c r="F21">
-        <v>0.8057695020603027</v>
+        <v>0.805769502060305</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.8400334892353626</v>
+        <v>0.8400334892353647</v>
       </c>
       <c r="K21">
-        <v>0.8432026636485951</v>
+        <v>0.843202663648597</v>
       </c>
       <c r="L21">
-        <v>0.8490021318482662</v>
+        <v>0.8490021318482683</v>
       </c>
       <c r="M21">
-        <v>0.8256793176153339</v>
+        <v>0.8256793176153362</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1058,31 +1058,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7716902405391013</v>
+        <v>0.7716902405391035</v>
       </c>
       <c r="D22">
-        <v>0.7997847743416598</v>
+        <v>0.7997847743416618</v>
       </c>
       <c r="E22">
-        <v>0.8066289336720713</v>
+        <v>0.8066289336720731</v>
       </c>
       <c r="F22">
-        <v>0.7787445106785643</v>
+        <v>0.7787445106785668</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.8171782219414483</v>
+        <v>0.8171782219414503</v>
       </c>
       <c r="K22">
-        <v>0.8207330263219633</v>
+        <v>0.8207330263219652</v>
       </c>
       <c r="L22">
-        <v>0.8273313291079408</v>
+        <v>0.8273313291079426</v>
       </c>
       <c r="M22">
-        <v>0.800486947769539</v>
+        <v>0.8004869477695413</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1090,31 +1090,31 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7868093199992839</v>
+        <v>0.7868093199992831</v>
       </c>
       <c r="D23">
-        <v>0.8132032074872261</v>
+        <v>0.8132032074872255</v>
       </c>
       <c r="E23">
-        <v>0.8195680784883712</v>
+        <v>0.8195680784883709</v>
       </c>
       <c r="F23">
-        <v>0.7937972625434269</v>
+        <v>0.7937972625434258</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.8299064149939378</v>
+        <v>0.8299064149939371</v>
       </c>
       <c r="K23">
-        <v>0.8332447030705183</v>
+        <v>0.8332447030705179</v>
       </c>
       <c r="L23">
-        <v>0.83939648723491</v>
+        <v>0.8393964872349094</v>
       </c>
       <c r="M23">
-        <v>0.8145180982378606</v>
+        <v>0.8145180982378597</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1122,31 +1122,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.8335801962026231</v>
+        <v>0.8335801962026202</v>
       </c>
       <c r="D24">
-        <v>0.8549552383415344</v>
+        <v>0.854955238341532</v>
       </c>
       <c r="E24">
-        <v>0.859874460518529</v>
+        <v>0.8598744605185267</v>
       </c>
       <c r="F24">
-        <v>0.8405112226381163</v>
+        <v>0.8405112226381137</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.8694262188838817</v>
+        <v>0.8694262188838789</v>
       </c>
       <c r="K24">
-        <v>0.8721186490524556</v>
+        <v>0.8721186490524533</v>
       </c>
       <c r="L24">
-        <v>0.8769079546925842</v>
+        <v>0.876907954692582</v>
       </c>
       <c r="M24">
-        <v>0.8580681060785802</v>
+        <v>0.8580681060785778</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1154,31 +1154,31 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.8743478276647655</v>
+        <v>0.8743478276647674</v>
       </c>
       <c r="D25">
-        <v>0.8915972376308317</v>
+        <v>0.8915972376308333</v>
       </c>
       <c r="E25">
-        <v>0.8952923991293326</v>
+        <v>0.8952923991293343</v>
       </c>
       <c r="F25">
-        <v>0.8814030267798567</v>
+        <v>0.8814030267798585</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.9039946867159014</v>
+        <v>0.9039946867159032</v>
       </c>
       <c r="K25">
-        <v>0.90614901103787</v>
+        <v>0.9061490110378715</v>
       </c>
       <c r="L25">
-        <v>0.9097672971705526</v>
+        <v>0.9097672971705544</v>
       </c>
       <c r="M25">
-        <v>0.8961713187643592</v>
+        <v>0.8961713187643608</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_40/res_bus/vm_pu.xlsx
@@ -418,31 +418,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9011378079628366</v>
+        <v>0.9011378079628355</v>
       </c>
       <c r="D2">
-        <v>0.9157776297168049</v>
+        <v>0.9157776297168041</v>
       </c>
       <c r="E2">
-        <v>0.9186811540528332</v>
+        <v>0.9186811540528318</v>
       </c>
       <c r="F2">
-        <v>0.9083617291852376</v>
+        <v>0.9083617291852363</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9267390284671754</v>
+        <v>0.9267390284671746</v>
       </c>
       <c r="K2">
-        <v>0.9285499534143373</v>
+        <v>0.9285499534143365</v>
       </c>
       <c r="L2">
-        <v>0.9314030308486163</v>
+        <v>0.931403030848615</v>
       </c>
       <c r="M2">
-        <v>0.9212647995636045</v>
+        <v>0.9212647995636033</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9184194175352501</v>
+        <v>0.9184194175352484</v>
       </c>
       <c r="D3">
-        <v>0.9314114846092517</v>
+        <v>0.9314114846092502</v>
       </c>
       <c r="E3">
-        <v>0.9338078562912701</v>
+        <v>0.9338078562912683</v>
       </c>
       <c r="F3">
-        <v>0.9257899368397347</v>
+        <v>0.9257899368397331</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9414113175671468</v>
+        <v>0.9414113175671452</v>
       </c>
       <c r="K3">
-        <v>0.9430043136593294</v>
+        <v>0.9430043136593276</v>
       </c>
       <c r="L3">
-        <v>0.9453641173042193</v>
+        <v>0.9453641173042179</v>
       </c>
       <c r="M3">
-        <v>0.9374694986684998</v>
+        <v>0.9374694986684987</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,31 +482,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9288242446037498</v>
+        <v>0.9288242446037485</v>
       </c>
       <c r="D4">
-        <v>0.9408360404631659</v>
+        <v>0.9408360404631643</v>
       </c>
       <c r="E4">
-        <v>0.9429279061070497</v>
+        <v>0.9429279061070486</v>
       </c>
       <c r="F4">
-        <v>0.9362978751151594</v>
+        <v>0.9362978751151579</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9502422008630891</v>
+        <v>0.9502422008630877</v>
       </c>
       <c r="K4">
-        <v>0.9517051743287518</v>
+        <v>0.9517051743287501</v>
       </c>
       <c r="L4">
-        <v>0.9537677088609525</v>
+        <v>0.9537677088609515</v>
       </c>
       <c r="M4">
-        <v>0.9472312108602912</v>
+        <v>0.9472312108602898</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -514,31 +514,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9330373261990484</v>
+        <v>0.9330373261990462</v>
       </c>
       <c r="D5">
-        <v>0.9446545067994341</v>
+        <v>0.944654506799432</v>
       </c>
       <c r="E5">
-        <v>0.9466231856204327</v>
+        <v>0.9466231856204307</v>
       </c>
       <c r="F5">
-        <v>0.9405559816939498</v>
+        <v>0.9405559816939476</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9538169126367434</v>
+        <v>0.9538169126367412</v>
       </c>
       <c r="K5">
-        <v>0.9552274697764345</v>
+        <v>0.9552274697764321</v>
       </c>
       <c r="L5">
-        <v>0.9571695176529175</v>
+        <v>0.9571695176529157</v>
       </c>
       <c r="M5">
-        <v>0.9511848371774362</v>
+        <v>0.9511848371774341</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -546,31 +546,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9337358958619806</v>
+        <v>0.9337358958619788</v>
       </c>
       <c r="D6">
-        <v>0.9452877685699923</v>
+        <v>0.9452877685699907</v>
       </c>
       <c r="E6">
-        <v>0.9472360262182247</v>
+        <v>0.947236026218223</v>
       </c>
       <c r="F6">
-        <v>0.9412622024581383</v>
+        <v>0.9412622024581369</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9544095634995997</v>
+        <v>0.9544095634995982</v>
       </c>
       <c r="K6">
-        <v>0.9558114418317767</v>
+        <v>0.9558114418317751</v>
       </c>
       <c r="L6">
-        <v>0.9577335036557202</v>
+        <v>0.9577335036557185</v>
       </c>
       <c r="M6">
-        <v>0.9518404349198718</v>
+        <v>0.95184043491987</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +578,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9288811442219028</v>
+        <v>0.9288811442219016</v>
       </c>
       <c r="D7">
-        <v>0.9408876020078454</v>
+        <v>0.9408876020078445</v>
       </c>
       <c r="E7">
-        <v>0.9429778036120405</v>
+        <v>0.9429778036120394</v>
       </c>
       <c r="F7">
-        <v>0.9363553701020175</v>
+        <v>0.9363553701020166</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9502904836174157</v>
+        <v>0.9502904836174146</v>
       </c>
       <c r="K7">
-        <v>0.9517527483136686</v>
+        <v>0.9517527483136677</v>
       </c>
       <c r="L7">
-        <v>0.9538136561461233</v>
+        <v>0.9538136561461222</v>
       </c>
       <c r="M7">
-        <v>0.947284602982037</v>
+        <v>0.9472846029820363</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,31 +610,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9071563187214102</v>
+        <v>0.90715631872141</v>
       </c>
       <c r="D8">
-        <v>0.9212193582170158</v>
+        <v>0.9212193582170157</v>
       </c>
       <c r="E8">
-        <v>0.9239460160068065</v>
+        <v>0.9239460160068059</v>
       </c>
       <c r="F8">
-        <v>0.9144278644973527</v>
+        <v>0.9144278644973526</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9318492011520692</v>
+        <v>0.931849201152069</v>
       </c>
       <c r="K8">
-        <v>0.9335839345567095</v>
+        <v>0.9335839345567093</v>
       </c>
       <c r="L8">
-        <v>0.936265249355267</v>
+        <v>0.9362652493552664</v>
       </c>
       <c r="M8">
-        <v>0.9269068979600822</v>
+        <v>0.9269068979600821</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -642,31 +642,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.861326979596877</v>
+        <v>0.8613269795968729</v>
       </c>
       <c r="D9">
-        <v>0.8798721940936975</v>
+        <v>0.879872194093694</v>
       </c>
       <c r="E9">
-        <v>0.8839553729457982</v>
+        <v>0.8839553729457945</v>
       </c>
       <c r="F9">
-        <v>0.8683252247609298</v>
+        <v>0.8683252247609259</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8929457961215904</v>
+        <v>0.8929457961215868</v>
       </c>
       <c r="K9">
-        <v>0.8952697893146165</v>
+        <v>0.895269789314613</v>
       </c>
       <c r="L9">
-        <v>0.8992609246468766</v>
+        <v>0.899260924646873</v>
       </c>
       <c r="M9">
-        <v>0.8839893918949423</v>
+        <v>0.8839893918949386</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,31 +674,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.822053023850415</v>
+        <v>0.8220530238504131</v>
       </c>
       <c r="D10">
-        <v>0.8446339474419141</v>
+        <v>0.8446339474419123</v>
       </c>
       <c r="E10">
-        <v>0.8499048057273451</v>
+        <v>0.8499048057273435</v>
       </c>
       <c r="F10">
-        <v>0.8289779334892077</v>
+        <v>0.8289779334892057</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8596690123172924</v>
+        <v>0.8596690123172906</v>
       </c>
       <c r="K10">
-        <v>0.8625175333094067</v>
+        <v>0.8625175333094049</v>
       </c>
       <c r="L10">
-        <v>0.8676403543714986</v>
+        <v>0.867640354371497</v>
       </c>
       <c r="M10">
-        <v>0.8473165135711714</v>
+        <v>0.8473165135711699</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,31 +706,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8012537696372327</v>
+        <v>0.8012537696372357</v>
       </c>
       <c r="D11">
-        <v>0.826060624218909</v>
+        <v>0.8260606242189115</v>
       </c>
       <c r="E11">
-        <v>0.8319734200027276</v>
+        <v>0.83197342000273</v>
       </c>
       <c r="F11">
-        <v>0.8082007102842192</v>
+        <v>0.8082007102842221</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8420902650200475</v>
+        <v>0.8420902650200504</v>
       </c>
       <c r="K11">
-        <v>0.8452254159867075</v>
+        <v>0.8452254159867099</v>
       </c>
       <c r="L11">
-        <v>0.8509536246129572</v>
+        <v>0.8509536246129595</v>
       </c>
       <c r="M11">
-        <v>0.8279459235307846</v>
+        <v>0.8279459235307873</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,31 +738,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7926422610699886</v>
+        <v>0.7926422610699912</v>
       </c>
       <c r="D12">
-        <v>0.8183909976851635</v>
+        <v>0.818390997685166</v>
       </c>
       <c r="E12">
-        <v>0.8245726547605176</v>
+        <v>0.8245726547605201</v>
       </c>
       <c r="F12">
-        <v>0.7996110597810077</v>
+        <v>0.7996110597810105</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8348238762122902</v>
+        <v>0.8348238762122926</v>
       </c>
       <c r="K12">
-        <v>0.8380797111959346</v>
+        <v>0.8380797111959372</v>
       </c>
       <c r="L12">
-        <v>0.8440601106425069</v>
+        <v>0.844060110642509</v>
       </c>
       <c r="M12">
-        <v>0.8199379433212257</v>
+        <v>0.8199379433212284</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,31 +770,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.794537947822529</v>
+        <v>0.7945379478225295</v>
       </c>
       <c r="D13">
-        <v>0.8200782746618932</v>
+        <v>0.8200782746618936</v>
       </c>
       <c r="E13">
-        <v>0.8262005821684504</v>
+        <v>0.826200582168451</v>
       </c>
       <c r="F13">
-        <v>0.8015012830554455</v>
+        <v>0.801501283055446</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.836422811122763</v>
+        <v>0.8364228111227634</v>
       </c>
       <c r="K13">
-        <v>0.8396519737086972</v>
+        <v>0.8396519737086976</v>
       </c>
       <c r="L13">
-        <v>0.8455767736671407</v>
+        <v>0.8455767736671412</v>
       </c>
       <c r="M13">
-        <v>0.821700133378622</v>
+        <v>0.8217001333786225</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -802,31 +802,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8005628865897527</v>
+        <v>0.8005628865897548</v>
       </c>
       <c r="D14">
-        <v>0.825444851519318</v>
+        <v>0.8254448515193198</v>
       </c>
       <c r="E14">
-        <v>0.8313791478379557</v>
+        <v>0.8313791478379572</v>
       </c>
       <c r="F14">
-        <v>0.8075113019066162</v>
+        <v>0.807511301906618</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8415070260178796</v>
+        <v>0.8415070260178815</v>
       </c>
       <c r="K14">
-        <v>0.8446518142087391</v>
+        <v>0.8446518142087408</v>
       </c>
       <c r="L14">
-        <v>0.8504002201727574</v>
+        <v>0.8504002201727587</v>
       </c>
       <c r="M14">
-        <v>0.8273031888003184</v>
+        <v>0.8273031888003203</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -834,31 +834,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8041434714050179</v>
+        <v>0.8041434714050129</v>
       </c>
       <c r="D15">
-        <v>0.8286370107033894</v>
+        <v>0.8286370107033851</v>
       </c>
       <c r="E15">
-        <v>0.834460006439978</v>
+        <v>0.8344600064399741</v>
       </c>
       <c r="F15">
-        <v>0.8110847673750744</v>
+        <v>0.8110847673750697</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.8445302281516185</v>
+        <v>0.8445302281516142</v>
       </c>
       <c r="K15">
-        <v>0.8476251537464038</v>
+        <v>0.8476251537463997</v>
       </c>
       <c r="L15">
-        <v>0.8532689494136678</v>
+        <v>0.8532689494136639</v>
       </c>
       <c r="M15">
-        <v>0.8306347403048721</v>
+        <v>0.8306347403048677</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,31 +866,31 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8233320416278056</v>
+        <v>0.8233320416278065</v>
       </c>
       <c r="D16">
-        <v>0.8457782265152037</v>
+        <v>0.8457782265152047</v>
       </c>
       <c r="E16">
-        <v>0.8510099305848451</v>
+        <v>0.8510099305848456</v>
       </c>
       <c r="F16">
-        <v>0.8302569918081405</v>
+        <v>0.8302569918081413</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.8607511624165493</v>
+        <v>0.86075116241655</v>
       </c>
       <c r="K16">
-        <v>0.8635822705107524</v>
+        <v>0.8635822705107533</v>
       </c>
       <c r="L16">
-        <v>0.8686680207766834</v>
+        <v>0.8686680207766839</v>
       </c>
       <c r="M16">
-        <v>0.8485089329368439</v>
+        <v>0.8485089329368447</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -898,31 +898,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8341982216878722</v>
+        <v>0.8341982216878743</v>
       </c>
       <c r="D17">
-        <v>0.855509137615726</v>
+        <v>0.8555091376157281</v>
       </c>
       <c r="E17">
-        <v>0.8604095837265275</v>
+        <v>0.8604095837265294</v>
       </c>
       <c r="F17">
-        <v>0.8411299400833013</v>
+        <v>0.8411299400833037</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.8699496092246799</v>
+        <v>0.8699496092246818</v>
       </c>
       <c r="K17">
-        <v>0.8726337232252013</v>
+        <v>0.8726337232252035</v>
       </c>
       <c r="L17">
-        <v>0.8774051832682608</v>
+        <v>0.8774051832682627</v>
       </c>
       <c r="M17">
-        <v>0.8586448523342668</v>
+        <v>0.858644852334269</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -930,31 +930,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.84019841119067</v>
+        <v>0.8401984111906659</v>
       </c>
       <c r="D18">
-        <v>0.8608894445439054</v>
+        <v>0.8608894445439013</v>
       </c>
       <c r="E18">
-        <v>0.8656079878927495</v>
+        <v>0.8656079878927457</v>
       </c>
       <c r="F18">
-        <v>0.847138762521328</v>
+        <v>0.8471387625213238</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.875032287654427</v>
+        <v>0.8750322876544231</v>
       </c>
       <c r="K18">
-        <v>0.8776359325208011</v>
+        <v>0.8776359325207971</v>
       </c>
       <c r="L18">
-        <v>0.8822343115686329</v>
+        <v>0.8822343115686292</v>
       </c>
       <c r="M18">
-        <v>0.8642458154235074</v>
+        <v>0.8642458154235034</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -962,31 +962,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8421930622198981</v>
+        <v>0.8421930622198961</v>
       </c>
       <c r="D19">
-        <v>0.8626790928821294</v>
+        <v>0.8626790928821275</v>
       </c>
       <c r="E19">
-        <v>0.8673373180147407</v>
+        <v>0.8673373180147393</v>
       </c>
       <c r="F19">
-        <v>0.8491370507522804</v>
+        <v>0.8491370507522786</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.8767224168143667</v>
+        <v>0.8767224168143649</v>
       </c>
       <c r="K19">
-        <v>0.8792994178543977</v>
+        <v>0.879299417854396</v>
       </c>
       <c r="L19">
-        <v>0.8838403272617313</v>
+        <v>0.88384032726173</v>
       </c>
       <c r="M19">
-        <v>0.8661083568265173</v>
+        <v>0.8661083568265157</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -994,31 +994,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8330688626582062</v>
+        <v>0.8330688626582012</v>
       </c>
       <c r="D20">
-        <v>0.8544970003898599</v>
+        <v>0.854497000389855</v>
       </c>
       <c r="E20">
-        <v>0.8594317629951015</v>
+        <v>0.8594317629950974</v>
       </c>
       <c r="F20">
-        <v>0.839999344491997</v>
+        <v>0.8399993444919923</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.868993202365179</v>
+        <v>0.8689932023651743</v>
       </c>
       <c r="K20">
-        <v>0.8716925170213697</v>
+        <v>0.8716925170213651</v>
       </c>
       <c r="L20">
-        <v>0.876496590139795</v>
+        <v>0.8764965901397906</v>
       </c>
       <c r="M20">
-        <v>0.857590948332653</v>
+        <v>0.8575909483326484</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1026,31 +1026,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.79881714460242</v>
+        <v>0.7988171446024176</v>
       </c>
       <c r="D21">
-        <v>0.8238892501374959</v>
+        <v>0.8238892501374939</v>
       </c>
       <c r="E21">
-        <v>0.829877928027776</v>
+        <v>0.8298779280277739</v>
       </c>
       <c r="F21">
-        <v>0.805769502060305</v>
+        <v>0.8057695020603027</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.8400334892353647</v>
+        <v>0.8400334892353626</v>
       </c>
       <c r="K21">
-        <v>0.843202663648597</v>
+        <v>0.8432026636485951</v>
       </c>
       <c r="L21">
-        <v>0.8490021318482683</v>
+        <v>0.8490021318482662</v>
       </c>
       <c r="M21">
-        <v>0.8256793176153362</v>
+        <v>0.8256793176153339</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1058,31 +1058,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7716902405391035</v>
+        <v>0.7716902405391013</v>
       </c>
       <c r="D22">
-        <v>0.7997847743416618</v>
+        <v>0.7997847743416598</v>
       </c>
       <c r="E22">
-        <v>0.8066289336720731</v>
+        <v>0.8066289336720713</v>
       </c>
       <c r="F22">
-        <v>0.7787445106785668</v>
+        <v>0.7787445106785643</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.8171782219414503</v>
+        <v>0.8171782219414483</v>
       </c>
       <c r="K22">
-        <v>0.8207330263219652</v>
+        <v>0.8207330263219633</v>
       </c>
       <c r="L22">
-        <v>0.8273313291079426</v>
+        <v>0.8273313291079408</v>
       </c>
       <c r="M22">
-        <v>0.8004869477695413</v>
+        <v>0.800486947769539</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1090,31 +1090,31 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7868093199992831</v>
+        <v>0.7868093199992839</v>
       </c>
       <c r="D23">
-        <v>0.8132032074872255</v>
+        <v>0.8132032074872261</v>
       </c>
       <c r="E23">
-        <v>0.8195680784883709</v>
+        <v>0.8195680784883712</v>
       </c>
       <c r="F23">
-        <v>0.7937972625434258</v>
+        <v>0.7937972625434269</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.8299064149939371</v>
+        <v>0.8299064149939378</v>
       </c>
       <c r="K23">
-        <v>0.8332447030705179</v>
+        <v>0.8332447030705183</v>
       </c>
       <c r="L23">
-        <v>0.8393964872349094</v>
+        <v>0.83939648723491</v>
       </c>
       <c r="M23">
-        <v>0.8145180982378597</v>
+        <v>0.8145180982378606</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1122,31 +1122,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.8335801962026202</v>
+        <v>0.8335801962026231</v>
       </c>
       <c r="D24">
-        <v>0.854955238341532</v>
+        <v>0.8549552383415344</v>
       </c>
       <c r="E24">
-        <v>0.8598744605185267</v>
+        <v>0.859874460518529</v>
       </c>
       <c r="F24">
-        <v>0.8405112226381137</v>
+        <v>0.8405112226381163</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.8694262188838789</v>
+        <v>0.8694262188838817</v>
       </c>
       <c r="K24">
-        <v>0.8721186490524533</v>
+        <v>0.8721186490524556</v>
       </c>
       <c r="L24">
-        <v>0.876907954692582</v>
+        <v>0.8769079546925842</v>
       </c>
       <c r="M24">
-        <v>0.8580681060785778</v>
+        <v>0.8580681060785802</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1154,31 +1154,31 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.8743478276647674</v>
+        <v>0.8743478276647655</v>
       </c>
       <c r="D25">
-        <v>0.8915972376308333</v>
+        <v>0.8915972376308317</v>
       </c>
       <c r="E25">
-        <v>0.8952923991293343</v>
+        <v>0.8952923991293326</v>
       </c>
       <c r="F25">
-        <v>0.8814030267798585</v>
+        <v>0.8814030267798567</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.9039946867159032</v>
+        <v>0.9039946867159014</v>
       </c>
       <c r="K25">
-        <v>0.9061490110378715</v>
+        <v>0.90614901103787</v>
       </c>
       <c r="L25">
-        <v>0.9097672971705544</v>
+        <v>0.9097672971705526</v>
       </c>
       <c r="M25">
-        <v>0.8961713187643608</v>
+        <v>0.8961713187643592</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_40/res_bus/vm_pu.xlsx
@@ -418,31 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9011378079628355</v>
+        <v>0.9013012555203703</v>
       </c>
       <c r="D2">
-        <v>0.9157776297168041</v>
+        <v>0.9159309838173487</v>
       </c>
       <c r="E2">
-        <v>0.9186811540528318</v>
+        <v>0.9188281663996445</v>
       </c>
       <c r="F2">
-        <v>0.9083617291852363</v>
+        <v>0.9085214310546074</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9267390284671746</v>
+        <v>0.926895939713361</v>
       </c>
       <c r="K2">
-        <v>0.9285499534143365</v>
+        <v>0.92870063272481</v>
       </c>
       <c r="L2">
-        <v>0.931403030848615</v>
+        <v>0.9315474999194318</v>
       </c>
       <c r="M2">
-        <v>0.9212647995636033</v>
+        <v>0.9214216566051627</v>
+      </c>
+      <c r="N2">
+        <v>0.9484347478678662</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9184194175352484</v>
+        <v>0.9185531134630419</v>
       </c>
       <c r="D3">
-        <v>0.9314114846092502</v>
+        <v>0.9315372609886672</v>
       </c>
       <c r="E3">
-        <v>0.9338078562912683</v>
+        <v>0.9339284205653476</v>
       </c>
       <c r="F3">
-        <v>0.9257899368397331</v>
+        <v>0.925920491306138</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9414113175671452</v>
+        <v>0.9415404056435226</v>
       </c>
       <c r="K3">
-        <v>0.9430043136593276</v>
+        <v>0.9431281647547677</v>
       </c>
       <c r="L3">
-        <v>0.9453641173042179</v>
+        <v>0.9454828481175629</v>
       </c>
       <c r="M3">
-        <v>0.9374694986684987</v>
+        <v>0.9375980235941243</v>
+      </c>
+      <c r="N3">
+        <v>0.959009118048576</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,31 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9288242446037485</v>
+        <v>0.9289412984409167</v>
       </c>
       <c r="D4">
-        <v>0.9408360404631643</v>
+        <v>0.9409463312267721</v>
       </c>
       <c r="E4">
-        <v>0.9429279061070486</v>
+        <v>0.9430336250897078</v>
       </c>
       <c r="F4">
-        <v>0.9362978751151579</v>
+        <v>0.9364121412196117</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9502422008630877</v>
+        <v>0.9503555912244218</v>
       </c>
       <c r="K4">
-        <v>0.9517051743287501</v>
+        <v>0.9518139145355526</v>
       </c>
       <c r="L4">
-        <v>0.9537677088609515</v>
+        <v>0.9538719498649763</v>
       </c>
       <c r="M4">
-        <v>0.9472312108602898</v>
+        <v>0.9473438507702254</v>
+      </c>
+      <c r="N4">
+        <v>0.9653676062194262</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -514,31 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9330373261990462</v>
+        <v>0.9331478818178255</v>
       </c>
       <c r="D5">
-        <v>0.944654506799432</v>
+        <v>0.9447587395367359</v>
       </c>
       <c r="E5">
-        <v>0.9466231856204307</v>
+        <v>0.9467230985943249</v>
       </c>
       <c r="F5">
-        <v>0.9405559816939476</v>
+        <v>0.9406638914250472</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9538169126367412</v>
+        <v>0.9539241463411332</v>
       </c>
       <c r="K5">
-        <v>0.9552274697764321</v>
+        <v>0.9553302890238353</v>
       </c>
       <c r="L5">
-        <v>0.9571695176529157</v>
+        <v>0.9572680827852897</v>
       </c>
       <c r="M5">
-        <v>0.9511848371774341</v>
+        <v>0.9512912674558746</v>
+      </c>
+      <c r="N5">
+        <v>0.9679397504508677</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -546,31 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9337358958619788</v>
+        <v>0.9338453866623573</v>
       </c>
       <c r="D6">
-        <v>0.9452877685699907</v>
+        <v>0.9453910080199113</v>
       </c>
       <c r="E6">
-        <v>0.947236026218223</v>
+        <v>0.9473349873175868</v>
       </c>
       <c r="F6">
-        <v>0.9412622024581369</v>
+        <v>0.941369070831882</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9544095634995982</v>
+        <v>0.954515786875452</v>
       </c>
       <c r="K6">
-        <v>0.9558114418317751</v>
+        <v>0.9559132897420957</v>
       </c>
       <c r="L6">
-        <v>0.9577335036557185</v>
+        <v>0.9578311377598206</v>
       </c>
       <c r="M6">
-        <v>0.95184043491987</v>
+        <v>0.951945847298962</v>
+      </c>
+      <c r="N6">
+        <v>0.9683660745686382</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9288811442219016</v>
+        <v>0.9289981094100715</v>
       </c>
       <c r="D7">
-        <v>0.9408876020078445</v>
+        <v>0.9409978101701474</v>
       </c>
       <c r="E7">
-        <v>0.9429778036120394</v>
+        <v>0.9430834434234361</v>
       </c>
       <c r="F7">
-        <v>0.9363553701020166</v>
+        <v>0.9364695494775734</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9502904836174146</v>
+        <v>0.9504037900932361</v>
       </c>
       <c r="K7">
-        <v>0.9517527483136677</v>
+        <v>0.9518614078247016</v>
       </c>
       <c r="L7">
-        <v>0.9538136561461222</v>
+        <v>0.9539178197876661</v>
       </c>
       <c r="M7">
-        <v>0.9472846029820363</v>
+        <v>0.9473971582061378</v>
+      </c>
+      <c r="N7">
+        <v>0.965402354900447</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,31 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.90715631872141</v>
+        <v>0.9073090804413052</v>
       </c>
       <c r="D8">
-        <v>0.9212193582170157</v>
+        <v>0.9213628230979471</v>
       </c>
       <c r="E8">
-        <v>0.9239460160068059</v>
+        <v>0.9240835429250465</v>
       </c>
       <c r="F8">
-        <v>0.9144278644973526</v>
+        <v>0.9145770939370333</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.931849201152069</v>
+        <v>0.9319961536747792</v>
       </c>
       <c r="K8">
-        <v>0.9335839345567093</v>
+        <v>0.9337250050689689</v>
       </c>
       <c r="L8">
-        <v>0.9362652493552664</v>
+        <v>0.9364004983925228</v>
       </c>
       <c r="M8">
-        <v>0.9269068979600821</v>
+        <v>0.9270535888507015</v>
+      </c>
+      <c r="N8">
+        <v>0.9521187337009274</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -642,31 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.8613269795968729</v>
+        <v>0.8615721889372983</v>
       </c>
       <c r="D9">
-        <v>0.879872194093694</v>
+        <v>0.8801006381489461</v>
       </c>
       <c r="E9">
-        <v>0.8839553729457945</v>
+        <v>0.8841744340070501</v>
       </c>
       <c r="F9">
-        <v>0.8683252247609259</v>
+        <v>0.8685651424852783</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8929457961215868</v>
+        <v>0.8931777462314937</v>
       </c>
       <c r="K9">
-        <v>0.895269789314613</v>
+        <v>0.8954930536631964</v>
       </c>
       <c r="L9">
-        <v>0.899260924646873</v>
+        <v>0.8994750796174014</v>
       </c>
       <c r="M9">
-        <v>0.8839893918949386</v>
+        <v>0.8842236743146122</v>
+      </c>
+      <c r="N9">
+        <v>0.9240652105153851</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,31 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8220530238504131</v>
+        <v>0.8224067729266846</v>
       </c>
       <c r="D10">
-        <v>0.8446339474419123</v>
+        <v>0.8449606491028648</v>
       </c>
       <c r="E10">
-        <v>0.8499048057273435</v>
+        <v>0.85021815003681</v>
       </c>
       <c r="F10">
-        <v>0.8289779334892057</v>
+        <v>0.829324432867691</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8596690123172906</v>
+        <v>0.8599979790282805</v>
       </c>
       <c r="K10">
-        <v>0.8625175333094049</v>
+        <v>0.8628349858161126</v>
       </c>
       <c r="L10">
-        <v>0.867640354371497</v>
+        <v>0.8679449769709026</v>
       </c>
       <c r="M10">
-        <v>0.8473165135711699</v>
+        <v>0.8476526873174161</v>
+      </c>
+      <c r="N10">
+        <v>0.9001025854287839</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,31 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8012537696372357</v>
+        <v>0.8016832226702798</v>
       </c>
       <c r="D11">
-        <v>0.8260606242189115</v>
+        <v>0.8264550671670883</v>
       </c>
       <c r="E11">
-        <v>0.83197342000273</v>
+        <v>0.8323517445692429</v>
       </c>
       <c r="F11">
-        <v>0.8082007102842221</v>
+        <v>0.8086215429808841</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8420902650200504</v>
+        <v>0.8424855849057671</v>
       </c>
       <c r="K11">
-        <v>0.8452254159867099</v>
+        <v>0.8456074313867895</v>
       </c>
       <c r="L11">
-        <v>0.8509536246129595</v>
+        <v>0.8513202617140492</v>
       </c>
       <c r="M11">
-        <v>0.8279459235307873</v>
+        <v>0.8283526689950322</v>
+      </c>
+      <c r="N11">
+        <v>0.887479030404687</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,31 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7926422610699912</v>
+        <v>0.7931084108124756</v>
       </c>
       <c r="D12">
-        <v>0.818390997685166</v>
+        <v>0.8188180847390347</v>
       </c>
       <c r="E12">
-        <v>0.8245726547605201</v>
+        <v>0.824982284941847</v>
       </c>
       <c r="F12">
-        <v>0.7996110597810105</v>
+        <v>0.8000679157616882</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8348238762122926</v>
+        <v>0.8352510576478052</v>
       </c>
       <c r="K12">
-        <v>0.8380797111959372</v>
+        <v>0.8384927577041542</v>
       </c>
       <c r="L12">
-        <v>0.844060110642509</v>
+        <v>0.8444565520512828</v>
       </c>
       <c r="M12">
-        <v>0.8199379433212284</v>
+        <v>0.8203787770713008</v>
+      </c>
+      <c r="N12">
+        <v>0.8822710386695842</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,31 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7945379478225295</v>
+        <v>0.7949957026525293</v>
       </c>
       <c r="D13">
-        <v>0.8200782746618936</v>
+        <v>0.820497903990707</v>
       </c>
       <c r="E13">
-        <v>0.826200582168451</v>
+        <v>0.8266030608777566</v>
       </c>
       <c r="F13">
-        <v>0.801501283055446</v>
+        <v>0.8019498988042596</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.8364228111227634</v>
+        <v>0.8368427192571607</v>
       </c>
       <c r="K13">
-        <v>0.8396519737086976</v>
+        <v>0.8400579350649107</v>
       </c>
       <c r="L13">
-        <v>0.8455767736671412</v>
+        <v>0.8459664101761587</v>
       </c>
       <c r="M13">
-        <v>0.8217001333786225</v>
+        <v>0.8221331752475368</v>
+      </c>
+      <c r="N13">
+        <v>0.8834164579968155</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -802,31 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8005628865897548</v>
+        <v>0.8009951526624931</v>
       </c>
       <c r="D14">
-        <v>0.8254448515193198</v>
+        <v>0.8258418009933507</v>
       </c>
       <c r="E14">
-        <v>0.8313791478379572</v>
+        <v>0.8317598763442432</v>
       </c>
       <c r="F14">
-        <v>0.807511301906618</v>
+        <v>0.8079348962633478</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8415070260178815</v>
+        <v>0.8419047946900551</v>
       </c>
       <c r="K14">
-        <v>0.8446518142087408</v>
+        <v>0.8450362139751244</v>
       </c>
       <c r="L14">
-        <v>0.8504002201727587</v>
+        <v>0.8507691474310152</v>
       </c>
       <c r="M14">
-        <v>0.8273031888003203</v>
+        <v>0.8277125499448098</v>
+      </c>
+      <c r="N14">
+        <v>0.8870607686500194</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -834,31 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8041434714050129</v>
+        <v>0.804561389105071</v>
       </c>
       <c r="D15">
-        <v>0.8286370107033851</v>
+        <v>0.8290211677135885</v>
       </c>
       <c r="E15">
-        <v>0.8344600064399741</v>
+        <v>0.8348284657219189</v>
       </c>
       <c r="F15">
-        <v>0.8110847673750697</v>
+        <v>0.8114942750371446</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.8445302281516142</v>
+        <v>0.8449154946844595</v>
       </c>
       <c r="K15">
-        <v>0.8476251537463997</v>
+        <v>0.8479973813806584</v>
       </c>
       <c r="L15">
-        <v>0.8532689494136639</v>
+        <v>0.8536261853868972</v>
       </c>
       <c r="M15">
-        <v>0.8306347403048677</v>
+        <v>0.8310307550387659</v>
+      </c>
+      <c r="N15">
+        <v>0.8892292480220483</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,319 +908,349 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8233320416278065</v>
+        <v>0.823681632663026</v>
       </c>
       <c r="D16">
-        <v>0.8457782265152047</v>
+        <v>0.8461011902851622</v>
       </c>
       <c r="E16">
-        <v>0.8510099305848456</v>
+        <v>0.8513196887453294</v>
       </c>
       <c r="F16">
-        <v>0.8302569918081413</v>
+        <v>0.8305994079301239</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.86075116241655</v>
+        <v>0.8610764570019507</v>
       </c>
       <c r="K16">
-        <v>0.8635822705107533</v>
+        <v>0.8638961528282673</v>
       </c>
       <c r="L16">
-        <v>0.8686680207766839</v>
+        <v>0.8689692140207254</v>
       </c>
       <c r="M16">
-        <v>0.8485089329368447</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8488412197674164</v>
+      </c>
+      <c r="N16">
+        <v>0.9008806647502767</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8341982216878743</v>
+        <v>0.8345144171032007</v>
       </c>
       <c r="D17">
-        <v>0.8555091376157281</v>
+        <v>0.8558020086785428</v>
       </c>
       <c r="E17">
-        <v>0.8604095837265294</v>
+        <v>0.8606904688129225</v>
       </c>
       <c r="F17">
-        <v>0.8411299400833037</v>
+        <v>0.8414395606047987</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.8699496092246818</v>
+        <v>0.8702452924341536</v>
       </c>
       <c r="K17">
-        <v>0.8726337232252035</v>
+        <v>0.8729188291959802</v>
       </c>
       <c r="L17">
-        <v>0.8774051832682627</v>
+        <v>0.8776787354066123</v>
       </c>
       <c r="M17">
-        <v>0.858644852334269</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8589458763260771</v>
+      </c>
+      <c r="N17">
+        <v>0.9074982561177347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8401984111906659</v>
+        <v>0.8404975114426297</v>
       </c>
       <c r="D18">
-        <v>0.8608894445439013</v>
+        <v>0.861166859674914</v>
       </c>
       <c r="E18">
-        <v>0.8656079878927457</v>
+        <v>0.8658740422577139</v>
       </c>
       <c r="F18">
-        <v>0.8471387625213238</v>
+        <v>0.8474315951851965</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.8750322876544231</v>
+        <v>0.8753127262126681</v>
       </c>
       <c r="K18">
-        <v>0.8776359325207971</v>
+        <v>0.8779062336045923</v>
       </c>
       <c r="L18">
-        <v>0.8822343115686292</v>
+        <v>0.8824936431518815</v>
       </c>
       <c r="M18">
-        <v>0.8642458154235034</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8645308037696444</v>
+      </c>
+      <c r="N18">
+        <v>0.9111574647850774</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8421930622198961</v>
+        <v>0.8424866716800183</v>
       </c>
       <c r="D19">
-        <v>0.8626790928821275</v>
+        <v>0.862951535985246</v>
       </c>
       <c r="E19">
-        <v>0.8673373180147393</v>
+        <v>0.8675986013343834</v>
       </c>
       <c r="F19">
-        <v>0.8491370507522786</v>
+        <v>0.8494244914500167</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.8767224168143649</v>
+        <v>0.8769979457075336</v>
       </c>
       <c r="K19">
-        <v>0.879299417854396</v>
+        <v>0.8795649524643875</v>
       </c>
       <c r="L19">
-        <v>0.88384032726173</v>
+        <v>0.8840950805735599</v>
       </c>
       <c r="M19">
-        <v>0.8661083568265157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8663881898418667</v>
+      </c>
+      <c r="N19">
+        <v>0.9123746118410877</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8330688626582012</v>
+        <v>0.8333883773741323</v>
       </c>
       <c r="D20">
-        <v>0.854497000389855</v>
+        <v>0.8547928683262666</v>
       </c>
       <c r="E20">
-        <v>0.8594317629950974</v>
+        <v>0.8597155236419245</v>
       </c>
       <c r="F20">
-        <v>0.8399993444919923</v>
+        <v>0.8403122246854473</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.8689932023651743</v>
+        <v>0.8692918385394544</v>
       </c>
       <c r="K20">
-        <v>0.8716925170213651</v>
+        <v>0.8719804915855587</v>
       </c>
       <c r="L20">
-        <v>0.8764965901397906</v>
+        <v>0.8767728976825395</v>
       </c>
       <c r="M20">
-        <v>0.8575909483326484</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8578950833088784</v>
+      </c>
+      <c r="N20">
+        <v>0.906809897408405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.7988171446024176</v>
+        <v>0.7992566166806013</v>
       </c>
       <c r="D21">
-        <v>0.8238892501374939</v>
+        <v>0.8242926172226226</v>
       </c>
       <c r="E21">
-        <v>0.8298779280277739</v>
+        <v>0.8302648113456305</v>
       </c>
       <c r="F21">
-        <v>0.8057695020603027</v>
+        <v>0.8062001706288722</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.8400334892353626</v>
+        <v>0.8404375258419082</v>
       </c>
       <c r="K21">
-        <v>0.8432026636485951</v>
+        <v>0.8435931669278928</v>
       </c>
       <c r="L21">
-        <v>0.8490021318482662</v>
+        <v>0.8493769214221472</v>
       </c>
       <c r="M21">
-        <v>0.8256793176153339</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8260953771890617</v>
+      </c>
+      <c r="N21">
+        <v>0.8860042240681004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7716902405391013</v>
+        <v>0.7722637308487413</v>
       </c>
       <c r="D22">
-        <v>0.7997847743416598</v>
+        <v>0.8003067544020899</v>
       </c>
       <c r="E22">
-        <v>0.8066289336720713</v>
+        <v>0.8071295364436989</v>
       </c>
       <c r="F22">
-        <v>0.7787445106785643</v>
+        <v>0.7793066932402758</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.8171782219414483</v>
+        <v>0.8176977062005958</v>
       </c>
       <c r="K22">
-        <v>0.8207330263219633</v>
+        <v>0.8212360478342799</v>
       </c>
       <c r="L22">
-        <v>0.8273313291079408</v>
+        <v>0.8278141781844182</v>
       </c>
       <c r="M22">
-        <v>0.800486947769539</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8010271209452264</v>
+      </c>
+      <c r="N22">
+        <v>0.8696549629967018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7868093199992839</v>
+        <v>0.7873025314503017</v>
       </c>
       <c r="D23">
-        <v>0.8132032074872261</v>
+        <v>0.8136542966701151</v>
       </c>
       <c r="E23">
-        <v>0.8195680784883712</v>
+        <v>0.8200007232748225</v>
       </c>
       <c r="F23">
-        <v>0.7937972625434269</v>
+        <v>0.7942806789249648</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.8299064149939378</v>
+        <v>0.8303569841264767</v>
       </c>
       <c r="K23">
-        <v>0.8332447030705183</v>
+        <v>0.8336805374738574</v>
       </c>
       <c r="L23">
-        <v>0.83939648723491</v>
+        <v>0.8398148145429757</v>
       </c>
       <c r="M23">
-        <v>0.8145180982378606</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8149840256992918</v>
+      </c>
+      <c r="N23">
+        <v>0.8787505156392272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.8335801962026231</v>
+        <v>0.8338982039314049</v>
       </c>
       <c r="D24">
-        <v>0.8549552383415344</v>
+        <v>0.855249745839557</v>
       </c>
       <c r="E24">
-        <v>0.859874460518529</v>
+        <v>0.8601569158010972</v>
       </c>
       <c r="F24">
-        <v>0.8405112226381163</v>
+        <v>0.8408226229154198</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.8694262188838817</v>
+        <v>0.8697235146675854</v>
       </c>
       <c r="K24">
-        <v>0.8721186490524556</v>
+        <v>0.872405321491671</v>
       </c>
       <c r="L24">
-        <v>0.8769079546925842</v>
+        <v>0.8771830114886471</v>
       </c>
       <c r="M24">
-        <v>0.8580681060785802</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8583708287477223</v>
+      </c>
+      <c r="N24">
+        <v>0.90712154623604</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.8743478276647655</v>
+        <v>0.8745638725430422</v>
       </c>
       <c r="D25">
-        <v>0.8915972376308317</v>
+        <v>0.8917990116254297</v>
       </c>
       <c r="E25">
-        <v>0.8952923991293326</v>
+        <v>0.8954858673295898</v>
       </c>
       <c r="F25">
-        <v>0.8814030267798567</v>
+        <v>0.8816143182800839</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.9039946867159014</v>
+        <v>0.9042000918478368</v>
       </c>
       <c r="K25">
-        <v>0.90614901103787</v>
+        <v>0.9063465655199692</v>
       </c>
       <c r="L25">
-        <v>0.9097672971705526</v>
+        <v>0.9099567634715647</v>
       </c>
       <c r="M25">
-        <v>0.8961713187643592</v>
+        <v>0.8963780551488886</v>
+      </c>
+      <c r="N25">
+        <v>0.9320322550753538</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_40/res_bus/vm_pu.xlsx
@@ -417,840 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
       <c r="C2">
-        <v>0.9013012555203703</v>
+        <v>0.9597238735298395</v>
       </c>
       <c r="D2">
-        <v>0.9159309838173487</v>
+        <v>0.9745763639402079</v>
       </c>
       <c r="E2">
-        <v>0.9188281663996445</v>
+        <v>0.9742218118708759</v>
       </c>
       <c r="F2">
-        <v>0.9085214310546074</v>
+        <v>0.9801678108990511</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1.03737941885187</v>
+      </c>
       <c r="J2">
-        <v>0.926895939713361</v>
+        <v>0.9831797948252275</v>
       </c>
       <c r="K2">
-        <v>0.92870063272481</v>
+        <v>0.9864016333259921</v>
       </c>
       <c r="L2">
-        <v>0.9315474999194318</v>
+        <v>0.9860523561629463</v>
       </c>
       <c r="M2">
-        <v>0.9214216566051627</v>
+        <v>0.9919105332159568</v>
       </c>
       <c r="N2">
-        <v>0.9484347478678662</v>
+        <v>0.9845760229061781</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
       <c r="C3">
-        <v>0.9185531134630419</v>
+        <v>0.9906172092557725</v>
       </c>
       <c r="D3">
-        <v>0.9315372609886672</v>
+        <v>1.004610725288795</v>
       </c>
       <c r="E3">
-        <v>0.9339284205653476</v>
+        <v>1.00231130437674</v>
       </c>
       <c r="F3">
-        <v>0.925920491306138</v>
+        <v>1.010192879264697</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.040753453243676</v>
+      </c>
       <c r="J3">
-        <v>0.9415404056435226</v>
+        <v>1.011366968326904</v>
       </c>
       <c r="K3">
-        <v>0.9431281647547677</v>
+        <v>1.015184949004627</v>
       </c>
       <c r="L3">
-        <v>0.9454828481175629</v>
+        <v>1.012914696808803</v>
       </c>
       <c r="M3">
-        <v>0.9375980235941243</v>
+        <v>1.02069698057385</v>
       </c>
       <c r="N3">
-        <v>0.959009118048576</v>
+        <v>1.01280322542734</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
       <c r="C4">
-        <v>0.9289412984409167</v>
+        <v>1.008320126236351</v>
       </c>
       <c r="D4">
-        <v>0.9409463312267721</v>
+        <v>1.021836792286332</v>
       </c>
       <c r="E4">
-        <v>0.9430336250897078</v>
+        <v>1.018420227881647</v>
       </c>
       <c r="F4">
-        <v>0.9364121412196117</v>
+        <v>1.027416342823101</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.042670644626902</v>
+      </c>
       <c r="J4">
-        <v>0.9503555912244218</v>
+        <v>1.027513370570734</v>
       </c>
       <c r="K4">
-        <v>0.9518139145355526</v>
+        <v>1.031678620892519</v>
       </c>
       <c r="L4">
-        <v>0.9538719498649763</v>
+        <v>1.028301306221284</v>
       </c>
       <c r="M4">
-        <v>0.9473438507702254</v>
+        <v>1.037194764862208</v>
       </c>
       <c r="N4">
-        <v>0.9653676062194262</v>
+        <v>1.028972557414375</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
       <c r="C5">
-        <v>0.9331478818178255</v>
+        <v>1.015333684657785</v>
       </c>
       <c r="D5">
-        <v>0.9447587395367359</v>
+        <v>1.028664267320267</v>
       </c>
       <c r="E5">
-        <v>0.9467230985943249</v>
+        <v>1.024804289620947</v>
       </c>
       <c r="F5">
-        <v>0.9406638914250472</v>
+        <v>1.034243369649092</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.043425472909297</v>
+      </c>
       <c r="J5">
-        <v>0.9539241463411332</v>
+        <v>1.033908252801363</v>
       </c>
       <c r="K5">
-        <v>0.9553302890238353</v>
+        <v>1.038212378082088</v>
       </c>
       <c r="L5">
-        <v>0.9572680827852897</v>
+        <v>1.034394955848778</v>
       </c>
       <c r="M5">
-        <v>0.9512912674558746</v>
+        <v>1.043730660600361</v>
       </c>
       <c r="N5">
-        <v>0.9679397504508677</v>
+        <v>1.035376521111276</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
       <c r="C6">
-        <v>0.9338453866623573</v>
+        <v>1.016488760950491</v>
       </c>
       <c r="D6">
-        <v>0.9453910080199113</v>
+        <v>1.029788845139701</v>
       </c>
       <c r="E6">
-        <v>0.9473349873175868</v>
+        <v>1.025855788583306</v>
       </c>
       <c r="F6">
-        <v>0.941369070831882</v>
+        <v>1.035367906523476</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1.0435494885336</v>
+      </c>
       <c r="J6">
-        <v>0.954515786875452</v>
+        <v>1.034961305600661</v>
       </c>
       <c r="K6">
-        <v>0.9559132897420957</v>
+        <v>1.039288377198162</v>
       </c>
       <c r="L6">
-        <v>0.9578311377598206</v>
+        <v>1.035398383976693</v>
       </c>
       <c r="M6">
-        <v>0.951945847298962</v>
+        <v>1.044807040947003</v>
       </c>
       <c r="N6">
-        <v>0.9683660745686382</v>
+        <v>1.036431069366334</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
       <c r="C7">
-        <v>0.9289981094100715</v>
+        <v>1.008415403637274</v>
       </c>
       <c r="D7">
-        <v>0.9409978101701474</v>
+        <v>1.021929531318413</v>
       </c>
       <c r="E7">
-        <v>0.9430834434234361</v>
+        <v>1.018506946742915</v>
       </c>
       <c r="F7">
-        <v>0.9364695494775734</v>
+        <v>1.027509073496403</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.042680918695998</v>
+      </c>
       <c r="J7">
-        <v>0.9504037900932361</v>
+        <v>1.027600252162439</v>
       </c>
       <c r="K7">
-        <v>0.9518614078247016</v>
+        <v>1.031767383942291</v>
       </c>
       <c r="L7">
-        <v>0.9539178197876661</v>
+        <v>1.028384096580635</v>
       </c>
       <c r="M7">
-        <v>0.9473971582061378</v>
+        <v>1.037283554965966</v>
       </c>
       <c r="N7">
-        <v>0.965402354900447</v>
+        <v>1.029059562387906</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
       <c r="C8">
-        <v>0.9073090804413052</v>
+        <v>0.9707277312614748</v>
       </c>
       <c r="D8">
-        <v>0.9213628230979471</v>
+        <v>0.9852701233245245</v>
       </c>
       <c r="E8">
-        <v>0.9240835429250465</v>
+        <v>0.9842232733734517</v>
       </c>
       <c r="F8">
-        <v>0.9145770939370333</v>
+        <v>0.9908575914216197</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.03858420927267</v>
+      </c>
       <c r="J8">
-        <v>0.9319961536747792</v>
+        <v>0.9932205305448281</v>
       </c>
       <c r="K8">
-        <v>0.9337250050689689</v>
+        <v>0.9966533874319538</v>
       </c>
       <c r="L8">
-        <v>0.9364004983925228</v>
+        <v>0.99562127808823</v>
       </c>
       <c r="M8">
-        <v>0.9270535888507015</v>
+        <v>1.002162843321658</v>
       </c>
       <c r="N8">
-        <v>0.9521187337009274</v>
+        <v>0.9946310176221889</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
       <c r="C9">
-        <v>0.8615721889372983</v>
+        <v>0.8755053412886401</v>
       </c>
       <c r="D9">
-        <v>0.8801006381489461</v>
+        <v>0.8929122287855635</v>
       </c>
       <c r="E9">
-        <v>0.8841744340070501</v>
+        <v>0.8978656838183672</v>
       </c>
       <c r="F9">
-        <v>0.8685651424852783</v>
+        <v>0.8985577388663186</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.028149464828402</v>
+      </c>
       <c r="J9">
-        <v>0.8931777462314937</v>
+        <v>0.9063751515847459</v>
       </c>
       <c r="K9">
-        <v>0.8954930536631964</v>
+        <v>0.9080197898532206</v>
       </c>
       <c r="L9">
-        <v>0.8994750796174014</v>
+        <v>0.9128659983772286</v>
       </c>
       <c r="M9">
-        <v>0.8842236743146122</v>
+        <v>0.9135431946541367</v>
       </c>
       <c r="N9">
-        <v>0.9240652105153851</v>
+        <v>0.907662308262679</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
       <c r="C10">
-        <v>0.8224067729266846</v>
+        <v>0.8755053412886401</v>
       </c>
       <c r="D10">
-        <v>0.8449606491028648</v>
+        <v>0.8929122287855635</v>
       </c>
       <c r="E10">
-        <v>0.85021815003681</v>
+        <v>0.8978656838183672</v>
       </c>
       <c r="F10">
-        <v>0.829324432867691</v>
+        <v>0.8985577388663186</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.028149464828402</v>
+      </c>
       <c r="J10">
-        <v>0.8599979790282805</v>
+        <v>0.9063751515847459</v>
       </c>
       <c r="K10">
-        <v>0.8628349858161126</v>
+        <v>0.9080197898532206</v>
       </c>
       <c r="L10">
-        <v>0.8679449769709026</v>
+        <v>0.9128659983772286</v>
       </c>
       <c r="M10">
-        <v>0.8476526873174161</v>
+        <v>0.9135431946541367</v>
       </c>
       <c r="N10">
-        <v>0.9001025854287839</v>
+        <v>0.907662308262679</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
       <c r="C11">
-        <v>0.8016832226702798</v>
+        <v>0.8755053412886401</v>
       </c>
       <c r="D11">
-        <v>0.8264550671670883</v>
+        <v>0.8929122287855635</v>
       </c>
       <c r="E11">
-        <v>0.8323517445692429</v>
+        <v>0.8978656838183672</v>
       </c>
       <c r="F11">
-        <v>0.8086215429808841</v>
+        <v>0.8985577388663186</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.028149464828402</v>
+      </c>
       <c r="J11">
-        <v>0.8424855849057671</v>
+        <v>0.9063751515847459</v>
       </c>
       <c r="K11">
-        <v>0.8456074313867895</v>
+        <v>0.9080197898532206</v>
       </c>
       <c r="L11">
-        <v>0.8513202617140492</v>
+        <v>0.9128659983772286</v>
       </c>
       <c r="M11">
-        <v>0.8283526689950322</v>
+        <v>0.9135431946541367</v>
       </c>
       <c r="N11">
-        <v>0.887479030404687</v>
+        <v>0.907662308262679</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
       <c r="C12">
-        <v>0.7931084108124756</v>
+        <v>0.8755053412886401</v>
       </c>
       <c r="D12">
-        <v>0.8188180847390347</v>
+        <v>0.8929122287855635</v>
       </c>
       <c r="E12">
-        <v>0.824982284941847</v>
+        <v>0.8978656838183672</v>
       </c>
       <c r="F12">
-        <v>0.8000679157616882</v>
+        <v>0.8985577388663186</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.028149464828402</v>
+      </c>
       <c r="J12">
-        <v>0.8352510576478052</v>
+        <v>0.9063751515847459</v>
       </c>
       <c r="K12">
-        <v>0.8384927577041542</v>
+        <v>0.9080197898532206</v>
       </c>
       <c r="L12">
-        <v>0.8444565520512828</v>
+        <v>0.9128659983772286</v>
       </c>
       <c r="M12">
-        <v>0.8203787770713008</v>
+        <v>0.9135431946541367</v>
       </c>
       <c r="N12">
-        <v>0.8822710386695842</v>
+        <v>0.907662308262679</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
       <c r="C13">
-        <v>0.7949957026525293</v>
+        <v>0.8755053412886401</v>
       </c>
       <c r="D13">
-        <v>0.820497903990707</v>
+        <v>0.8929122287855635</v>
       </c>
       <c r="E13">
-        <v>0.8266030608777566</v>
+        <v>0.8978656838183672</v>
       </c>
       <c r="F13">
-        <v>0.8019498988042596</v>
+        <v>0.8985577388663186</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.028149464828402</v>
+      </c>
       <c r="J13">
-        <v>0.8368427192571607</v>
+        <v>0.9063751515847459</v>
       </c>
       <c r="K13">
-        <v>0.8400579350649107</v>
+        <v>0.9080197898532206</v>
       </c>
       <c r="L13">
-        <v>0.8459664101761587</v>
+        <v>0.9128659983772286</v>
       </c>
       <c r="M13">
-        <v>0.8221331752475368</v>
+        <v>0.9135431946541367</v>
       </c>
       <c r="N13">
-        <v>0.8834164579968155</v>
+        <v>0.907662308262679</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
       <c r="C14">
-        <v>0.8009951526624931</v>
+        <v>0.8755053412886401</v>
       </c>
       <c r="D14">
-        <v>0.8258418009933507</v>
+        <v>0.8929122287855635</v>
       </c>
       <c r="E14">
-        <v>0.8317598763442432</v>
+        <v>0.8978656838183672</v>
       </c>
       <c r="F14">
-        <v>0.8079348962633478</v>
+        <v>0.8985577388663186</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.028149464828402</v>
+      </c>
       <c r="J14">
-        <v>0.8419047946900551</v>
+        <v>0.9063751515847459</v>
       </c>
       <c r="K14">
-        <v>0.8450362139751244</v>
+        <v>0.9080197898532206</v>
       </c>
       <c r="L14">
-        <v>0.8507691474310152</v>
+        <v>0.9128659983772286</v>
       </c>
       <c r="M14">
-        <v>0.8277125499448098</v>
+        <v>0.9135431946541367</v>
       </c>
       <c r="N14">
-        <v>0.8870607686500194</v>
+        <v>0.907662308262679</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
       <c r="C15">
-        <v>0.804561389105071</v>
+        <v>0.8755053412886401</v>
       </c>
       <c r="D15">
-        <v>0.8290211677135885</v>
+        <v>0.8929122287855635</v>
       </c>
       <c r="E15">
-        <v>0.8348284657219189</v>
+        <v>0.8978656838183672</v>
       </c>
       <c r="F15">
-        <v>0.8114942750371446</v>
+        <v>0.8985577388663186</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.028149464828402</v>
+      </c>
       <c r="J15">
-        <v>0.8449154946844595</v>
+        <v>0.9063751515847459</v>
       </c>
       <c r="K15">
-        <v>0.8479973813806584</v>
+        <v>0.9080197898532206</v>
       </c>
       <c r="L15">
-        <v>0.8536261853868972</v>
+        <v>0.9128659983772286</v>
       </c>
       <c r="M15">
-        <v>0.8310307550387659</v>
+        <v>0.9135431946541367</v>
       </c>
       <c r="N15">
-        <v>0.8892292480220483</v>
+        <v>0.907662308262679</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
       <c r="C16">
-        <v>0.823681632663026</v>
+        <v>0.8755053412886401</v>
       </c>
       <c r="D16">
-        <v>0.8461011902851622</v>
+        <v>0.8929122287855635</v>
       </c>
       <c r="E16">
-        <v>0.8513196887453294</v>
+        <v>0.8978656838183672</v>
       </c>
       <c r="F16">
-        <v>0.8305994079301239</v>
+        <v>0.8985577388663186</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.028149464828402</v>
+      </c>
       <c r="J16">
-        <v>0.8610764570019507</v>
+        <v>0.9063751515847459</v>
       </c>
       <c r="K16">
-        <v>0.8638961528282673</v>
+        <v>0.9080197898532206</v>
       </c>
       <c r="L16">
-        <v>0.8689692140207254</v>
+        <v>0.9128659983772286</v>
       </c>
       <c r="M16">
-        <v>0.8488412197674164</v>
+        <v>0.9135431946541367</v>
       </c>
       <c r="N16">
-        <v>0.9008806647502767</v>
+        <v>0.907662308262679</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
       <c r="C17">
-        <v>0.8345144171032007</v>
+        <v>0.8755053412886401</v>
       </c>
       <c r="D17">
-        <v>0.8558020086785428</v>
+        <v>0.8929122287855635</v>
       </c>
       <c r="E17">
-        <v>0.8606904688129225</v>
+        <v>0.8978656838183672</v>
       </c>
       <c r="F17">
-        <v>0.8414395606047987</v>
+        <v>0.8985577388663186</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.028149464828402</v>
+      </c>
       <c r="J17">
-        <v>0.8702452924341536</v>
+        <v>0.9063751515847459</v>
       </c>
       <c r="K17">
-        <v>0.8729188291959802</v>
+        <v>0.9080197898532206</v>
       </c>
       <c r="L17">
-        <v>0.8776787354066123</v>
+        <v>0.9128659983772286</v>
       </c>
       <c r="M17">
-        <v>0.8589458763260771</v>
+        <v>0.9135431946541367</v>
       </c>
       <c r="N17">
-        <v>0.9074982561177347</v>
+        <v>0.907662308262679</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
       <c r="C18">
-        <v>0.8404975114426297</v>
+        <v>0.8755053412886401</v>
       </c>
       <c r="D18">
-        <v>0.861166859674914</v>
+        <v>0.8929122287855635</v>
       </c>
       <c r="E18">
-        <v>0.8658740422577139</v>
+        <v>0.8978656838183672</v>
       </c>
       <c r="F18">
-        <v>0.8474315951851965</v>
+        <v>0.8985577388663186</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.028149464828402</v>
+      </c>
       <c r="J18">
-        <v>0.8753127262126681</v>
+        <v>0.9063751515847459</v>
       </c>
       <c r="K18">
-        <v>0.8779062336045923</v>
+        <v>0.9080197898532206</v>
       </c>
       <c r="L18">
-        <v>0.8824936431518815</v>
+        <v>0.9128659983772286</v>
       </c>
       <c r="M18">
-        <v>0.8645308037696444</v>
+        <v>0.9135431946541367</v>
       </c>
       <c r="N18">
-        <v>0.9111574647850774</v>
+        <v>0.907662308262679</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
       <c r="C19">
-        <v>0.8424866716800183</v>
+        <v>0.8755053412886401</v>
       </c>
       <c r="D19">
-        <v>0.862951535985246</v>
+        <v>0.8929122287855635</v>
       </c>
       <c r="E19">
-        <v>0.8675986013343834</v>
+        <v>0.8978656838183672</v>
       </c>
       <c r="F19">
-        <v>0.8494244914500167</v>
+        <v>0.8985577388663186</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.028149464828402</v>
+      </c>
       <c r="J19">
-        <v>0.8769979457075336</v>
+        <v>0.9063751515847459</v>
       </c>
       <c r="K19">
-        <v>0.8795649524643875</v>
+        <v>0.9080197898532206</v>
       </c>
       <c r="L19">
-        <v>0.8840950805735599</v>
+        <v>0.9128659983772286</v>
       </c>
       <c r="M19">
-        <v>0.8663881898418667</v>
+        <v>0.9135431946541367</v>
       </c>
       <c r="N19">
-        <v>0.9123746118410877</v>
+        <v>0.907662308262679</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
       <c r="C20">
-        <v>0.8333883773741323</v>
+        <v>0.8755053412886401</v>
       </c>
       <c r="D20">
-        <v>0.8547928683262666</v>
+        <v>0.8929122287855635</v>
       </c>
       <c r="E20">
-        <v>0.8597155236419245</v>
+        <v>0.8978656838183672</v>
       </c>
       <c r="F20">
-        <v>0.8403122246854473</v>
+        <v>0.8985577388663186</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.028149464828402</v>
+      </c>
       <c r="J20">
-        <v>0.8692918385394544</v>
+        <v>0.9063751515847459</v>
       </c>
       <c r="K20">
-        <v>0.8719804915855587</v>
+        <v>0.9080197898532206</v>
       </c>
       <c r="L20">
-        <v>0.8767728976825395</v>
+        <v>0.9128659983772286</v>
       </c>
       <c r="M20">
-        <v>0.8578950833088784</v>
+        <v>0.9135431946541367</v>
       </c>
       <c r="N20">
-        <v>0.906809897408405</v>
+        <v>0.907662308262679</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
       <c r="C21">
-        <v>0.7992566166806013</v>
+        <v>0.8755053412886401</v>
       </c>
       <c r="D21">
-        <v>0.8242926172226226</v>
+        <v>0.8929122287855635</v>
       </c>
       <c r="E21">
-        <v>0.8302648113456305</v>
+        <v>0.8978656838183672</v>
       </c>
       <c r="F21">
-        <v>0.8062001706288722</v>
+        <v>0.8985577388663186</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.028149464828402</v>
+      </c>
       <c r="J21">
-        <v>0.8404375258419082</v>
+        <v>0.9063751515847459</v>
       </c>
       <c r="K21">
-        <v>0.8435931669278928</v>
+        <v>0.9080197898532206</v>
       </c>
       <c r="L21">
-        <v>0.8493769214221472</v>
+        <v>0.9128659983772286</v>
       </c>
       <c r="M21">
-        <v>0.8260953771890617</v>
+        <v>0.9135431946541367</v>
       </c>
       <c r="N21">
-        <v>0.8860042240681004</v>
+        <v>0.907662308262679</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
       <c r="C22">
-        <v>0.7722637308487413</v>
+        <v>0.8755053412886401</v>
       </c>
       <c r="D22">
-        <v>0.8003067544020899</v>
+        <v>0.8929122287855635</v>
       </c>
       <c r="E22">
-        <v>0.8071295364436989</v>
+        <v>0.8978656838183672</v>
       </c>
       <c r="F22">
-        <v>0.7793066932402758</v>
+        <v>0.8985577388663186</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.028149464828402</v>
+      </c>
       <c r="J22">
-        <v>0.8176977062005958</v>
+        <v>0.9063751515847459</v>
       </c>
       <c r="K22">
-        <v>0.8212360478342799</v>
+        <v>0.9080197898532206</v>
       </c>
       <c r="L22">
-        <v>0.8278141781844182</v>
+        <v>0.9128659983772286</v>
       </c>
       <c r="M22">
-        <v>0.8010271209452264</v>
+        <v>0.9135431946541367</v>
       </c>
       <c r="N22">
-        <v>0.8696549629967018</v>
+        <v>0.907662308262679</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
       <c r="C23">
-        <v>0.7873025314503017</v>
+        <v>0.8755053412886401</v>
       </c>
       <c r="D23">
-        <v>0.8136542966701151</v>
+        <v>0.8929122287855635</v>
       </c>
       <c r="E23">
-        <v>0.8200007232748225</v>
+        <v>0.8978656838183672</v>
       </c>
       <c r="F23">
-        <v>0.7942806789249648</v>
+        <v>0.8985577388663186</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.028149464828402</v>
+      </c>
       <c r="J23">
-        <v>0.8303569841264767</v>
+        <v>0.9063751515847459</v>
       </c>
       <c r="K23">
-        <v>0.8336805374738574</v>
+        <v>0.9080197898532206</v>
       </c>
       <c r="L23">
-        <v>0.8398148145429757</v>
+        <v>0.9128659983772286</v>
       </c>
       <c r="M23">
-        <v>0.8149840256992918</v>
+        <v>0.9135431946541367</v>
       </c>
       <c r="N23">
-        <v>0.8787505156392272</v>
+        <v>0.907662308262679</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
       <c r="C24">
-        <v>0.8338982039314049</v>
+        <v>0.8755053412886401</v>
       </c>
       <c r="D24">
-        <v>0.855249745839557</v>
+        <v>0.8929122287855635</v>
       </c>
       <c r="E24">
-        <v>0.8601569158010972</v>
+        <v>0.8978656838183672</v>
       </c>
       <c r="F24">
-        <v>0.8408226229154198</v>
+        <v>0.8985577388663186</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.028149464828402</v>
+      </c>
       <c r="J24">
-        <v>0.8697235146675854</v>
+        <v>0.9063751515847459</v>
       </c>
       <c r="K24">
-        <v>0.872405321491671</v>
+        <v>0.9080197898532206</v>
       </c>
       <c r="L24">
-        <v>0.8771830114886471</v>
+        <v>0.9128659983772286</v>
       </c>
       <c r="M24">
-        <v>0.8583708287477223</v>
+        <v>0.9135431946541367</v>
       </c>
       <c r="N24">
-        <v>0.90712154623604</v>
+        <v>0.907662308262679</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
       <c r="C25">
-        <v>0.8745638725430422</v>
+        <v>0.8755053412886401</v>
       </c>
       <c r="D25">
-        <v>0.8917990116254297</v>
+        <v>0.8929122287855635</v>
       </c>
       <c r="E25">
-        <v>0.8954858673295898</v>
+        <v>0.8978656838183672</v>
       </c>
       <c r="F25">
-        <v>0.8816143182800839</v>
+        <v>0.8985577388663186</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.028149464828402</v>
+      </c>
       <c r="J25">
-        <v>0.9042000918478368</v>
+        <v>0.9063751515847459</v>
       </c>
       <c r="K25">
-        <v>0.9063465655199692</v>
+        <v>0.9080197898532206</v>
       </c>
       <c r="L25">
-        <v>0.9099567634715647</v>
+        <v>0.9128659983772286</v>
       </c>
       <c r="M25">
-        <v>0.8963780551488886</v>
+        <v>0.9135431946541367</v>
       </c>
       <c r="N25">
-        <v>0.9320322550753538</v>
+        <v>0.907662308262679</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_40/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9597238735298395</v>
+        <v>0.9611705567527967</v>
       </c>
       <c r="D2">
-        <v>0.9745763639402079</v>
+        <v>0.9699761669641375</v>
       </c>
       <c r="E2">
-        <v>0.9742218118708759</v>
+        <v>0.972098954382497</v>
       </c>
       <c r="F2">
-        <v>0.9801678108990511</v>
+        <v>0.958246132592407</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03737941885187</v>
+        <v>1.032443711005509</v>
       </c>
       <c r="J2">
-        <v>0.9831797948252275</v>
+        <v>0.9845780958031217</v>
       </c>
       <c r="K2">
-        <v>0.9864016333259921</v>
+        <v>0.9818702579104358</v>
       </c>
       <c r="L2">
-        <v>0.9860523561629463</v>
+        <v>0.9839611842429966</v>
       </c>
       <c r="M2">
-        <v>0.9919105332159568</v>
+        <v>0.9703195320721678</v>
       </c>
       <c r="N2">
-        <v>0.9845760229061781</v>
+        <v>0.9990557939564801</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9906172092557725</v>
+        <v>0.9693633954984086</v>
       </c>
       <c r="D3">
-        <v>1.004610725288795</v>
+        <v>0.9774336596707498</v>
       </c>
       <c r="E3">
-        <v>1.00231130437674</v>
+        <v>0.9805538663102911</v>
       </c>
       <c r="F3">
-        <v>1.010192879264697</v>
+        <v>0.9706485402277185</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040753453243676</v>
+        <v>1.036208057027402</v>
       </c>
       <c r="J3">
-        <v>1.011366968326904</v>
+        <v>0.9907255780150432</v>
       </c>
       <c r="K3">
-        <v>1.015184949004627</v>
+        <v>0.9883636627073129</v>
       </c>
       <c r="L3">
-        <v>1.012914696808803</v>
+        <v>0.9914417630247476</v>
       </c>
       <c r="M3">
-        <v>1.02069698057385</v>
+        <v>0.981671284134966</v>
       </c>
       <c r="N3">
-        <v>1.01280322542734</v>
+        <v>1.001084047710331</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008320126236351</v>
+        <v>0.974362101272841</v>
       </c>
       <c r="D4">
-        <v>1.021836792286332</v>
+        <v>0.9819803952198748</v>
       </c>
       <c r="E4">
-        <v>1.018420227881647</v>
+        <v>0.98566810278627</v>
       </c>
       <c r="F4">
-        <v>1.027416342823101</v>
+        <v>0.9780592967031139</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042670644626902</v>
+        <v>1.038392120395376</v>
       </c>
       <c r="J4">
-        <v>1.027513370570734</v>
+        <v>0.9944451683010921</v>
       </c>
       <c r="K4">
-        <v>1.031678620892519</v>
+        <v>0.9923012788537863</v>
       </c>
       <c r="L4">
-        <v>1.028301306221284</v>
+        <v>0.9959426352520562</v>
       </c>
       <c r="M4">
-        <v>1.037194764862208</v>
+        <v>0.9884299439490709</v>
       </c>
       <c r="N4">
-        <v>1.028972557414375</v>
+        <v>1.002311401657208</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015333684657785</v>
+        <v>0.9763995587054463</v>
       </c>
       <c r="D5">
-        <v>1.028664267320267</v>
+        <v>0.9838330221748794</v>
       </c>
       <c r="E5">
-        <v>1.024804289620947</v>
+        <v>0.9877430787393543</v>
       </c>
       <c r="F5">
-        <v>1.034243369649092</v>
+        <v>0.9810459958637942</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043425472909297</v>
+        <v>1.039256870322301</v>
       </c>
       <c r="J5">
-        <v>1.033908252801363</v>
+        <v>0.9959544253503607</v>
       </c>
       <c r="K5">
-        <v>1.038212378082088</v>
+        <v>0.9939009553673933</v>
       </c>
       <c r="L5">
-        <v>1.034394955848778</v>
+        <v>0.9977633423617673</v>
       </c>
       <c r="M5">
-        <v>1.043730660600361</v>
+        <v>0.9911481958224979</v>
       </c>
       <c r="N5">
-        <v>1.035376521111276</v>
+        <v>1.002809434404502</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016488760950491</v>
+        <v>0.9767381146014807</v>
       </c>
       <c r="D6">
-        <v>1.029788845139701</v>
+        <v>0.984140834153755</v>
       </c>
       <c r="E6">
-        <v>1.025855788583306</v>
+        <v>0.9880873318849585</v>
       </c>
       <c r="F6">
-        <v>1.035367906523476</v>
+        <v>0.9815403766340425</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0435494885336</v>
+        <v>1.039399100743932</v>
       </c>
       <c r="J6">
-        <v>1.034961305600661</v>
+        <v>0.9962048256847038</v>
       </c>
       <c r="K6">
-        <v>1.039288377198162</v>
+        <v>0.9941664687896327</v>
       </c>
       <c r="L6">
-        <v>1.035398383976693</v>
+        <v>0.9980651003375348</v>
       </c>
       <c r="M6">
-        <v>1.044807040947003</v>
+        <v>0.9915978132739005</v>
       </c>
       <c r="N6">
-        <v>1.036431069366334</v>
+        <v>1.002892063922016</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008415403637274</v>
+        <v>0.9743895675879051</v>
       </c>
       <c r="D7">
-        <v>1.021929531318413</v>
+        <v>0.9820053721075461</v>
       </c>
       <c r="E7">
-        <v>1.018506946742915</v>
+        <v>0.9856961117201586</v>
       </c>
       <c r="F7">
-        <v>1.027509073496403</v>
+        <v>0.9780996901571497</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042680918695998</v>
+        <v>1.038403877361632</v>
       </c>
       <c r="J7">
-        <v>1.027600252162439</v>
+        <v>0.9944655405752207</v>
       </c>
       <c r="K7">
-        <v>1.031767383942291</v>
+        <v>0.9923228640042957</v>
       </c>
       <c r="L7">
-        <v>1.028384096580635</v>
+        <v>0.99596723312036</v>
       </c>
       <c r="M7">
-        <v>1.037283554965966</v>
+        <v>0.9884667291223225</v>
       </c>
       <c r="N7">
-        <v>1.029059562387906</v>
+        <v>1.002318124131324</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9707277312614748</v>
+        <v>0.9640077817706849</v>
       </c>
       <c r="D8">
-        <v>0.9852701233245245</v>
+        <v>0.9725595871619387</v>
       </c>
       <c r="E8">
-        <v>0.9842232733734517</v>
+        <v>0.9750372554717852</v>
       </c>
       <c r="F8">
-        <v>0.9908575914216197</v>
+        <v>0.9625773787744566</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03858420927267</v>
+        <v>1.033772712165343</v>
       </c>
       <c r="J8">
-        <v>0.9932205305448281</v>
+        <v>0.9867141757166156</v>
       </c>
       <c r="K8">
-        <v>0.9966533874319538</v>
+        <v>0.9841245485218275</v>
       </c>
       <c r="L8">
-        <v>0.99562127808823</v>
+        <v>0.9865663275640676</v>
       </c>
       <c r="M8">
-        <v>1.002162843321658</v>
+        <v>0.9742893135275261</v>
       </c>
       <c r="N8">
-        <v>0.9946310176221889</v>
+        <v>0.9997605180318375</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8755053412886401</v>
+        <v>0.942861943509359</v>
       </c>
       <c r="D9">
-        <v>0.8929122287855635</v>
+        <v>0.9532769762262626</v>
       </c>
       <c r="E9">
-        <v>0.8978656838183672</v>
+        <v>0.9528624071419146</v>
       </c>
       <c r="F9">
-        <v>0.8985577388663186</v>
+        <v>0.9293389182527588</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028149464828402</v>
+        <v>1.023240810787701</v>
       </c>
       <c r="J9">
-        <v>0.9063751515847459</v>
+        <v>0.9706072983759741</v>
       </c>
       <c r="K9">
-        <v>0.9080197898532206</v>
+        <v>0.9671764958053195</v>
       </c>
       <c r="L9">
-        <v>0.9128659983772286</v>
+        <v>0.9667695433594182</v>
       </c>
       <c r="M9">
-        <v>0.9135431946541367</v>
+        <v>0.9436928517817855</v>
       </c>
       <c r="N9">
-        <v>0.907662308262679</v>
+        <v>0.9944479446429024</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8755053412886401</v>
+        <v>0.9256207144556217</v>
       </c>
       <c r="D10">
-        <v>0.8929122287855635</v>
+        <v>0.9374863844483854</v>
       </c>
       <c r="E10">
-        <v>0.8978656838183672</v>
+        <v>0.9342590146560653</v>
       </c>
       <c r="F10">
-        <v>0.8985577388663186</v>
+        <v>0.9004479136518406</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028149464828402</v>
+        <v>1.013575506291051</v>
       </c>
       <c r="J10">
-        <v>0.9063751515847459</v>
+        <v>0.9571312128997201</v>
       </c>
       <c r="K10">
-        <v>0.9080197898532206</v>
+        <v>0.9530841712126922</v>
       </c>
       <c r="L10">
-        <v>0.9128659983772286</v>
+        <v>0.9499261509365767</v>
       </c>
       <c r="M10">
-        <v>0.9135431946541367</v>
+        <v>0.9168817107059862</v>
       </c>
       <c r="N10">
-        <v>0.907662308262679</v>
+        <v>0.9900061659818126</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8755053412886401</v>
+        <v>0.9168134245241051</v>
       </c>
       <c r="D11">
-        <v>0.8929122287855635</v>
+        <v>0.9293841897124596</v>
       </c>
       <c r="E11">
-        <v>0.8978656838183672</v>
+        <v>0.9245379521981896</v>
       </c>
       <c r="F11">
-        <v>0.8985577388663186</v>
+        <v>0.8849578995615252</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028149464828402</v>
+        <v>1.008235720673673</v>
       </c>
       <c r="J11">
-        <v>0.9063751515847459</v>
+        <v>0.950108795892507</v>
       </c>
       <c r="K11">
-        <v>0.9080197898532206</v>
+        <v>0.9457731236834331</v>
       </c>
       <c r="L11">
-        <v>0.9128659983772286</v>
+        <v>0.9410385665495788</v>
       </c>
       <c r="M11">
-        <v>0.9135431946541367</v>
+        <v>0.9024327814293424</v>
       </c>
       <c r="N11">
-        <v>0.907662308262679</v>
+        <v>0.9876930039032287</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8755053412886401</v>
+        <v>0.9132251714485596</v>
       </c>
       <c r="D12">
-        <v>0.8929122287855635</v>
+        <v>0.9260741863504335</v>
       </c>
       <c r="E12">
-        <v>0.8978656838183672</v>
+        <v>0.9205284115914499</v>
       </c>
       <c r="F12">
-        <v>0.8985577388663186</v>
+        <v>0.8784842899272044</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028149464828402</v>
+        <v>1.005974421676221</v>
       </c>
       <c r="J12">
-        <v>0.9063751515847459</v>
+        <v>0.947217066002395</v>
       </c>
       <c r="K12">
-        <v>0.9080197898532206</v>
+        <v>0.9427693447253992</v>
       </c>
       <c r="L12">
-        <v>0.9128659983772286</v>
+        <v>0.9373548351019486</v>
       </c>
       <c r="M12">
-        <v>0.9135431946541367</v>
+        <v>0.8963793643892574</v>
       </c>
       <c r="N12">
-        <v>0.907662308262679</v>
+        <v>0.9867408141909012</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8755053412886401</v>
+        <v>0.9140124355608671</v>
       </c>
       <c r="D13">
-        <v>0.8929122287855635</v>
+        <v>0.9268008983354102</v>
       </c>
       <c r="E13">
-        <v>0.8978656838183672</v>
+        <v>0.921410701050058</v>
       </c>
       <c r="F13">
-        <v>0.8985577388663186</v>
+        <v>0.879913181829827</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028149464828402</v>
+        <v>1.006475014294238</v>
       </c>
       <c r="J13">
-        <v>0.9063751515847459</v>
+        <v>0.9478531288187285</v>
       </c>
       <c r="K13">
-        <v>0.9080197898532206</v>
+        <v>0.9434297038757105</v>
       </c>
       <c r="L13">
-        <v>0.9128659983772286</v>
+        <v>0.9381663535657195</v>
       </c>
       <c r="M13">
-        <v>0.9135431946541367</v>
+        <v>0.8977162638982848</v>
       </c>
       <c r="N13">
-        <v>0.907662308262679</v>
+        <v>0.9869502392972354</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8755053412886401</v>
+        <v>0.916524380786789</v>
       </c>
       <c r="D14">
-        <v>0.8929122287855635</v>
+        <v>0.929117769352961</v>
       </c>
       <c r="E14">
-        <v>0.8978656838183672</v>
+        <v>0.9242160779654646</v>
       </c>
       <c r="F14">
-        <v>0.8985577388663186</v>
+        <v>0.884440090624687</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028149464828402</v>
+        <v>1.008055474907698</v>
       </c>
       <c r="J14">
-        <v>0.9063751515847459</v>
+        <v>0.9498765482203588</v>
       </c>
       <c r="K14">
-        <v>0.9080197898532206</v>
+        <v>0.9455317271884017</v>
       </c>
       <c r="L14">
-        <v>0.9128659983772286</v>
+        <v>0.9407432418670203</v>
       </c>
       <c r="M14">
-        <v>0.9135431946541367</v>
+        <v>0.9019489054967639</v>
       </c>
       <c r="N14">
-        <v>0.907662308262679</v>
+        <v>0.9876165217269715</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8755053412886401</v>
+        <v>0.9180247005754918</v>
       </c>
       <c r="D15">
-        <v>0.8929122287855635</v>
+        <v>0.9305002773462163</v>
       </c>
       <c r="E15">
-        <v>0.8978656838183672</v>
+        <v>0.9258847610069775</v>
       </c>
       <c r="F15">
-        <v>0.8985577388663186</v>
+        <v>0.8871210574665245</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028149464828402</v>
+        <v>1.008987503879606</v>
       </c>
       <c r="J15">
-        <v>0.9063751515847459</v>
+        <v>0.9510807812387861</v>
       </c>
       <c r="K15">
-        <v>0.9080197898532206</v>
+        <v>0.946783678261403</v>
       </c>
       <c r="L15">
-        <v>0.9128659983772286</v>
+        <v>0.9422735458067018</v>
       </c>
       <c r="M15">
-        <v>0.9135431946541367</v>
+        <v>0.9044535768190639</v>
       </c>
       <c r="N15">
-        <v>0.907662308262679</v>
+        <v>0.9880131053523574</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8755053412886401</v>
+        <v>0.9261693305530226</v>
       </c>
       <c r="D16">
-        <v>0.8929122287855635</v>
+        <v>0.9379901542107034</v>
       </c>
       <c r="E16">
-        <v>0.8978656838183672</v>
+        <v>0.9348592832876518</v>
       </c>
       <c r="F16">
-        <v>0.8985577388663186</v>
+        <v>0.9013952292811194</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028149464828402</v>
+        <v>1.013898702932938</v>
       </c>
       <c r="J16">
-        <v>0.9063751515847459</v>
+        <v>0.9575653304880996</v>
       </c>
       <c r="K16">
-        <v>0.9080197898532206</v>
+        <v>0.9535368794748785</v>
       </c>
       <c r="L16">
-        <v>0.9128659983772286</v>
+        <v>0.9504729779282226</v>
       </c>
       <c r="M16">
-        <v>0.9135431946541367</v>
+        <v>0.9177637162951451</v>
       </c>
       <c r="N16">
-        <v>0.907662308262679</v>
+        <v>0.9901491985997567</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8755053412886401</v>
+        <v>0.9308646668608834</v>
       </c>
       <c r="D17">
-        <v>0.8929122287855635</v>
+        <v>0.9422977640466891</v>
       </c>
       <c r="E17">
-        <v>0.8978656838183672</v>
+        <v>0.9399731561372623</v>
       </c>
       <c r="F17">
-        <v>0.8985577388663186</v>
+        <v>0.9094238895660272</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028149464828402</v>
+        <v>1.016621549204327</v>
       </c>
       <c r="J17">
-        <v>0.9063751515847459</v>
+        <v>0.9612658013866274</v>
       </c>
       <c r="K17">
-        <v>0.9080197898532206</v>
+        <v>0.9573992715649994</v>
       </c>
       <c r="L17">
-        <v>0.9128659983772286</v>
+        <v>0.9551224301063925</v>
       </c>
       <c r="M17">
-        <v>0.9135431946541367</v>
+        <v>0.9252311636603934</v>
       </c>
       <c r="N17">
-        <v>0.907662308262679</v>
+        <v>0.9913685827038757</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8755053412886401</v>
+        <v>0.9334841728646484</v>
       </c>
       <c r="D18">
-        <v>0.8929122287855635</v>
+        <v>0.9446981224642902</v>
       </c>
       <c r="E18">
-        <v>0.8978656838183672</v>
+        <v>0.9428085048530376</v>
       </c>
       <c r="F18">
-        <v>0.8985577388663186</v>
+        <v>0.913843618221054</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028149464828402</v>
+        <v>1.018107648580165</v>
       </c>
       <c r="J18">
-        <v>0.9063751515847459</v>
+        <v>0.963319023739809</v>
       </c>
       <c r="K18">
-        <v>0.9080197898532206</v>
+        <v>0.9595449747329827</v>
       </c>
       <c r="L18">
-        <v>0.9128659983772286</v>
+        <v>0.9576932928156134</v>
       </c>
       <c r="M18">
-        <v>0.9135431946541367</v>
+        <v>0.9293360016573332</v>
       </c>
       <c r="N18">
-        <v>0.907662308262679</v>
+        <v>0.9920452794122758</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8755053412886401</v>
+        <v>0.9343592421280126</v>
       </c>
       <c r="D19">
-        <v>0.8929122287855635</v>
+        <v>0.9454995629172991</v>
       </c>
       <c r="E19">
-        <v>0.8978656838183672</v>
+        <v>0.9437529617605732</v>
       </c>
       <c r="F19">
-        <v>0.8985577388663186</v>
+        <v>0.9153108951082727</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028149464828402</v>
+        <v>1.018598931974021</v>
       </c>
       <c r="J19">
-        <v>0.9063751515847459</v>
+        <v>0.9640031808061145</v>
       </c>
       <c r="K19">
-        <v>0.9080197898532206</v>
+        <v>0.9602603618556546</v>
       </c>
       <c r="L19">
-        <v>0.9128659983772286</v>
+        <v>0.9585485489678703</v>
       </c>
       <c r="M19">
-        <v>0.9135431946541367</v>
+        <v>0.9306977931775571</v>
       </c>
       <c r="N19">
-        <v>0.907662308262679</v>
+        <v>0.9922707800746874</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8755053412886401</v>
+        <v>0.9303737666111405</v>
       </c>
       <c r="D20">
-        <v>0.8929122287855635</v>
+        <v>0.9418477148554663</v>
       </c>
       <c r="E20">
-        <v>0.8978656838183672</v>
+        <v>0.9394404264066705</v>
       </c>
       <c r="F20">
-        <v>0.8985577388663186</v>
+        <v>0.9085909714727853</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028149464828402</v>
+        <v>1.016340451764602</v>
       </c>
       <c r="J20">
-        <v>0.9063751515847459</v>
+        <v>0.9608801418768524</v>
       </c>
       <c r="K20">
-        <v>0.9080197898532206</v>
+        <v>0.9569964502351297</v>
       </c>
       <c r="L20">
-        <v>0.9128659983772286</v>
+        <v>0.9546388397660138</v>
       </c>
       <c r="M20">
-        <v>0.9135431946541367</v>
+        <v>0.9244571120806299</v>
       </c>
       <c r="N20">
-        <v>0.907662308262679</v>
+        <v>0.9912414868928899</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8755053412886401</v>
+        <v>0.9157949494628963</v>
       </c>
       <c r="D21">
-        <v>0.8929122287855635</v>
+        <v>0.9284452709915331</v>
       </c>
       <c r="E21">
-        <v>0.8978656838183672</v>
+        <v>0.9234029475086458</v>
       </c>
       <c r="F21">
-        <v>0.8985577388663186</v>
+        <v>0.8831305378080823</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028149464828402</v>
+        <v>1.007599136846507</v>
       </c>
       <c r="J21">
-        <v>0.9063751515847459</v>
+        <v>0.9492899182681179</v>
       </c>
       <c r="K21">
-        <v>0.9080197898532206</v>
+        <v>0.9449221040440469</v>
       </c>
       <c r="L21">
-        <v>0.9128659983772286</v>
+        <v>0.9399968768895508</v>
       </c>
       <c r="M21">
-        <v>0.9135431946541367</v>
+        <v>0.9007249198205358</v>
       </c>
       <c r="N21">
-        <v>0.907662308262679</v>
+        <v>0.9874233426892971</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8755053412886401</v>
+        <v>0.9046026101053842</v>
       </c>
       <c r="D22">
-        <v>0.8929122287855635</v>
+        <v>0.9180943423005373</v>
       </c>
       <c r="E22">
-        <v>0.8978656838183672</v>
+        <v>0.91076189967192</v>
       </c>
       <c r="F22">
-        <v>0.8985577388663186</v>
+        <v>0.8624945691501633</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028149464828402</v>
+        <v>1.000317071420188</v>
       </c>
       <c r="J22">
-        <v>0.9063751515847459</v>
+        <v>0.940186561950861</v>
       </c>
       <c r="K22">
-        <v>0.9080197898532206</v>
+        <v>0.9354839037389771</v>
       </c>
       <c r="L22">
-        <v>0.9128659983772286</v>
+        <v>0.9283358041496036</v>
       </c>
       <c r="M22">
-        <v>0.9135431946541367</v>
+        <v>0.8813896670161411</v>
       </c>
       <c r="N22">
-        <v>0.907662308262679</v>
+        <v>0.9844267184716827</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8755053412886401</v>
+        <v>0.9108113363307173</v>
       </c>
       <c r="D23">
-        <v>0.8929122287855635</v>
+        <v>0.9238441733674342</v>
       </c>
       <c r="E23">
-        <v>0.8978656838183672</v>
+        <v>0.9178137862786053</v>
       </c>
       <c r="F23">
-        <v>0.8985577388663186</v>
+        <v>0.8740720336422602</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028149464828402</v>
+        <v>1.004423463067456</v>
       </c>
       <c r="J23">
-        <v>0.9063751515847459</v>
+        <v>0.9452609680839624</v>
       </c>
       <c r="K23">
-        <v>0.9080197898532206</v>
+        <v>0.9407397845264119</v>
       </c>
       <c r="L23">
-        <v>0.9128659983772286</v>
+        <v>0.9348546442975669</v>
       </c>
       <c r="M23">
-        <v>0.9135431946541367</v>
+        <v>0.8922484641980374</v>
       </c>
       <c r="N23">
-        <v>0.907662308262679</v>
+        <v>0.9860968295864158</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8755053412886401</v>
+        <v>0.9305959448673033</v>
       </c>
       <c r="D24">
-        <v>0.8929122287855635</v>
+        <v>0.9420514129175297</v>
       </c>
       <c r="E24">
-        <v>0.8978656838183672</v>
+        <v>0.9396815910746068</v>
       </c>
       <c r="F24">
-        <v>0.8985577388663186</v>
+        <v>0.9089681288388145</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028149464828402</v>
+        <v>1.016467776965961</v>
       </c>
       <c r="J24">
-        <v>0.9063751515847459</v>
+        <v>0.9610547237235447</v>
       </c>
       <c r="K24">
-        <v>0.9080197898532206</v>
+        <v>0.9571787927477516</v>
       </c>
       <c r="L24">
-        <v>0.9128659983772286</v>
+        <v>0.9548577810031952</v>
       </c>
       <c r="M24">
-        <v>0.9135431946541367</v>
+        <v>0.9248076324487471</v>
       </c>
       <c r="N24">
-        <v>0.907662308262679</v>
+        <v>0.9912990207591968</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8755053412886401</v>
+        <v>0.9487598643587951</v>
       </c>
       <c r="D25">
-        <v>0.8929122287855635</v>
+        <v>0.9586626265937199</v>
       </c>
       <c r="E25">
-        <v>0.8978656838183672</v>
+        <v>0.9591132417572436</v>
       </c>
       <c r="F25">
-        <v>0.8985577388663186</v>
+        <v>0.9388374623980776</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028149464828402</v>
+        <v>1.026322949657795</v>
       </c>
       <c r="J25">
-        <v>0.9063751515847459</v>
+        <v>0.9751438872136439</v>
       </c>
       <c r="K25">
-        <v>0.9080197898532206</v>
+        <v>0.9719384421390835</v>
       </c>
       <c r="L25">
-        <v>0.9128659983772286</v>
+        <v>0.9723812647138634</v>
       </c>
       <c r="M25">
-        <v>0.9135431946541367</v>
+        <v>0.9524657580475825</v>
       </c>
       <c r="N25">
-        <v>0.907662308262679</v>
+        <v>0.9959439173227906</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_40/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9611705567527967</v>
+        <v>1.021504201149167</v>
       </c>
       <c r="D2">
-        <v>0.9699761669641375</v>
+        <v>1.024148925270816</v>
       </c>
       <c r="E2">
-        <v>0.972098954382497</v>
+        <v>1.030569388043519</v>
       </c>
       <c r="F2">
-        <v>0.958246132592407</v>
+        <v>1.037359412278249</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032443711005509</v>
+        <v>1.024956605289207</v>
       </c>
       <c r="J2">
-        <v>0.9845780958031217</v>
+        <v>1.026695296140113</v>
       </c>
       <c r="K2">
-        <v>0.9818702579104358</v>
+        <v>1.026978275366268</v>
       </c>
       <c r="L2">
-        <v>0.9839611842429966</v>
+        <v>1.033380019414963</v>
       </c>
       <c r="M2">
-        <v>0.9703195320721678</v>
+        <v>1.040150521338077</v>
       </c>
       <c r="N2">
-        <v>0.9990557939564801</v>
+        <v>1.012961808720614</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9693633954984086</v>
+        <v>1.022822281272698</v>
       </c>
       <c r="D3">
-        <v>0.9774336596707498</v>
+        <v>1.025379397710541</v>
       </c>
       <c r="E3">
-        <v>0.9805538663102911</v>
+        <v>1.031849051820889</v>
       </c>
       <c r="F3">
-        <v>0.9706485402277185</v>
+        <v>1.038989587157702</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036208057027402</v>
+        <v>1.025149224544389</v>
       </c>
       <c r="J3">
-        <v>0.9907255780150432</v>
+        <v>1.027649105822715</v>
       </c>
       <c r="K3">
-        <v>0.9883636627073129</v>
+        <v>1.028014625284432</v>
       </c>
       <c r="L3">
-        <v>0.9914417630247476</v>
+        <v>1.034466800191965</v>
       </c>
       <c r="M3">
-        <v>0.981671284134966</v>
+        <v>1.04158831696394</v>
       </c>
       <c r="N3">
-        <v>1.001084047710331</v>
+        <v>1.01327626733418</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.974362101272841</v>
+        <v>1.023668898538241</v>
       </c>
       <c r="D4">
-        <v>0.9819803952198748</v>
+        <v>1.026169661659227</v>
       </c>
       <c r="E4">
-        <v>0.98566810278627</v>
+        <v>1.032668029784107</v>
       </c>
       <c r="F4">
-        <v>0.9780592967031139</v>
+        <v>1.04002626004213</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038392120395376</v>
+        <v>1.025263566911149</v>
       </c>
       <c r="J4">
-        <v>0.9944451683010921</v>
+        <v>1.028259631090183</v>
       </c>
       <c r="K4">
-        <v>0.9923012788537863</v>
+        <v>1.028678743139714</v>
       </c>
       <c r="L4">
-        <v>0.9959426352520562</v>
+        <v>1.035160449999638</v>
       </c>
       <c r="M4">
-        <v>0.9884299439490709</v>
+        <v>1.042500085201711</v>
       </c>
       <c r="N4">
-        <v>1.002311401657208</v>
+        <v>1.013477530735501</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9763995587054463</v>
+        <v>1.02402333358339</v>
       </c>
       <c r="D5">
-        <v>0.9838330221748794</v>
+        <v>1.026500484597265</v>
       </c>
       <c r="E5">
-        <v>0.9877430787393543</v>
+        <v>1.033010182632656</v>
       </c>
       <c r="F5">
-        <v>0.9810459958637942</v>
+        <v>1.040457766577329</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039256870322301</v>
+        <v>1.025309179131036</v>
       </c>
       <c r="J5">
-        <v>0.9959544253503607</v>
+        <v>1.028514718329304</v>
       </c>
       <c r="K5">
-        <v>0.9939009553673933</v>
+        <v>1.02895640505907</v>
       </c>
       <c r="L5">
-        <v>0.9977633423617673</v>
+        <v>1.035449789146447</v>
       </c>
       <c r="M5">
-        <v>0.9911481958224979</v>
+        <v>1.042878978099423</v>
       </c>
       <c r="N5">
-        <v>1.002809434404502</v>
+        <v>1.013561617263582</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9767381146014807</v>
+        <v>1.024082758333838</v>
       </c>
       <c r="D6">
-        <v>0.984140834153755</v>
+        <v>1.026555949355851</v>
       </c>
       <c r="E6">
-        <v>0.9880873318849585</v>
+        <v>1.033067506378283</v>
       </c>
       <c r="F6">
-        <v>0.9815403766340425</v>
+        <v>1.040529966657626</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039399100743932</v>
+        <v>1.025316693720234</v>
       </c>
       <c r="J6">
-        <v>0.9962048256847038</v>
+        <v>1.028557456514712</v>
       </c>
       <c r="K6">
-        <v>0.9941664687896327</v>
+        <v>1.029002936245726</v>
       </c>
       <c r="L6">
-        <v>0.9980651003375348</v>
+        <v>1.035498237828821</v>
       </c>
       <c r="M6">
-        <v>0.9915978132739005</v>
+        <v>1.042942337960998</v>
       </c>
       <c r="N6">
-        <v>1.002892063922016</v>
+        <v>1.013575705139166</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9743895675879051</v>
+        <v>1.023673640319592</v>
       </c>
       <c r="D7">
-        <v>0.9820053721075461</v>
+        <v>1.026174087626466</v>
       </c>
       <c r="E7">
-        <v>0.9856961117201586</v>
+        <v>1.032672610049736</v>
       </c>
       <c r="F7">
-        <v>0.9780996901571497</v>
+        <v>1.040032042743935</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038403877361632</v>
+        <v>1.025264186029903</v>
       </c>
       <c r="J7">
-        <v>0.9944655405752207</v>
+        <v>1.028263045757094</v>
       </c>
       <c r="K7">
-        <v>0.9923228640042957</v>
+        <v>1.028682459275747</v>
       </c>
       <c r="L7">
-        <v>0.99596723312036</v>
+        <v>1.035164325061802</v>
       </c>
       <c r="M7">
-        <v>0.9884667291223225</v>
+        <v>1.042505165288538</v>
       </c>
       <c r="N7">
-        <v>1.002318124131324</v>
+        <v>1.013478656358511</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9640077817706849</v>
+        <v>1.021950961561384</v>
       </c>
       <c r="D8">
-        <v>0.9725595871619387</v>
+        <v>1.024566008161525</v>
       </c>
       <c r="E8">
-        <v>0.9750372554717852</v>
+        <v>1.031003743426109</v>
       </c>
       <c r="F8">
-        <v>0.9625773787744566</v>
+        <v>1.037914120347351</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033772712165343</v>
+        <v>1.025023838324381</v>
       </c>
       <c r="J8">
-        <v>0.9867141757166156</v>
+        <v>1.027019027697471</v>
       </c>
       <c r="K8">
-        <v>0.9841245485218275</v>
+        <v>1.027329864033912</v>
       </c>
       <c r="L8">
-        <v>0.9865663275640676</v>
+        <v>1.033749295977271</v>
       </c>
       <c r="M8">
-        <v>0.9742893135275261</v>
+        <v>1.040640299824211</v>
       </c>
       <c r="N8">
-        <v>0.9997605180318375</v>
+        <v>1.013068542693131</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.942861943509359</v>
+        <v>1.018866516452797</v>
       </c>
       <c r="D9">
-        <v>0.9532769762262626</v>
+        <v>1.021686124266325</v>
       </c>
       <c r="E9">
-        <v>0.9528624071419146</v>
+        <v>1.027992656436935</v>
       </c>
       <c r="F9">
-        <v>0.9293389182527588</v>
+        <v>1.034041217842882</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023240810787701</v>
+        <v>1.024521078118227</v>
       </c>
       <c r="J9">
-        <v>0.9706072983759741</v>
+        <v>1.024775217753211</v>
       </c>
       <c r="K9">
-        <v>0.9671764958053195</v>
+        <v>1.024896113840952</v>
       </c>
       <c r="L9">
-        <v>0.9667695433594182</v>
+        <v>1.031181578379318</v>
       </c>
       <c r="M9">
-        <v>0.9436928517817855</v>
+        <v>1.037210198687805</v>
       </c>
       <c r="N9">
-        <v>0.9944479446429024</v>
+        <v>1.012328683823678</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9256207144556217</v>
+        <v>1.016776095443766</v>
       </c>
       <c r="D10">
-        <v>0.9374863844483854</v>
+        <v>1.019733924199578</v>
       </c>
       <c r="E10">
-        <v>0.9342590146560653</v>
+        <v>1.025936451627</v>
       </c>
       <c r="F10">
-        <v>0.9004479136518406</v>
+        <v>1.031361908522255</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.013575506291051</v>
+        <v>1.024132002400081</v>
       </c>
       <c r="J10">
-        <v>0.9571312128997201</v>
+        <v>1.023243489927823</v>
       </c>
       <c r="K10">
-        <v>0.9530841712126922</v>
+        <v>1.023238664319254</v>
       </c>
       <c r="L10">
-        <v>0.9499261509365767</v>
+        <v>1.029418395655273</v>
       </c>
       <c r="M10">
-        <v>0.9168817107059862</v>
+        <v>1.034824160712409</v>
       </c>
       <c r="N10">
-        <v>0.9900061659818126</v>
+        <v>1.011823526825483</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9168134245241051</v>
+        <v>1.015862521700413</v>
       </c>
       <c r="D11">
-        <v>0.9293841897124596</v>
+        <v>1.018880658518714</v>
       </c>
       <c r="E11">
-        <v>0.9245379521981896</v>
+        <v>1.025034144668085</v>
       </c>
       <c r="F11">
-        <v>0.8849578995615252</v>
+        <v>1.030177992004388</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.008235720673673</v>
+        <v>1.023950579310555</v>
       </c>
       <c r="J11">
-        <v>0.950108795892507</v>
+        <v>1.022571464573794</v>
       </c>
       <c r="K11">
-        <v>0.9457731236834331</v>
+        <v>1.022512408572243</v>
       </c>
       <c r="L11">
-        <v>0.9410385665495788</v>
+        <v>1.028642382273308</v>
       </c>
       <c r="M11">
-        <v>0.9024327814293424</v>
+        <v>1.03376681375554</v>
       </c>
       <c r="N11">
-        <v>0.9876930039032287</v>
+        <v>1.011601873891917</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9132251714485596</v>
+        <v>1.01552188886969</v>
       </c>
       <c r="D12">
-        <v>0.9260741863504335</v>
+        <v>1.018562497159719</v>
       </c>
       <c r="E12">
-        <v>0.9205284115914499</v>
+        <v>1.024697157469606</v>
       </c>
       <c r="F12">
-        <v>0.8784842899272044</v>
+        <v>1.029734603605361</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.005974421676221</v>
+        <v>1.023881229157702</v>
       </c>
       <c r="J12">
-        <v>0.947217066002395</v>
+        <v>1.022320501418112</v>
       </c>
       <c r="K12">
-        <v>0.9427693447253992</v>
+        <v>1.022241332530618</v>
       </c>
       <c r="L12">
-        <v>0.9373548351019486</v>
+        <v>1.028352219551705</v>
       </c>
       <c r="M12">
-        <v>0.8963793643892574</v>
+        <v>1.033370379248619</v>
       </c>
       <c r="N12">
-        <v>0.9867408141909012</v>
+        <v>1.011519095914727</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9140124355608671</v>
+        <v>1.015595014642906</v>
       </c>
       <c r="D13">
-        <v>0.9268008983354102</v>
+        <v>1.01863079951477</v>
       </c>
       <c r="E13">
-        <v>0.921410701050058</v>
+        <v>1.024769525752941</v>
       </c>
       <c r="F13">
-        <v>0.879913181829827</v>
+        <v>1.029829877142671</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.006475014294238</v>
+        <v>1.023896194033447</v>
       </c>
       <c r="J13">
-        <v>0.9478531288187285</v>
+        <v>1.022374395046917</v>
       </c>
       <c r="K13">
-        <v>0.9434297038757105</v>
+        <v>1.022299539061524</v>
       </c>
       <c r="L13">
-        <v>0.9381663535657195</v>
+        <v>1.028414547717694</v>
       </c>
       <c r="M13">
-        <v>0.8977162638982848</v>
+        <v>1.033455583664188</v>
       </c>
       <c r="N13">
-        <v>0.9869502392972354</v>
+        <v>1.011536872397227</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.916524380786789</v>
+        <v>1.015834391382982</v>
       </c>
       <c r="D14">
-        <v>0.929117769352961</v>
+        <v>1.018854384254972</v>
       </c>
       <c r="E14">
-        <v>0.9242160779654646</v>
+        <v>1.025006326739637</v>
       </c>
       <c r="F14">
-        <v>0.884440090624687</v>
+        <v>1.030141415771285</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.008055474907698</v>
+        <v>1.023944886916482</v>
       </c>
       <c r="J14">
-        <v>0.9498765482203588</v>
+        <v>1.022550747423892</v>
       </c>
       <c r="K14">
-        <v>0.9455317271884017</v>
+        <v>1.022490028261904</v>
       </c>
       <c r="L14">
-        <v>0.9407432418670203</v>
+        <v>1.028618436627577</v>
       </c>
       <c r="M14">
-        <v>0.9019489054967639</v>
+        <v>1.033734119944146</v>
       </c>
       <c r="N14">
-        <v>0.9876165217269715</v>
+        <v>1.011595040588975</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9180247005754918</v>
+        <v>1.015981707388314</v>
       </c>
       <c r="D15">
-        <v>0.9305002773462163</v>
+        <v>1.018991979662561</v>
       </c>
       <c r="E15">
-        <v>0.9258847610069775</v>
+        <v>1.025151984077016</v>
       </c>
       <c r="F15">
-        <v>0.8871210574665245</v>
+        <v>1.030332882268125</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.008987503879606</v>
+        <v>1.023974627789564</v>
       </c>
       <c r="J15">
-        <v>0.9510807812387861</v>
+        <v>1.022659225229961</v>
       </c>
       <c r="K15">
-        <v>0.946783678261403</v>
+        <v>1.022607220282578</v>
       </c>
       <c r="L15">
-        <v>0.9422735458067018</v>
+        <v>1.02874380432378</v>
       </c>
       <c r="M15">
-        <v>0.9044535768190639</v>
+        <v>1.033905244795317</v>
       </c>
       <c r="N15">
-        <v>0.9880131053523574</v>
+        <v>1.011630820557557</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9261693305530226</v>
+        <v>1.016836546850807</v>
       </c>
       <c r="D16">
-        <v>0.9379901542107034</v>
+        <v>1.019790382937088</v>
       </c>
       <c r="E16">
-        <v>0.9348592832876518</v>
+        <v>1.025996080005843</v>
       </c>
       <c r="F16">
-        <v>0.9013952292811194</v>
+        <v>1.031439975588925</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.013898702932938</v>
+        <v>1.024143768673987</v>
       </c>
       <c r="J16">
-        <v>0.9575653304880996</v>
+        <v>1.02328790306459</v>
       </c>
       <c r="K16">
-        <v>0.9535368794748785</v>
+        <v>1.023286680883464</v>
       </c>
       <c r="L16">
-        <v>0.9504729779282226</v>
+        <v>1.029469630115146</v>
       </c>
       <c r="M16">
-        <v>0.9177637162951451</v>
+        <v>1.034893819225002</v>
       </c>
       <c r="N16">
-        <v>0.9901491985997567</v>
+        <v>1.011838175076067</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9308646668608834</v>
+        <v>1.017370494962699</v>
       </c>
       <c r="D17">
-        <v>0.9422977640466891</v>
+        <v>1.020289053748858</v>
       </c>
       <c r="E17">
-        <v>0.9399731561372623</v>
+        <v>1.026522334604101</v>
       </c>
       <c r="F17">
-        <v>0.9094238895660272</v>
+        <v>1.032128024205126</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.016621549204327</v>
+        <v>1.024246388234659</v>
       </c>
       <c r="J17">
-        <v>0.9612658013866274</v>
+        <v>1.023679889396437</v>
       </c>
       <c r="K17">
-        <v>0.9573992715649994</v>
+        <v>1.023710577193188</v>
       </c>
       <c r="L17">
-        <v>0.9551224301063925</v>
+        <v>1.029921540962213</v>
       </c>
       <c r="M17">
-        <v>0.9252311636603934</v>
+        <v>1.035507414202213</v>
       </c>
       <c r="N17">
-        <v>0.9913685827038757</v>
+        <v>1.011967456697795</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9334841728646484</v>
+        <v>1.017681128593324</v>
       </c>
       <c r="D18">
-        <v>0.9446981224642902</v>
+        <v>1.020579154755297</v>
       </c>
       <c r="E18">
-        <v>0.9428085048530376</v>
+        <v>1.026828138746843</v>
       </c>
       <c r="F18">
-        <v>0.913843618221054</v>
+        <v>1.032527063249846</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.018107648580165</v>
+        <v>1.024304996074685</v>
       </c>
       <c r="J18">
-        <v>0.963319023739809</v>
+        <v>1.023907683246321</v>
       </c>
       <c r="K18">
-        <v>0.9595449747329827</v>
+        <v>1.023957003693013</v>
       </c>
       <c r="L18">
-        <v>0.9576932928156134</v>
+        <v>1.030183924913779</v>
       </c>
       <c r="M18">
-        <v>0.9293360016573332</v>
+        <v>1.035862985061343</v>
       </c>
       <c r="N18">
-        <v>0.9920452794122758</v>
+        <v>1.012042583634099</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9343592421280126</v>
+        <v>1.017786910185954</v>
       </c>
       <c r="D19">
-        <v>0.9454995629172991</v>
+        <v>1.020677942672362</v>
       </c>
       <c r="E19">
-        <v>0.9437529617605732</v>
+        <v>1.026932215780301</v>
       </c>
       <c r="F19">
-        <v>0.9153108951082727</v>
+        <v>1.032662738912586</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.018598931974021</v>
+        <v>1.024324768539926</v>
       </c>
       <c r="J19">
-        <v>0.9640031808061145</v>
+        <v>1.023985212428724</v>
       </c>
       <c r="K19">
-        <v>0.9602603618556546</v>
+        <v>1.024040889553023</v>
       </c>
       <c r="L19">
-        <v>0.9585485489678703</v>
+        <v>1.030273187112358</v>
       </c>
       <c r="M19">
-        <v>0.9306977931775571</v>
+        <v>1.035983832205785</v>
       </c>
       <c r="N19">
-        <v>0.9922707800746874</v>
+        <v>1.012068152577839</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9303737666111405</v>
+        <v>1.017313291286309</v>
       </c>
       <c r="D20">
-        <v>0.9418477148554663</v>
+        <v>1.020235630427093</v>
       </c>
       <c r="E20">
-        <v>0.9394404264066705</v>
+        <v>1.026465991785707</v>
       </c>
       <c r="F20">
-        <v>0.9085909714727853</v>
+        <v>1.032054440187842</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.016340451764602</v>
+        <v>1.02423550736676</v>
       </c>
       <c r="J20">
-        <v>0.9608801418768524</v>
+        <v>1.023637920562306</v>
       </c>
       <c r="K20">
-        <v>0.9569964502351297</v>
+        <v>1.023665182645307</v>
       </c>
       <c r="L20">
-        <v>0.9546388397660138</v>
+        <v>1.029873180382051</v>
       </c>
       <c r="M20">
-        <v>0.9244571120806299</v>
+        <v>1.03544182253582</v>
       </c>
       <c r="N20">
-        <v>0.9912414868928899</v>
+        <v>1.011953615109249</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9157949494628963</v>
+        <v>1.015763936762828</v>
       </c>
       <c r="D21">
-        <v>0.9284452709915331</v>
+        <v>1.018788578029236</v>
       </c>
       <c r="E21">
-        <v>0.9234029475086458</v>
+        <v>1.024936645555059</v>
       </c>
       <c r="F21">
-        <v>0.8831305378080823</v>
+        <v>1.030049776086969</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.007599136846507</v>
+        <v>1.02393060235782</v>
       </c>
       <c r="J21">
-        <v>0.9492899182681179</v>
+        <v>1.022498853320192</v>
       </c>
       <c r="K21">
-        <v>0.9449221040440469</v>
+        <v>1.022433970373112</v>
       </c>
       <c r="L21">
-        <v>0.9399968768895508</v>
+        <v>1.02855844960636</v>
       </c>
       <c r="M21">
-        <v>0.9007249198205358</v>
+        <v>1.033652200249888</v>
       </c>
       <c r="N21">
-        <v>0.9874233426892971</v>
+        <v>1.011577923890342</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9046026101053842</v>
+        <v>1.014782312811005</v>
       </c>
       <c r="D22">
-        <v>0.9180943423005373</v>
+        <v>1.017871683470127</v>
       </c>
       <c r="E22">
-        <v>0.91076189967192</v>
+        <v>1.023964477703705</v>
       </c>
       <c r="F22">
-        <v>0.8624945691501633</v>
+        <v>1.028768335378276</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.000317071420188</v>
+        <v>1.023727538821973</v>
       </c>
       <c r="J22">
-        <v>0.940186561950861</v>
+        <v>1.021774893245232</v>
       </c>
       <c r="K22">
-        <v>0.9354839037389771</v>
+        <v>1.021652252382832</v>
       </c>
       <c r="L22">
-        <v>0.9283358041496036</v>
+        <v>1.027720718896747</v>
       </c>
       <c r="M22">
-        <v>0.8813896670161411</v>
+        <v>1.032505621248595</v>
       </c>
       <c r="N22">
-        <v>0.9844267184716827</v>
+        <v>1.011339126004607</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9108113363307173</v>
+        <v>1.015303409179502</v>
       </c>
       <c r="D23">
-        <v>0.9238441733674342</v>
+        <v>1.018358426334714</v>
       </c>
       <c r="E23">
-        <v>0.9178137862786053</v>
+        <v>1.024480859497174</v>
       </c>
       <c r="F23">
-        <v>0.8740720336422602</v>
+        <v>1.029449665458933</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.004423463067456</v>
+        <v>1.023836268849303</v>
       </c>
       <c r="J23">
-        <v>0.9452609680839624</v>
+        <v>1.02215942441779</v>
       </c>
       <c r="K23">
-        <v>0.9407397845264119</v>
+        <v>1.022067385495817</v>
       </c>
       <c r="L23">
-        <v>0.9348546442975669</v>
+        <v>1.028165879880017</v>
       </c>
       <c r="M23">
-        <v>0.8922484641980374</v>
+        <v>1.033115490052416</v>
       </c>
       <c r="N23">
-        <v>0.9860968295864158</v>
+        <v>1.011465965184834</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9305959448673033</v>
+        <v>1.017339141664889</v>
       </c>
       <c r="D24">
-        <v>0.9420514129175297</v>
+        <v>1.020259772490157</v>
       </c>
       <c r="E24">
-        <v>0.9396815910746068</v>
+        <v>1.026491454235982</v>
       </c>
       <c r="F24">
-        <v>0.9089681288388145</v>
+        <v>1.032087696705074</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.016467776965961</v>
+        <v>1.024240427819488</v>
       </c>
       <c r="J24">
-        <v>0.9610547237235447</v>
+        <v>1.023656887082364</v>
       </c>
       <c r="K24">
-        <v>0.9571787927477516</v>
+        <v>1.023685697035841</v>
       </c>
       <c r="L24">
-        <v>0.9548577810031952</v>
+        <v>1.029895036177813</v>
       </c>
       <c r="M24">
-        <v>0.9248076324487471</v>
+        <v>1.035471467779435</v>
       </c>
       <c r="N24">
-        <v>0.9912990207591968</v>
+        <v>1.011959870394777</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9487598643587951</v>
+        <v>1.019669836466353</v>
       </c>
       <c r="D25">
-        <v>0.9586626265937199</v>
+        <v>1.02243624100136</v>
       </c>
       <c r="E25">
-        <v>0.9591132417572436</v>
+        <v>1.028779580310905</v>
       </c>
       <c r="F25">
-        <v>0.9388374623980776</v>
+        <v>1.03505941172934</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026322949657795</v>
+        <v>1.02466050375729</v>
       </c>
       <c r="J25">
-        <v>0.9751438872136439</v>
+        <v>1.025361531049194</v>
       </c>
       <c r="K25">
-        <v>0.9719384421390835</v>
+        <v>1.025531369678476</v>
       </c>
       <c r="L25">
-        <v>0.9723812647138634</v>
+        <v>1.031854337471285</v>
       </c>
       <c r="M25">
-        <v>0.9524657580475825</v>
+        <v>1.038114270291738</v>
       </c>
       <c r="N25">
-        <v>0.9959439173227906</v>
+        <v>1.01252202766477</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_40/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021504201149167</v>
+        <v>0.9611705567527972</v>
       </c>
       <c r="D2">
-        <v>1.024148925270816</v>
+        <v>0.9699761669641378</v>
       </c>
       <c r="E2">
-        <v>1.030569388043519</v>
+        <v>0.9720989543824975</v>
       </c>
       <c r="F2">
-        <v>1.037359412278249</v>
+        <v>0.9582461325924072</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.024956605289207</v>
+        <v>1.03244371100551</v>
       </c>
       <c r="J2">
-        <v>1.026695296140113</v>
+        <v>0.9845780958031221</v>
       </c>
       <c r="K2">
-        <v>1.026978275366268</v>
+        <v>0.981870257910436</v>
       </c>
       <c r="L2">
-        <v>1.033380019414963</v>
+        <v>0.9839611842429968</v>
       </c>
       <c r="M2">
-        <v>1.040150521338077</v>
+        <v>0.9703195320721681</v>
       </c>
       <c r="N2">
-        <v>1.012961808720614</v>
+        <v>0.9990557939564803</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022822281272698</v>
+        <v>0.9693633954984083</v>
       </c>
       <c r="D3">
-        <v>1.025379397710541</v>
+        <v>0.9774336596707495</v>
       </c>
       <c r="E3">
-        <v>1.031849051820889</v>
+        <v>0.9805538663102906</v>
       </c>
       <c r="F3">
-        <v>1.038989587157702</v>
+        <v>0.9706485402277182</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.025149224544389</v>
+        <v>1.036208057027403</v>
       </c>
       <c r="J3">
-        <v>1.027649105822715</v>
+        <v>0.9907255780150429</v>
       </c>
       <c r="K3">
-        <v>1.028014625284432</v>
+        <v>0.9883636627073126</v>
       </c>
       <c r="L3">
-        <v>1.034466800191965</v>
+        <v>0.9914417630247472</v>
       </c>
       <c r="M3">
-        <v>1.04158831696394</v>
+        <v>0.9816712841349656</v>
       </c>
       <c r="N3">
-        <v>1.01327626733418</v>
+        <v>1.00108404771033</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023668898538241</v>
+        <v>0.974362101272841</v>
       </c>
       <c r="D4">
-        <v>1.026169661659227</v>
+        <v>0.9819803952198747</v>
       </c>
       <c r="E4">
-        <v>1.032668029784107</v>
+        <v>0.9856681027862703</v>
       </c>
       <c r="F4">
-        <v>1.04002626004213</v>
+        <v>0.9780592967031142</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.025263566911149</v>
+        <v>1.038392120395376</v>
       </c>
       <c r="J4">
-        <v>1.028259631090183</v>
+        <v>0.9944451683010921</v>
       </c>
       <c r="K4">
-        <v>1.028678743139714</v>
+        <v>0.9923012788537864</v>
       </c>
       <c r="L4">
-        <v>1.035160449999638</v>
+        <v>0.9959426352520564</v>
       </c>
       <c r="M4">
-        <v>1.042500085201711</v>
+        <v>0.988429943949071</v>
       </c>
       <c r="N4">
-        <v>1.013477530735501</v>
+        <v>1.002311401657208</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02402333358339</v>
+        <v>0.9763995587054456</v>
       </c>
       <c r="D5">
-        <v>1.026500484597265</v>
+        <v>0.9838330221748791</v>
       </c>
       <c r="E5">
-        <v>1.033010182632656</v>
+        <v>0.9877430787393536</v>
       </c>
       <c r="F5">
-        <v>1.040457766577329</v>
+        <v>0.9810459958637934</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.025309179131036</v>
+        <v>1.039256870322302</v>
       </c>
       <c r="J5">
-        <v>1.028514718329304</v>
+        <v>0.9959544253503602</v>
       </c>
       <c r="K5">
-        <v>1.02895640505907</v>
+        <v>0.993900955367393</v>
       </c>
       <c r="L5">
-        <v>1.035449789146447</v>
+        <v>0.9977633423617668</v>
       </c>
       <c r="M5">
-        <v>1.042878978099423</v>
+        <v>0.9911481958224972</v>
       </c>
       <c r="N5">
-        <v>1.013561617263582</v>
+        <v>1.002809434404502</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024082758333838</v>
+        <v>0.9767381146014813</v>
       </c>
       <c r="D6">
-        <v>1.026555949355851</v>
+        <v>0.9841408341537554</v>
       </c>
       <c r="E6">
-        <v>1.033067506378283</v>
+        <v>0.9880873318849588</v>
       </c>
       <c r="F6">
-        <v>1.040529966657626</v>
+        <v>0.9815403766340428</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.025316693720234</v>
+        <v>1.039399100743932</v>
       </c>
       <c r="J6">
-        <v>1.028557456514712</v>
+        <v>0.9962048256847044</v>
       </c>
       <c r="K6">
-        <v>1.029002936245726</v>
+        <v>0.9941664687896331</v>
       </c>
       <c r="L6">
-        <v>1.035498237828821</v>
+        <v>0.9980651003375351</v>
       </c>
       <c r="M6">
-        <v>1.042942337960998</v>
+        <v>0.9915978132739008</v>
       </c>
       <c r="N6">
-        <v>1.013575705139166</v>
+        <v>1.002892063922016</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023673640319592</v>
+        <v>0.9743895675879044</v>
       </c>
       <c r="D7">
-        <v>1.026174087626466</v>
+        <v>0.9820053721075453</v>
       </c>
       <c r="E7">
-        <v>1.032672610049736</v>
+        <v>0.9856961117201579</v>
       </c>
       <c r="F7">
-        <v>1.040032042743935</v>
+        <v>0.9780996901571493</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.025264186029903</v>
+        <v>1.038403877361632</v>
       </c>
       <c r="J7">
-        <v>1.028263045757094</v>
+        <v>0.9944655405752202</v>
       </c>
       <c r="K7">
-        <v>1.028682459275747</v>
+        <v>0.9923228640042949</v>
       </c>
       <c r="L7">
-        <v>1.035164325061802</v>
+        <v>0.9959672331203593</v>
       </c>
       <c r="M7">
-        <v>1.042505165288538</v>
+        <v>0.988466729122322</v>
       </c>
       <c r="N7">
-        <v>1.013478656358511</v>
+        <v>1.002318124131323</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021950961561384</v>
+        <v>0.9640077817706838</v>
       </c>
       <c r="D8">
-        <v>1.024566008161525</v>
+        <v>0.9725595871619376</v>
       </c>
       <c r="E8">
-        <v>1.031003743426109</v>
+        <v>0.9750372554717845</v>
       </c>
       <c r="F8">
-        <v>1.037914120347351</v>
+        <v>0.9625773787744555</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.025023838324381</v>
+        <v>1.033772712165342</v>
       </c>
       <c r="J8">
-        <v>1.027019027697471</v>
+        <v>0.9867141757166147</v>
       </c>
       <c r="K8">
-        <v>1.027329864033912</v>
+        <v>0.9841245485218263</v>
       </c>
       <c r="L8">
-        <v>1.033749295977271</v>
+        <v>0.9865663275640666</v>
       </c>
       <c r="M8">
-        <v>1.040640299824211</v>
+        <v>0.974289313527525</v>
       </c>
       <c r="N8">
-        <v>1.013068542693131</v>
+        <v>0.9997605180318372</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.018866516452797</v>
+        <v>0.9428619435093587</v>
       </c>
       <c r="D9">
-        <v>1.021686124266325</v>
+        <v>0.9532769762262623</v>
       </c>
       <c r="E9">
-        <v>1.027992656436935</v>
+        <v>0.9528624071419141</v>
       </c>
       <c r="F9">
-        <v>1.034041217842882</v>
+        <v>0.9293389182527582</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.024521078118227</v>
+        <v>1.0232408107877</v>
       </c>
       <c r="J9">
-        <v>1.024775217753211</v>
+        <v>0.9706072983759737</v>
       </c>
       <c r="K9">
-        <v>1.024896113840952</v>
+        <v>0.9671764958053191</v>
       </c>
       <c r="L9">
-        <v>1.031181578379318</v>
+        <v>0.9667695433594178</v>
       </c>
       <c r="M9">
-        <v>1.037210198687805</v>
+        <v>0.9436928517817849</v>
       </c>
       <c r="N9">
-        <v>1.012328683823678</v>
+        <v>0.9944479446429023</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.016776095443766</v>
+        <v>0.9256207144556221</v>
       </c>
       <c r="D10">
-        <v>1.019733924199578</v>
+        <v>0.9374863844483856</v>
       </c>
       <c r="E10">
-        <v>1.025936451627</v>
+        <v>0.9342590146560655</v>
       </c>
       <c r="F10">
-        <v>1.031361908522255</v>
+        <v>0.9004479136518407</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024132002400081</v>
+        <v>1.013575506291051</v>
       </c>
       <c r="J10">
-        <v>1.023243489927823</v>
+        <v>0.9571312128997204</v>
       </c>
       <c r="K10">
-        <v>1.023238664319254</v>
+        <v>0.9530841712126923</v>
       </c>
       <c r="L10">
-        <v>1.029418395655273</v>
+        <v>0.949926150936577</v>
       </c>
       <c r="M10">
-        <v>1.034824160712409</v>
+        <v>0.9168817107059865</v>
       </c>
       <c r="N10">
-        <v>1.011823526825483</v>
+        <v>0.9900061659818127</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.015862521700413</v>
+        <v>0.9168134245241043</v>
       </c>
       <c r="D11">
-        <v>1.018880658518714</v>
+        <v>0.929384189712459</v>
       </c>
       <c r="E11">
-        <v>1.025034144668085</v>
+        <v>0.924537952198189</v>
       </c>
       <c r="F11">
-        <v>1.030177992004388</v>
+        <v>0.8849578995615243</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023950579310555</v>
+        <v>1.008235720673673</v>
       </c>
       <c r="J11">
-        <v>1.022571464573794</v>
+        <v>0.9501087958925064</v>
       </c>
       <c r="K11">
-        <v>1.022512408572243</v>
+        <v>0.9457731236834325</v>
       </c>
       <c r="L11">
-        <v>1.028642382273308</v>
+        <v>0.9410385665495784</v>
       </c>
       <c r="M11">
-        <v>1.03376681375554</v>
+        <v>0.9024327814293418</v>
       </c>
       <c r="N11">
-        <v>1.011601873891917</v>
+        <v>0.9876930039032285</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.01552188886969</v>
+        <v>0.9132251714485597</v>
       </c>
       <c r="D12">
-        <v>1.018562497159719</v>
+        <v>0.926074186350433</v>
       </c>
       <c r="E12">
-        <v>1.024697157469606</v>
+        <v>0.9205284115914495</v>
       </c>
       <c r="F12">
-        <v>1.029734603605361</v>
+        <v>0.8784842899272036</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023881229157702</v>
+        <v>1.005974421676221</v>
       </c>
       <c r="J12">
-        <v>1.022320501418112</v>
+        <v>0.9472170660023949</v>
       </c>
       <c r="K12">
-        <v>1.022241332530618</v>
+        <v>0.9427693447253988</v>
       </c>
       <c r="L12">
-        <v>1.028352219551705</v>
+        <v>0.9373548351019483</v>
       </c>
       <c r="M12">
-        <v>1.033370379248619</v>
+        <v>0.8963793643892567</v>
       </c>
       <c r="N12">
-        <v>1.011519095914727</v>
+        <v>0.9867408141909012</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.015595014642906</v>
+        <v>0.9140124355608675</v>
       </c>
       <c r="D13">
-        <v>1.01863079951477</v>
+        <v>0.9268008983354106</v>
       </c>
       <c r="E13">
-        <v>1.024769525752941</v>
+        <v>0.9214107010500587</v>
       </c>
       <c r="F13">
-        <v>1.029829877142671</v>
+        <v>0.8799131818298279</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023896194033447</v>
+        <v>1.006475014294238</v>
       </c>
       <c r="J13">
-        <v>1.022374395046917</v>
+        <v>0.9478531288187291</v>
       </c>
       <c r="K13">
-        <v>1.022299539061524</v>
+        <v>0.9434297038757108</v>
       </c>
       <c r="L13">
-        <v>1.028414547717694</v>
+        <v>0.9381663535657202</v>
       </c>
       <c r="M13">
-        <v>1.033455583664188</v>
+        <v>0.8977162638982858</v>
       </c>
       <c r="N13">
-        <v>1.011536872397227</v>
+        <v>0.9869502392972354</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.015834391382982</v>
+        <v>0.9165243807867892</v>
       </c>
       <c r="D14">
-        <v>1.018854384254972</v>
+        <v>0.929117769352961</v>
       </c>
       <c r="E14">
-        <v>1.025006326739637</v>
+        <v>0.9242160779654645</v>
       </c>
       <c r="F14">
-        <v>1.030141415771285</v>
+        <v>0.8844400906246872</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023944886916482</v>
+        <v>1.008055474907698</v>
       </c>
       <c r="J14">
-        <v>1.022550747423892</v>
+        <v>0.9498765482203591</v>
       </c>
       <c r="K14">
-        <v>1.022490028261904</v>
+        <v>0.9455317271884017</v>
       </c>
       <c r="L14">
-        <v>1.028618436627577</v>
+        <v>0.9407432418670205</v>
       </c>
       <c r="M14">
-        <v>1.033734119944146</v>
+        <v>0.901948905496764</v>
       </c>
       <c r="N14">
-        <v>1.011595040588975</v>
+        <v>0.9876165217269713</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.015981707388314</v>
+        <v>0.9180247005754929</v>
       </c>
       <c r="D15">
-        <v>1.018991979662561</v>
+        <v>0.9305002773462172</v>
       </c>
       <c r="E15">
-        <v>1.025151984077016</v>
+        <v>0.9258847610069783</v>
       </c>
       <c r="F15">
-        <v>1.030332882268125</v>
+        <v>0.8871210574665251</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023974627789564</v>
+        <v>1.008987503879606</v>
       </c>
       <c r="J15">
-        <v>1.022659225229961</v>
+        <v>0.951080781238787</v>
       </c>
       <c r="K15">
-        <v>1.022607220282578</v>
+        <v>0.9467836782614037</v>
       </c>
       <c r="L15">
-        <v>1.02874380432378</v>
+        <v>0.9422735458067023</v>
       </c>
       <c r="M15">
-        <v>1.033905244795317</v>
+        <v>0.9044535768190647</v>
       </c>
       <c r="N15">
-        <v>1.011630820557557</v>
+        <v>0.9880131053523576</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016836546850807</v>
+        <v>0.9261693305530235</v>
       </c>
       <c r="D16">
-        <v>1.019790382937088</v>
+        <v>0.9379901542107043</v>
       </c>
       <c r="E16">
-        <v>1.025996080005843</v>
+        <v>0.9348592832876523</v>
       </c>
       <c r="F16">
-        <v>1.031439975588925</v>
+        <v>0.9013952292811198</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024143768673987</v>
+        <v>1.013898702932939</v>
       </c>
       <c r="J16">
-        <v>1.02328790306459</v>
+        <v>0.9575653304881006</v>
       </c>
       <c r="K16">
-        <v>1.023286680883464</v>
+        <v>0.9535368794748793</v>
       </c>
       <c r="L16">
-        <v>1.029469630115146</v>
+        <v>0.9504729779282234</v>
       </c>
       <c r="M16">
-        <v>1.034893819225002</v>
+        <v>0.9177637162951456</v>
       </c>
       <c r="N16">
-        <v>1.011838175076067</v>
+        <v>0.9901491985997569</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.017370494962699</v>
+        <v>0.9308646668608835</v>
       </c>
       <c r="D17">
-        <v>1.020289053748858</v>
+        <v>0.9422977640466891</v>
       </c>
       <c r="E17">
-        <v>1.026522334604101</v>
+        <v>0.9399731561372626</v>
       </c>
       <c r="F17">
-        <v>1.032128024205126</v>
+        <v>0.9094238895660276</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024246388234659</v>
+        <v>1.016621549204327</v>
       </c>
       <c r="J17">
-        <v>1.023679889396437</v>
+        <v>0.9612658013866274</v>
       </c>
       <c r="K17">
-        <v>1.023710577193188</v>
+        <v>0.9573992715649994</v>
       </c>
       <c r="L17">
-        <v>1.029921540962213</v>
+        <v>0.9551224301063929</v>
       </c>
       <c r="M17">
-        <v>1.035507414202213</v>
+        <v>0.9252311636603939</v>
       </c>
       <c r="N17">
-        <v>1.011967456697795</v>
+        <v>0.9913685827038757</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.017681128593324</v>
+        <v>0.933484172864647</v>
       </c>
       <c r="D18">
-        <v>1.020579154755297</v>
+        <v>0.9446981224642885</v>
       </c>
       <c r="E18">
-        <v>1.026828138746843</v>
+        <v>0.942808504853036</v>
       </c>
       <c r="F18">
-        <v>1.032527063249846</v>
+        <v>0.9138436182210526</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024304996074685</v>
+        <v>1.018107648580165</v>
       </c>
       <c r="J18">
-        <v>1.023907683246321</v>
+        <v>0.9633190237398079</v>
       </c>
       <c r="K18">
-        <v>1.023957003693013</v>
+        <v>0.9595449747329812</v>
       </c>
       <c r="L18">
-        <v>1.030183924913779</v>
+        <v>0.957693292815612</v>
       </c>
       <c r="M18">
-        <v>1.035862985061343</v>
+        <v>0.9293360016573319</v>
       </c>
       <c r="N18">
-        <v>1.012042583634099</v>
+        <v>0.9920452794122755</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017786910185954</v>
+        <v>0.9343592421280122</v>
       </c>
       <c r="D19">
-        <v>1.020677942672362</v>
+        <v>0.9454995629172986</v>
       </c>
       <c r="E19">
-        <v>1.026932215780301</v>
+        <v>0.9437529617605726</v>
       </c>
       <c r="F19">
-        <v>1.032662738912586</v>
+        <v>0.9153108951082719</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024324768539926</v>
+        <v>1.018598931974021</v>
       </c>
       <c r="J19">
-        <v>1.023985212428724</v>
+        <v>0.964003180806114</v>
       </c>
       <c r="K19">
-        <v>1.024040889553023</v>
+        <v>0.9602603618556543</v>
       </c>
       <c r="L19">
-        <v>1.030273187112358</v>
+        <v>0.9585485489678697</v>
       </c>
       <c r="M19">
-        <v>1.035983832205785</v>
+        <v>0.9306977931775563</v>
       </c>
       <c r="N19">
-        <v>1.012068152577839</v>
+        <v>0.9922707800746873</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.017313291286309</v>
+        <v>0.9303737666111406</v>
       </c>
       <c r="D20">
-        <v>1.020235630427093</v>
+        <v>0.9418477148554666</v>
       </c>
       <c r="E20">
-        <v>1.026465991785707</v>
+        <v>0.9394404264066705</v>
       </c>
       <c r="F20">
-        <v>1.032054440187842</v>
+        <v>0.9085909714727853</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02423550736676</v>
+        <v>1.016340451764602</v>
       </c>
       <c r="J20">
-        <v>1.023637920562306</v>
+        <v>0.9608801418768527</v>
       </c>
       <c r="K20">
-        <v>1.023665182645307</v>
+        <v>0.9569964502351299</v>
       </c>
       <c r="L20">
-        <v>1.029873180382051</v>
+        <v>0.9546388397660139</v>
       </c>
       <c r="M20">
-        <v>1.03544182253582</v>
+        <v>0.9244571120806299</v>
       </c>
       <c r="N20">
-        <v>1.011953615109249</v>
+        <v>0.9912414868928899</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.015763936762828</v>
+        <v>0.915794949462896</v>
       </c>
       <c r="D21">
-        <v>1.018788578029236</v>
+        <v>0.9284452709915331</v>
       </c>
       <c r="E21">
-        <v>1.024936645555059</v>
+        <v>0.9234029475086452</v>
       </c>
       <c r="F21">
-        <v>1.030049776086969</v>
+        <v>0.883130537808082</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02393060235782</v>
+        <v>1.007599136846507</v>
       </c>
       <c r="J21">
-        <v>1.022498853320192</v>
+        <v>0.9492899182681176</v>
       </c>
       <c r="K21">
-        <v>1.022433970373112</v>
+        <v>0.9449221040440468</v>
       </c>
       <c r="L21">
-        <v>1.02855844960636</v>
+        <v>0.9399968768895502</v>
       </c>
       <c r="M21">
-        <v>1.033652200249888</v>
+        <v>0.9007249198205357</v>
       </c>
       <c r="N21">
-        <v>1.011577923890342</v>
+        <v>0.9874233426892968</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.014782312811005</v>
+        <v>0.9046026101053839</v>
       </c>
       <c r="D22">
-        <v>1.017871683470127</v>
+        <v>0.9180943423005368</v>
       </c>
       <c r="E22">
-        <v>1.023964477703705</v>
+        <v>0.9107618996719196</v>
       </c>
       <c r="F22">
-        <v>1.028768335378276</v>
+        <v>0.8624945691501626</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023727538821973</v>
+        <v>1.000317071420188</v>
       </c>
       <c r="J22">
-        <v>1.021774893245232</v>
+        <v>0.9401865619508606</v>
       </c>
       <c r="K22">
-        <v>1.021652252382832</v>
+        <v>0.9354839037389767</v>
       </c>
       <c r="L22">
-        <v>1.027720718896747</v>
+        <v>0.928335804149603</v>
       </c>
       <c r="M22">
-        <v>1.032505621248595</v>
+        <v>0.8813896670161403</v>
       </c>
       <c r="N22">
-        <v>1.011339126004607</v>
+        <v>0.9844267184716827</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.015303409179502</v>
+        <v>0.9108113363307186</v>
       </c>
       <c r="D23">
-        <v>1.018358426334714</v>
+        <v>0.9238441733674356</v>
       </c>
       <c r="E23">
-        <v>1.024480859497174</v>
+        <v>0.9178137862786071</v>
       </c>
       <c r="F23">
-        <v>1.029449665458933</v>
+        <v>0.8740720336422618</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023836268849303</v>
+        <v>1.004423463067457</v>
       </c>
       <c r="J23">
-        <v>1.02215942441779</v>
+        <v>0.9452609680839638</v>
       </c>
       <c r="K23">
-        <v>1.022067385495817</v>
+        <v>0.9407397845264133</v>
       </c>
       <c r="L23">
-        <v>1.028165879880017</v>
+        <v>0.9348546442975686</v>
       </c>
       <c r="M23">
-        <v>1.033115490052416</v>
+        <v>0.8922484641980389</v>
       </c>
       <c r="N23">
-        <v>1.011465965184834</v>
+        <v>0.9860968295864161</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017339141664889</v>
+        <v>0.9305959448673033</v>
       </c>
       <c r="D24">
-        <v>1.020259772490157</v>
+        <v>0.9420514129175296</v>
       </c>
       <c r="E24">
-        <v>1.026491454235982</v>
+        <v>0.9396815910746068</v>
       </c>
       <c r="F24">
-        <v>1.032087696705074</v>
+        <v>0.9089681288388148</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024240427819488</v>
+        <v>1.016467776965961</v>
       </c>
       <c r="J24">
-        <v>1.023656887082364</v>
+        <v>0.9610547237235447</v>
       </c>
       <c r="K24">
-        <v>1.023685697035841</v>
+        <v>0.9571787927477515</v>
       </c>
       <c r="L24">
-        <v>1.029895036177813</v>
+        <v>0.9548577810031952</v>
       </c>
       <c r="M24">
-        <v>1.035471467779435</v>
+        <v>0.9248076324487475</v>
       </c>
       <c r="N24">
-        <v>1.011959870394777</v>
+        <v>0.991299020759197</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019669836466353</v>
+        <v>0.9487598643587942</v>
       </c>
       <c r="D25">
-        <v>1.02243624100136</v>
+        <v>0.9586626265937191</v>
       </c>
       <c r="E25">
-        <v>1.028779580310905</v>
+        <v>0.9591132417572427</v>
       </c>
       <c r="F25">
-        <v>1.03505941172934</v>
+        <v>0.9388374623980769</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02466050375729</v>
+        <v>1.026322949657795</v>
       </c>
       <c r="J25">
-        <v>1.025361531049194</v>
+        <v>0.9751438872136432</v>
       </c>
       <c r="K25">
-        <v>1.025531369678476</v>
+        <v>0.9719384421390828</v>
       </c>
       <c r="L25">
-        <v>1.031854337471285</v>
+        <v>0.9723812647138625</v>
       </c>
       <c r="M25">
-        <v>1.038114270291738</v>
+        <v>0.9524657580475816</v>
       </c>
       <c r="N25">
-        <v>1.01252202766477</v>
+        <v>0.9959439173227904</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_40/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9611705567527972</v>
+        <v>1.019647378979015</v>
       </c>
       <c r="D2">
-        <v>0.9699761669641378</v>
+        <v>1.034258906599218</v>
       </c>
       <c r="E2">
-        <v>0.9720989543824975</v>
+        <v>1.032246790471208</v>
       </c>
       <c r="F2">
-        <v>0.9582461325924072</v>
+        <v>1.040860358372345</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03244371100551</v>
+        <v>1.049125031844536</v>
       </c>
       <c r="J2">
-        <v>0.9845780958031221</v>
+        <v>1.041255910588454</v>
       </c>
       <c r="K2">
-        <v>0.981870257910436</v>
+        <v>1.045260733465681</v>
       </c>
       <c r="L2">
-        <v>0.9839611842429968</v>
+        <v>1.043274437939484</v>
       </c>
       <c r="M2">
-        <v>0.9703195320721681</v>
+        <v>1.051778346456108</v>
       </c>
       <c r="N2">
-        <v>0.9990557939564803</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.017071237941605</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.049551422691302</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.04307353629003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9693633954984083</v>
+        <v>1.023915835887395</v>
       </c>
       <c r="D3">
-        <v>0.9774336596707495</v>
+        <v>1.037463541855571</v>
       </c>
       <c r="E3">
-        <v>0.9805538663102906</v>
+        <v>1.035630584543731</v>
       </c>
       <c r="F3">
-        <v>0.9706485402277182</v>
+        <v>1.044097713864462</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036208057027403</v>
+        <v>1.049879886796771</v>
       </c>
       <c r="J3">
-        <v>0.9907255780150429</v>
+        <v>1.043775103798532</v>
       </c>
       <c r="K3">
-        <v>0.9883636627073126</v>
+        <v>1.047638500161993</v>
       </c>
       <c r="L3">
-        <v>0.9914417630247472</v>
+        <v>1.045826993056873</v>
       </c>
       <c r="M3">
-        <v>0.9816712841349656</v>
+        <v>1.054195813201455</v>
       </c>
       <c r="N3">
-        <v>1.00108404771033</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.017963072357011</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.051464659447165</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.044752158269989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,81 +539,105 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.974362101272841</v>
+        <v>1.026625921770382</v>
       </c>
       <c r="D4">
-        <v>0.9819803952198747</v>
+        <v>1.039504900110286</v>
       </c>
       <c r="E4">
-        <v>0.9856681027862703</v>
+        <v>1.037785046362651</v>
       </c>
       <c r="F4">
-        <v>0.9780592967031142</v>
+        <v>1.04616121421448</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038392120395376</v>
+        <v>1.050347253926476</v>
       </c>
       <c r="J4">
-        <v>0.9944451683010921</v>
+        <v>1.045372214466477</v>
       </c>
       <c r="K4">
-        <v>0.9923012788537864</v>
+        <v>1.049148815631249</v>
       </c>
       <c r="L4">
-        <v>0.9959426352520564</v>
+        <v>1.047447863322453</v>
       </c>
       <c r="M4">
-        <v>0.988429943949071</v>
+        <v>1.055732694180202</v>
       </c>
       <c r="N4">
-        <v>1.002311401657208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.018528002849982</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.052680978572838</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.045820956926227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C5">
-        <v>0.9763995587054456</v>
+        <v>1.027759065477954</v>
       </c>
       <c r="D5">
-        <v>0.9838330221748791</v>
+        <v>1.040362555204312</v>
       </c>
       <c r="E5">
-        <v>0.9877430787393536</v>
+        <v>1.038688075182298</v>
       </c>
       <c r="F5">
-        <v>0.9810459958637934</v>
+        <v>1.047026729177378</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039256870322302</v>
+        <v>1.050541033046479</v>
       </c>
       <c r="J5">
-        <v>0.9959544253503602</v>
+        <v>1.0460416678718</v>
       </c>
       <c r="K5">
-        <v>0.993900955367393</v>
+        <v>1.049784057440518</v>
       </c>
       <c r="L5">
-        <v>0.9977633423617668</v>
+        <v>1.048127485745832</v>
       </c>
       <c r="M5">
-        <v>0.9911481958224972</v>
+        <v>1.056377653028922</v>
       </c>
       <c r="N5">
-        <v>1.002809434404502</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.018765306372805</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.053191411647308</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.046277230916151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9767381146014813</v>
+        <v>1.027955759386378</v>
       </c>
       <c r="D6">
-        <v>0.9841408341537554</v>
+        <v>1.040514600704059</v>
       </c>
       <c r="E6">
-        <v>0.9880873318849588</v>
+        <v>1.038845858027642</v>
       </c>
       <c r="F6">
-        <v>0.9815403766340428</v>
+        <v>1.047178066997983</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039399100743932</v>
+        <v>1.050576048152225</v>
       </c>
       <c r="J6">
-        <v>0.9962048256847044</v>
+        <v>1.046160592171407</v>
       </c>
       <c r="K6">
-        <v>0.9941664687896331</v>
+        <v>1.049898721290388</v>
       </c>
       <c r="L6">
-        <v>0.9980651003375351</v>
+        <v>1.048247742949721</v>
       </c>
       <c r="M6">
-        <v>0.9915978132739008</v>
+        <v>1.056491942451563</v>
       </c>
       <c r="N6">
-        <v>1.002892063922016</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.018808212187522</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.053281862500501</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.046366977194445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9743895675879044</v>
+        <v>1.026660423376646</v>
       </c>
       <c r="D7">
-        <v>0.9820053721075453</v>
+        <v>1.03953926758572</v>
       </c>
       <c r="E7">
-        <v>0.9856961117201579</v>
+        <v>1.037815110730098</v>
       </c>
       <c r="F7">
-        <v>0.9780996901571493</v>
+        <v>1.046190209373829</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038403877361632</v>
+        <v>1.050357370225096</v>
       </c>
       <c r="J7">
-        <v>0.9944655405752202</v>
+        <v>1.045400043270526</v>
       </c>
       <c r="K7">
-        <v>0.9923228640042949</v>
+        <v>1.049179956832533</v>
       </c>
       <c r="L7">
-        <v>0.9959672331203593</v>
+        <v>1.047474740960538</v>
       </c>
       <c r="M7">
-        <v>0.988466729122322</v>
+        <v>1.055758550975389</v>
       </c>
       <c r="N7">
-        <v>1.002318124131323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.018539936704959</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.052701442154008</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.045862924506621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9640077817706838</v>
+        <v>1.021125689870107</v>
       </c>
       <c r="D8">
-        <v>0.9725595871619376</v>
+        <v>1.035377737697947</v>
       </c>
       <c r="E8">
-        <v>0.9750372554717845</v>
+        <v>1.033420816762713</v>
       </c>
       <c r="F8">
-        <v>0.9625773787744555</v>
+        <v>1.041983248100104</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033772712165342</v>
+        <v>1.049394203118663</v>
       </c>
       <c r="J8">
-        <v>0.9867141757166147</v>
+        <v>1.042138337873321</v>
       </c>
       <c r="K8">
-        <v>0.9841245485218263</v>
+        <v>1.04609890516542</v>
       </c>
       <c r="L8">
-        <v>0.9865663275640666</v>
+        <v>1.044166339824029</v>
       </c>
       <c r="M8">
-        <v>0.974289313527525</v>
+        <v>1.052623044272353</v>
       </c>
       <c r="N8">
-        <v>0.9997605180318372</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.017386463607201</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.050219935819273</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.043688944256808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9428619435093587</v>
+        <v>1.010924482545361</v>
       </c>
       <c r="D9">
-        <v>0.9532769762262623</v>
+        <v>1.027749122652051</v>
       </c>
       <c r="E9">
-        <v>0.9528624071419141</v>
+        <v>1.025367227990028</v>
       </c>
       <c r="F9">
-        <v>0.9293389182527582</v>
+        <v>1.034290959193368</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0232408107877</v>
+        <v>1.047519621575784</v>
       </c>
       <c r="J9">
-        <v>0.9706072983759737</v>
+        <v>1.036097280633598</v>
       </c>
       <c r="K9">
-        <v>0.9671764958053191</v>
+        <v>1.040407479406099</v>
       </c>
       <c r="L9">
-        <v>0.9667695433594178</v>
+        <v>1.03806172276325</v>
       </c>
       <c r="M9">
-        <v>0.9436928517817849</v>
+        <v>1.046851152430422</v>
       </c>
       <c r="N9">
-        <v>0.9944479446429023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.015243026367417</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.045651916895003</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.039661599514987</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9256207144556221</v>
+        <v>1.003918291893269</v>
       </c>
       <c r="D10">
-        <v>0.9374863844483856</v>
+        <v>1.022575698615808</v>
       </c>
       <c r="E10">
-        <v>0.9342590146560655</v>
+        <v>1.019901965496575</v>
       </c>
       <c r="F10">
-        <v>0.9004479136518407</v>
+        <v>1.029112932664796</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.013575506291051</v>
+        <v>1.046193036475622</v>
       </c>
       <c r="J10">
-        <v>0.9571312128997204</v>
+        <v>1.031977307379292</v>
       </c>
       <c r="K10">
-        <v>0.9530841712126923</v>
+        <v>1.036548964176455</v>
       </c>
       <c r="L10">
-        <v>0.949926150936577</v>
+        <v>1.033920946813863</v>
       </c>
       <c r="M10">
-        <v>0.9168817107059865</v>
+        <v>1.042975713563315</v>
       </c>
       <c r="N10">
-        <v>0.9900061659818127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013789702288318</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.042635962346119</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.036950156396709</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9168134245241043</v>
+        <v>1.001622524544813</v>
       </c>
       <c r="D11">
-        <v>0.929384189712459</v>
+        <v>1.021093619984402</v>
       </c>
       <c r="E11">
-        <v>0.924537952198189</v>
+        <v>1.018358392458982</v>
       </c>
       <c r="F11">
-        <v>0.8849578995615243</v>
+        <v>1.027890430031636</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.008235720673673</v>
+        <v>1.045903195511378</v>
       </c>
       <c r="J11">
-        <v>0.9501087958925064</v>
+        <v>1.030927960031081</v>
       </c>
       <c r="K11">
-        <v>0.9457731236834325</v>
+        <v>1.035628411272406</v>
       </c>
       <c r="L11">
-        <v>0.9410385665495784</v>
+        <v>1.03294220660767</v>
       </c>
       <c r="M11">
-        <v>0.9024327814293418</v>
+        <v>1.04230486757125</v>
       </c>
       <c r="N11">
-        <v>0.9876930039032285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013505572540553</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.04253923946409</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.036332067331346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9132251714485597</v>
+        <v>1.001070446579198</v>
       </c>
       <c r="D12">
-        <v>0.926074186350433</v>
+        <v>1.020835934555941</v>
       </c>
       <c r="E12">
-        <v>0.9205284115914495</v>
+        <v>1.018110466862756</v>
       </c>
       <c r="F12">
-        <v>0.8784842899272036</v>
+        <v>1.027827998631891</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.005974421676221</v>
+        <v>1.045912968887758</v>
       </c>
       <c r="J12">
-        <v>0.9472170660023949</v>
+        <v>1.030829572174492</v>
       </c>
       <c r="K12">
-        <v>0.9427693447253988</v>
+        <v>1.035574549351786</v>
       </c>
       <c r="L12">
-        <v>0.9373548351019483</v>
+        <v>1.032898733847709</v>
       </c>
       <c r="M12">
-        <v>0.8963793643892567</v>
+        <v>1.042440796464893</v>
       </c>
       <c r="N12">
-        <v>0.9867408141909012</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013539943105952</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.042971733237061</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.036293985344567</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9140124355608675</v>
+        <v>1.001850681134508</v>
       </c>
       <c r="D13">
-        <v>0.9268008983354106</v>
+        <v>1.021533559104983</v>
       </c>
       <c r="E13">
-        <v>0.9214107010500587</v>
+        <v>1.018868062399338</v>
       </c>
       <c r="F13">
-        <v>0.8799131818298279</v>
+        <v>1.028685282870897</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.006475014294238</v>
+        <v>1.046168593227999</v>
       </c>
       <c r="J13">
-        <v>0.9478531288187291</v>
+        <v>1.031484587462147</v>
       </c>
       <c r="K13">
-        <v>0.9434297038757108</v>
+        <v>1.036216830549616</v>
       </c>
       <c r="L13">
-        <v>0.9381663535657202</v>
+        <v>1.033599641453621</v>
       </c>
       <c r="M13">
-        <v>0.8977162638982858</v>
+        <v>1.043240546301112</v>
       </c>
       <c r="N13">
-        <v>0.9869502392972354</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.01383418229443</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.04387963001844</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.03674561020109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9165243807867892</v>
+        <v>1.003001485492181</v>
       </c>
       <c r="D14">
-        <v>0.929117769352961</v>
+        <v>1.022456771313099</v>
       </c>
       <c r="E14">
-        <v>0.9242160779654645</v>
+        <v>1.0198545308621</v>
       </c>
       <c r="F14">
-        <v>0.8844400906246872</v>
+        <v>1.029703040577723</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.008055474907698</v>
+        <v>1.046459056304874</v>
       </c>
       <c r="J14">
-        <v>0.9498765482203591</v>
+        <v>1.032285406481939</v>
       </c>
       <c r="K14">
-        <v>0.9455317271884017</v>
+        <v>1.036983688769305</v>
       </c>
       <c r="L14">
-        <v>0.9407432418670205</v>
+        <v>1.034427978881986</v>
       </c>
       <c r="M14">
-        <v>0.901948905496764</v>
+        <v>1.044101993130164</v>
       </c>
       <c r="N14">
-        <v>0.9876165217269713</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.014158369994604</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.044733261213133</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.037289222928375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9180247005754929</v>
+        <v>1.003579962975805</v>
       </c>
       <c r="D15">
-        <v>0.9305002773462172</v>
+        <v>1.022901111443729</v>
       </c>
       <c r="E15">
-        <v>0.9258847610069783</v>
+        <v>1.020324231736452</v>
       </c>
       <c r="F15">
-        <v>0.8871210574665251</v>
+        <v>1.030166465965832</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.008987503879606</v>
+        <v>1.046586746423805</v>
       </c>
       <c r="J15">
-        <v>0.951080781238787</v>
+        <v>1.032654373558869</v>
       </c>
       <c r="K15">
-        <v>0.9467836782614037</v>
+        <v>1.037334090861864</v>
       </c>
       <c r="L15">
-        <v>0.9422735458067023</v>
+        <v>1.034802920769436</v>
       </c>
       <c r="M15">
-        <v>0.9044535768190647</v>
+        <v>1.044472163490351</v>
       </c>
       <c r="N15">
-        <v>0.9880131053523576</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.01429804520607</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.045063248390273</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.037542821363762</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9261693305530235</v>
+        <v>1.006399248480052</v>
       </c>
       <c r="D16">
-        <v>0.9379901542107043</v>
+        <v>1.02496288541262</v>
       </c>
       <c r="E16">
-        <v>0.9348592832876523</v>
+        <v>1.022495988985528</v>
       </c>
       <c r="F16">
-        <v>0.9013952292811198</v>
+        <v>1.032217562660264</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.013898702932939</v>
+        <v>1.047114353406031</v>
       </c>
       <c r="J16">
-        <v>0.9575653304881006</v>
+        <v>1.034285272937859</v>
       </c>
       <c r="K16">
-        <v>0.9535368794748793</v>
+        <v>1.038860195957724</v>
       </c>
       <c r="L16">
-        <v>0.9504729779282234</v>
+        <v>1.036435091810985</v>
       </c>
       <c r="M16">
-        <v>0.9177637162951456</v>
+        <v>1.045993460301244</v>
       </c>
       <c r="N16">
-        <v>0.9901491985997569</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.0148609973182</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.046227117511715</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.038624976681858</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9308646668608835</v>
+        <v>1.007960517884344</v>
       </c>
       <c r="D17">
-        <v>0.9422977640466891</v>
+        <v>1.026062636454952</v>
       </c>
       <c r="E17">
-        <v>0.9399731561372626</v>
+        <v>1.023646631192801</v>
       </c>
       <c r="F17">
-        <v>0.9094238895660276</v>
+        <v>1.033255322647402</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.016621549204327</v>
+        <v>1.047364247533483</v>
       </c>
       <c r="J17">
-        <v>0.9612658013866274</v>
+        <v>1.035116185227905</v>
       </c>
       <c r="K17">
-        <v>0.9573992715649994</v>
+        <v>1.039628620454426</v>
       </c>
       <c r="L17">
-        <v>0.9551224301063929</v>
+        <v>1.037252374662005</v>
       </c>
       <c r="M17">
-        <v>0.9252311636603939</v>
+        <v>1.046704351362852</v>
       </c>
       <c r="N17">
-        <v>0.9913685827038757</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.015122716997721</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.046660550326621</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.039170852819922</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.933484172864647</v>
+        <v>1.008564654454999</v>
       </c>
       <c r="D18">
-        <v>0.9446981224642885</v>
+        <v>1.026404197773807</v>
       </c>
       <c r="E18">
-        <v>0.942808504853036</v>
+        <v>1.023994290312858</v>
       </c>
       <c r="F18">
-        <v>0.9138436182210526</v>
+        <v>1.033471291432359</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.018107648580165</v>
+        <v>1.047390662632948</v>
       </c>
       <c r="J18">
-        <v>0.9633190237398079</v>
+        <v>1.03530795900906</v>
       </c>
       <c r="K18">
-        <v>0.9595449747329812</v>
+        <v>1.039782210559283</v>
       </c>
       <c r="L18">
-        <v>0.957693292815612</v>
+        <v>1.037411316995669</v>
       </c>
       <c r="M18">
-        <v>0.9293360016573319</v>
+        <v>1.046736239191697</v>
       </c>
       <c r="N18">
-        <v>0.9920452794122755</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.015137045164733</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.04644924504574</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.039267854552735</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9343592421280122</v>
+        <v>1.008347613539342</v>
       </c>
       <c r="D19">
-        <v>0.9454995629172986</v>
+        <v>1.0261064662624</v>
       </c>
       <c r="E19">
-        <v>0.9437529617605726</v>
+        <v>1.023655284544889</v>
       </c>
       <c r="F19">
-        <v>0.9153108951082719</v>
+        <v>1.032978495317685</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.018598931974021</v>
+        <v>1.047236131051858</v>
       </c>
       <c r="J19">
-        <v>0.964003180806114</v>
+        <v>1.034966119091643</v>
       </c>
       <c r="K19">
-        <v>0.9602603618556543</v>
+        <v>1.039427074607771</v>
       </c>
       <c r="L19">
-        <v>0.9585485489678697</v>
+        <v>1.037015394942606</v>
       </c>
       <c r="M19">
-        <v>0.9306977931775563</v>
+        <v>1.04618963713626</v>
       </c>
       <c r="N19">
-        <v>0.9922707800746873</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014951711098678</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.04569333644802</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.039023135643518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9303737666111406</v>
+        <v>1.005792797664855</v>
       </c>
       <c r="D20">
-        <v>0.9418477148554666</v>
+        <v>1.023979650777614</v>
       </c>
       <c r="E20">
-        <v>0.9394404264066705</v>
+        <v>1.021370785132793</v>
       </c>
       <c r="F20">
-        <v>0.9085909714727853</v>
+        <v>1.03050545340088</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.016340451764602</v>
+        <v>1.046563962761129</v>
       </c>
       <c r="J20">
-        <v>0.9608801418768527</v>
+        <v>1.033102228630775</v>
       </c>
       <c r="K20">
-        <v>0.9569964502351299</v>
+        <v>1.037613556910118</v>
       </c>
       <c r="L20">
-        <v>0.9546388397660139</v>
+        <v>1.035047983155239</v>
       </c>
       <c r="M20">
-        <v>0.9244571120806299</v>
+        <v>1.044032302630849</v>
       </c>
       <c r="N20">
-        <v>0.9912414868928899</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.014193444568878</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.043461640689065</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.037744836624457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.915794949462896</v>
+        <v>1.000368194709544</v>
       </c>
       <c r="D21">
-        <v>0.9284452709915331</v>
+        <v>1.019946319990534</v>
       </c>
       <c r="E21">
-        <v>0.9234029475086452</v>
+        <v>1.017106507104159</v>
       </c>
       <c r="F21">
-        <v>0.883130537808082</v>
+        <v>1.026422364674089</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.007599136846507</v>
+        <v>1.045486641280372</v>
       </c>
       <c r="J21">
-        <v>0.9492899182681176</v>
+        <v>1.029850529915813</v>
       </c>
       <c r="K21">
-        <v>0.9449221040440468</v>
+        <v>1.034559406700675</v>
       </c>
       <c r="L21">
-        <v>0.9399968768895502</v>
+        <v>1.031770880674175</v>
       </c>
       <c r="M21">
-        <v>0.9007249198205357</v>
+        <v>1.040919871289187</v>
       </c>
       <c r="N21">
-        <v>0.9874233426892968</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.013029717265477</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.040957723704501</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.035588684788057</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9046026101053839</v>
+        <v>0.9969083809758325</v>
       </c>
       <c r="D22">
-        <v>0.9180943423005368</v>
+        <v>1.017386554763152</v>
       </c>
       <c r="E22">
-        <v>0.9107618996719196</v>
+        <v>1.014406580997699</v>
       </c>
       <c r="F22">
-        <v>0.8624945691501626</v>
+        <v>1.023855080630575</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.000317071420188</v>
+        <v>1.044792512592146</v>
       </c>
       <c r="J22">
-        <v>0.9401865619508606</v>
+        <v>1.027784870516227</v>
       </c>
       <c r="K22">
-        <v>0.9354839037389767</v>
+        <v>1.032621273926665</v>
       </c>
       <c r="L22">
-        <v>0.928335804149603</v>
+        <v>1.029697943069708</v>
       </c>
       <c r="M22">
-        <v>0.8813896670161403</v>
+        <v>1.038968327327621</v>
       </c>
       <c r="N22">
-        <v>0.9844267184716827</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012292199062566</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.039413206831008</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.034204856537817</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9108113363307186</v>
+        <v>0.9987293019857429</v>
       </c>
       <c r="D23">
-        <v>0.9238441733674356</v>
+        <v>1.018725113965683</v>
       </c>
       <c r="E23">
-        <v>0.9178137862786071</v>
+        <v>1.015823750592452</v>
       </c>
       <c r="F23">
-        <v>0.8740720336422618</v>
+        <v>1.025202460474406</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.004423463067457</v>
+        <v>1.045155012524529</v>
       </c>
       <c r="J23">
-        <v>0.9452609680839638</v>
+        <v>1.028864757290595</v>
       </c>
       <c r="K23">
-        <v>0.9407397845264133</v>
+        <v>1.033630090887353</v>
       </c>
       <c r="L23">
-        <v>0.9348546442975686</v>
+        <v>1.030782413350199</v>
       </c>
       <c r="M23">
-        <v>0.8922484641980389</v>
+        <v>1.039989008934725</v>
       </c>
       <c r="N23">
-        <v>0.9860968295864161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012675434500029</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.040221008654696</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.034908500043239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9305959448673033</v>
+        <v>1.00577505534402</v>
       </c>
       <c r="D24">
-        <v>0.9420514129175296</v>
+        <v>1.023935490243603</v>
       </c>
       <c r="E24">
-        <v>0.9396815910746068</v>
+        <v>1.021329815346968</v>
       </c>
       <c r="F24">
-        <v>0.9089681288388148</v>
+        <v>1.030442676298347</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.016467776965961</v>
+        <v>1.046540287593426</v>
       </c>
       <c r="J24">
-        <v>0.9610547237235447</v>
+        <v>1.033052597379706</v>
       </c>
       <c r="K24">
-        <v>0.9571787927477515</v>
+        <v>1.037554917596556</v>
       </c>
       <c r="L24">
-        <v>0.9548577810031952</v>
+        <v>1.034992430884072</v>
       </c>
       <c r="M24">
-        <v>0.9248076324487475</v>
+        <v>1.04395547445704</v>
       </c>
       <c r="N24">
-        <v>0.991299020759197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.014164836869649</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.043360194570717</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.037676039602886</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9487598643587942</v>
+        <v>1.013646737159252</v>
       </c>
       <c r="D25">
-        <v>0.9586626265937191</v>
+        <v>1.029791364230779</v>
       </c>
       <c r="E25">
-        <v>0.9591132417572427</v>
+        <v>1.027514812977491</v>
       </c>
       <c r="F25">
-        <v>0.9388374623980769</v>
+        <v>1.036340092710116</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026322949657795</v>
+        <v>1.048037145401872</v>
       </c>
       <c r="J25">
-        <v>0.9751438872136432</v>
+        <v>1.03772340335202</v>
       </c>
       <c r="K25">
-        <v>0.9719384421390828</v>
+        <v>1.041944163150469</v>
       </c>
       <c r="L25">
-        <v>0.9723812647138625</v>
+        <v>1.039700500910963</v>
       </c>
       <c r="M25">
-        <v>0.9524657580475816</v>
+        <v>1.048399301946887</v>
       </c>
       <c r="N25">
-        <v>0.9959439173227904</v>
+        <v>1.015824061992909</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.046877163740388</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.040776583045893</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_40/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019647378979015</v>
+        <v>1.018591745231328</v>
       </c>
       <c r="D2">
-        <v>1.034258906599218</v>
+        <v>1.032437055922804</v>
       </c>
       <c r="E2">
-        <v>1.032246790471208</v>
+        <v>1.031307614593331</v>
       </c>
       <c r="F2">
-        <v>1.040860358372345</v>
+        <v>1.03970592196458</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049125031844536</v>
+        <v>1.048859187294027</v>
       </c>
       <c r="J2">
-        <v>1.041255910588454</v>
+        <v>1.040230252184372</v>
       </c>
       <c r="K2">
-        <v>1.045260733465681</v>
+        <v>1.043462256410766</v>
       </c>
       <c r="L2">
-        <v>1.043274437939484</v>
+        <v>1.042347357231519</v>
       </c>
       <c r="M2">
-        <v>1.051778346456108</v>
+        <v>1.050638475589325</v>
       </c>
       <c r="N2">
-        <v>1.017071237941605</v>
+        <v>1.017495488945553</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.049551422691302</v>
+        <v>1.048649301923718</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.04307353629003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041810595908122</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023299668108513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,158 +501,185 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023915835887395</v>
+        <v>1.022561117771508</v>
       </c>
       <c r="D3">
-        <v>1.037463541855571</v>
+        <v>1.035281520454651</v>
       </c>
       <c r="E3">
-        <v>1.035630584543731</v>
+        <v>1.034421332678013</v>
       </c>
       <c r="F3">
-        <v>1.044097713864462</v>
+        <v>1.042674840922266</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049879886796771</v>
+        <v>1.049509605895398</v>
       </c>
       <c r="J3">
-        <v>1.043775103798532</v>
+        <v>1.042455084303761</v>
       </c>
       <c r="K3">
-        <v>1.047638500161993</v>
+        <v>1.045482024549828</v>
       </c>
       <c r="L3">
-        <v>1.045826993056873</v>
+        <v>1.044631943993386</v>
       </c>
       <c r="M3">
-        <v>1.054195813201455</v>
+        <v>1.052789322920567</v>
       </c>
       <c r="N3">
-        <v>1.017963072357011</v>
+        <v>1.018116051030545</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.051464659447165</v>
+        <v>1.050351532465445</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.044752158269989</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.043235805186078</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023766538713698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C4">
-        <v>1.026625921770382</v>
+        <v>1.025084118615879</v>
       </c>
       <c r="D4">
-        <v>1.039504900110286</v>
+        <v>1.037096041458556</v>
       </c>
       <c r="E4">
-        <v>1.037785046362651</v>
+        <v>1.036406606042797</v>
       </c>
       <c r="F4">
-        <v>1.04616121421448</v>
+        <v>1.044569814879802</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050347253926476</v>
+        <v>1.049911493778874</v>
       </c>
       <c r="J4">
-        <v>1.045372214466477</v>
+        <v>1.043867229595676</v>
       </c>
       <c r="K4">
-        <v>1.049148815631249</v>
+        <v>1.046766452295703</v>
       </c>
       <c r="L4">
-        <v>1.047447863322453</v>
+        <v>1.046084627924777</v>
       </c>
       <c r="M4">
-        <v>1.055732694180202</v>
+        <v>1.054158509818649</v>
       </c>
       <c r="N4">
-        <v>1.018528002849982</v>
+        <v>1.018509768810396</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.052680978572838</v>
+        <v>1.051435136760492</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.045820956926227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.044144965696905</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024060913293125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027759065477954</v>
+        <v>1.026139436177657</v>
       </c>
       <c r="D5">
-        <v>1.040362555204312</v>
+        <v>1.037859116939122</v>
       </c>
       <c r="E5">
-        <v>1.038688075182298</v>
+        <v>1.037239192737265</v>
       </c>
       <c r="F5">
-        <v>1.047026729177378</v>
+        <v>1.045365125890009</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050541033046479</v>
+        <v>1.050077971530049</v>
       </c>
       <c r="J5">
-        <v>1.0460416678718</v>
+        <v>1.044459559805751</v>
       </c>
       <c r="K5">
-        <v>1.049784057440518</v>
+        <v>1.0473074192958</v>
       </c>
       <c r="L5">
-        <v>1.048127485745832</v>
+        <v>1.046694156073292</v>
       </c>
       <c r="M5">
-        <v>1.056377653028922</v>
+        <v>1.054733544322476</v>
       </c>
       <c r="N5">
-        <v>1.018765306372805</v>
+        <v>1.018675323449692</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.053191411647308</v>
+        <v>1.051890231108296</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.046277230916151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044535295449603</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024185021146101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027955759386378</v>
+        <v>1.026322357836049</v>
       </c>
       <c r="D6">
-        <v>1.040514600704059</v>
+        <v>1.037994575432875</v>
       </c>
       <c r="E6">
-        <v>1.038845858027642</v>
+        <v>1.037384496046061</v>
       </c>
       <c r="F6">
-        <v>1.047178066997983</v>
+        <v>1.045504082679266</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050576048152225</v>
+        <v>1.050108115404438</v>
       </c>
       <c r="J6">
-        <v>1.046160592171407</v>
+        <v>1.044564836040705</v>
       </c>
       <c r="K6">
-        <v>1.049898721290388</v>
+        <v>1.047405549491927</v>
       </c>
       <c r="L6">
-        <v>1.048247742949721</v>
+        <v>1.046801995156671</v>
       </c>
       <c r="M6">
-        <v>1.056491942451563</v>
+        <v>1.054835502049595</v>
       </c>
       <c r="N6">
-        <v>1.018808212187522</v>
+        <v>1.018705292536534</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.053281862500501</v>
+        <v>1.051970922559787</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.046366977194445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04461422539897</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024208393709024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026660423376646</v>
+        <v>1.025124982138169</v>
       </c>
       <c r="D7">
-        <v>1.03953926758572</v>
+        <v>1.037134638513187</v>
       </c>
       <c r="E7">
-        <v>1.037815110730098</v>
+        <v>1.036442103061865</v>
       </c>
       <c r="F7">
-        <v>1.046190209373829</v>
+        <v>1.044603080173588</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050357370225096</v>
+        <v>1.049924150089589</v>
       </c>
       <c r="J7">
-        <v>1.045400043270526</v>
+        <v>1.043901251455512</v>
       </c>
       <c r="K7">
-        <v>1.049179956832533</v>
+        <v>1.046801765472344</v>
       </c>
       <c r="L7">
-        <v>1.047474740960538</v>
+        <v>1.046116872072924</v>
       </c>
       <c r="M7">
-        <v>1.055758550975389</v>
+        <v>1.054188583601112</v>
       </c>
       <c r="N7">
-        <v>1.018539936704959</v>
+        <v>1.018547015597866</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.052701442154008</v>
+        <v>1.051458937788531</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.045862924506621</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.044191893626471</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024072435484755</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,105 +811,123 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021125689870107</v>
+        <v>1.019994378166206</v>
       </c>
       <c r="D8">
-        <v>1.035377737697947</v>
+        <v>1.033453776531581</v>
       </c>
       <c r="E8">
-        <v>1.033420816762713</v>
+        <v>1.032412546735678</v>
       </c>
       <c r="F8">
-        <v>1.041983248100104</v>
+        <v>1.040756408846852</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049394203118663</v>
+        <v>1.049103257641383</v>
       </c>
       <c r="J8">
-        <v>1.042138337873321</v>
+        <v>1.041038067275088</v>
       </c>
       <c r="K8">
-        <v>1.04609890516542</v>
+        <v>1.044198888428077</v>
       </c>
       <c r="L8">
-        <v>1.044166339824029</v>
+        <v>1.043170663523776</v>
       </c>
       <c r="M8">
-        <v>1.052623044272353</v>
+        <v>1.051411220940389</v>
       </c>
       <c r="N8">
-        <v>1.017386463607201</v>
+        <v>1.017802780295715</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.050219935819273</v>
+        <v>1.049260870993196</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.043688944256808</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042356483049983</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023476728208172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>1.010924482545361</v>
+        <v>1.010531328102546</v>
       </c>
       <c r="D9">
-        <v>1.027749122652051</v>
+        <v>1.026701946457387</v>
       </c>
       <c r="E9">
-        <v>1.025367227990028</v>
+        <v>1.025023700462109</v>
       </c>
       <c r="F9">
-        <v>1.034290959193368</v>
+        <v>1.033721796267168</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.047519621575784</v>
+        <v>1.047485800462442</v>
       </c>
       <c r="J9">
-        <v>1.036097280633598</v>
+        <v>1.035717601577294</v>
       </c>
       <c r="K9">
-        <v>1.040407479406099</v>
+        <v>1.039376164611038</v>
       </c>
       <c r="L9">
-        <v>1.03806172276325</v>
+        <v>1.037723424889947</v>
       </c>
       <c r="M9">
-        <v>1.046851152430422</v>
+        <v>1.046290467319005</v>
       </c>
       <c r="N9">
-        <v>1.015243026367417</v>
+        <v>1.016326256146277</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.045651916895003</v>
+        <v>1.045208175230155</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.039661599514987</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038943095598267</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022345828624914</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003918291893269</v>
+        <v>1.004085240092403</v>
       </c>
       <c r="D10">
-        <v>1.022575698615808</v>
+        <v>1.022169354390217</v>
       </c>
       <c r="E10">
-        <v>1.019901965496575</v>
+        <v>1.02005921040116</v>
       </c>
       <c r="F10">
-        <v>1.029112932664796</v>
+        <v>1.029032574615902</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046193036475622</v>
+        <v>1.046354550003525</v>
       </c>
       <c r="J10">
-        <v>1.031977307379292</v>
+        <v>1.03213770626793</v>
       </c>
       <c r="K10">
-        <v>1.036548964176455</v>
+        <v>1.036149547759222</v>
       </c>
       <c r="L10">
-        <v>1.033920946813863</v>
+        <v>1.034075494557083</v>
       </c>
       <c r="M10">
-        <v>1.042975713563315</v>
+        <v>1.042896702646645</v>
       </c>
       <c r="N10">
-        <v>1.013789702288318</v>
+        <v>1.015452425811894</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.042635962346119</v>
+        <v>1.04257343454448</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.036950156396709</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.036680133224815</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021590824111169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.001622524544813</v>
+        <v>1.001971610162851</v>
       </c>
       <c r="D11">
-        <v>1.021093619984402</v>
+        <v>1.020885695821888</v>
       </c>
       <c r="E11">
-        <v>1.018358392458982</v>
+        <v>1.018671248063204</v>
       </c>
       <c r="F11">
-        <v>1.027890430031636</v>
+        <v>1.027962530652349</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045903195511378</v>
+        <v>1.046124342884666</v>
       </c>
       <c r="J11">
-        <v>1.030927960031081</v>
+        <v>1.031262597246839</v>
       </c>
       <c r="K11">
-        <v>1.035628411272406</v>
+        <v>1.035424201707696</v>
       </c>
       <c r="L11">
-        <v>1.03294220660767</v>
+        <v>1.03324943764634</v>
       </c>
       <c r="M11">
-        <v>1.04230486757125</v>
+        <v>1.042375702533532</v>
       </c>
       <c r="N11">
-        <v>1.013505572540553</v>
+        <v>1.015499703776255</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.04253923946409</v>
+        <v>1.042595269051954</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.036332067331346</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.036203275511193</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021501332320556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.001070446579198</v>
+        <v>1.001436899336682</v>
       </c>
       <c r="D12">
-        <v>1.020835934555941</v>
+        <v>1.02064911055137</v>
       </c>
       <c r="E12">
-        <v>1.018110466862756</v>
+        <v>1.018433163800785</v>
       </c>
       <c r="F12">
-        <v>1.027827998631891</v>
+        <v>1.027913629611695</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045912968887758</v>
+        <v>1.046135276102691</v>
       </c>
       <c r="J12">
-        <v>1.030829572174492</v>
+        <v>1.031180571252073</v>
       </c>
       <c r="K12">
-        <v>1.035574549351786</v>
+        <v>1.035391117867435</v>
       </c>
       <c r="L12">
-        <v>1.032898733847709</v>
+        <v>1.03321553388214</v>
       </c>
       <c r="M12">
-        <v>1.042440796464893</v>
+        <v>1.042524900352827</v>
       </c>
       <c r="N12">
-        <v>1.013539943105952</v>
+        <v>1.015625330454715</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.042971733237061</v>
+        <v>1.04303823606192</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.036293985344567</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.036179884728013</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021553077627875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.001850681134508</v>
+        <v>1.002091126162736</v>
       </c>
       <c r="D13">
-        <v>1.021533559104983</v>
+        <v>1.021217960368242</v>
       </c>
       <c r="E13">
-        <v>1.018868062399338</v>
+        <v>1.019073848110298</v>
       </c>
       <c r="F13">
-        <v>1.028685282870897</v>
+        <v>1.028665345017357</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046168593227999</v>
+        <v>1.046340397618124</v>
       </c>
       <c r="J13">
-        <v>1.031484587462147</v>
+        <v>1.031714950339563</v>
       </c>
       <c r="K13">
-        <v>1.036216830549616</v>
+        <v>1.035906934391909</v>
       </c>
       <c r="L13">
-        <v>1.033599641453621</v>
+        <v>1.0338016859354</v>
       </c>
       <c r="M13">
-        <v>1.043240546301112</v>
+        <v>1.043220962103218</v>
       </c>
       <c r="N13">
-        <v>1.01383418229443</v>
+        <v>1.015790362088013</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.04387963001844</v>
+        <v>1.043864148215241</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.03674561020109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.036541845769457</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02172380951256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003001485492181</v>
+        <v>1.003090145818267</v>
       </c>
       <c r="D14">
-        <v>1.022456771313099</v>
+        <v>1.021984358187195</v>
       </c>
       <c r="E14">
-        <v>1.0198545308621</v>
+        <v>1.019922542651101</v>
       </c>
       <c r="F14">
-        <v>1.029703040577723</v>
+        <v>1.029556446269593</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046459056304874</v>
+        <v>1.046572915631392</v>
       </c>
       <c r="J14">
-        <v>1.032285406481939</v>
+        <v>1.032370404972174</v>
       </c>
       <c r="K14">
-        <v>1.036983688769305</v>
+        <v>1.03651969998913</v>
       </c>
       <c r="L14">
-        <v>1.034427978881986</v>
+        <v>1.03449477062924</v>
       </c>
       <c r="M14">
-        <v>1.044101993130164</v>
+        <v>1.043957964465868</v>
       </c>
       <c r="N14">
-        <v>1.014158369994604</v>
+        <v>1.015925882413702</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.044733261213133</v>
+        <v>1.044619418169199</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.037289222928375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.03697664015492</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021898461826968</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.003579962975805</v>
+        <v>1.003600814886211</v>
       </c>
       <c r="D15">
-        <v>1.022901111443729</v>
+        <v>1.022357853105384</v>
       </c>
       <c r="E15">
-        <v>1.020324231736452</v>
+        <v>1.020331492482427</v>
       </c>
       <c r="F15">
-        <v>1.030166465965832</v>
+        <v>1.029963274186033</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046586746423805</v>
+        <v>1.046675568384533</v>
       </c>
       <c r="J15">
-        <v>1.032654373558869</v>
+        <v>1.032674371991837</v>
       </c>
       <c r="K15">
-        <v>1.037334090861864</v>
+        <v>1.036800444169723</v>
       </c>
       <c r="L15">
-        <v>1.034802920769436</v>
+        <v>1.034810052300399</v>
       </c>
       <c r="M15">
-        <v>1.044472163490351</v>
+        <v>1.044272499839763</v>
       </c>
       <c r="N15">
-        <v>1.01429804520607</v>
+        <v>1.015973731871734</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.045063248390273</v>
+        <v>1.044905434496316</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.037542821363762</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037181555391119</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021970979044097</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.006399248480052</v>
+        <v>1.006141291343922</v>
       </c>
       <c r="D16">
-        <v>1.02496288541262</v>
+        <v>1.024120322657464</v>
       </c>
       <c r="E16">
-        <v>1.022495988985528</v>
+        <v>1.022257177133749</v>
       </c>
       <c r="F16">
-        <v>1.032217562660264</v>
+        <v>1.031779980930649</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047114353406031</v>
+        <v>1.047105049459856</v>
       </c>
       <c r="J16">
-        <v>1.034285272937859</v>
+        <v>1.034037338838939</v>
       </c>
       <c r="K16">
-        <v>1.038860195957724</v>
+        <v>1.038031878043329</v>
       </c>
       <c r="L16">
-        <v>1.036435091810985</v>
+        <v>1.036200339553752</v>
       </c>
       <c r="M16">
-        <v>1.045993460301244</v>
+        <v>1.04556313955334</v>
       </c>
       <c r="N16">
-        <v>1.0148609973182</v>
+        <v>1.01613354579365</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.046227117511715</v>
+        <v>1.04588698278233</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.038624976681858</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.038055663332362</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022246484958831</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.007960517884344</v>
+        <v>1.007579359237967</v>
       </c>
       <c r="D17">
-        <v>1.026062636454952</v>
+        <v>1.025081367018053</v>
       </c>
       <c r="E17">
-        <v>1.023646631192801</v>
+        <v>1.023300571649907</v>
       </c>
       <c r="F17">
-        <v>1.033255322647402</v>
+        <v>1.032712212267511</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047364247533483</v>
+        <v>1.047314041788194</v>
       </c>
       <c r="J17">
-        <v>1.035116185227905</v>
+        <v>1.034749357731638</v>
       </c>
       <c r="K17">
-        <v>1.039628620454426</v>
+        <v>1.038663470401503</v>
       </c>
       <c r="L17">
-        <v>1.037252374662005</v>
+        <v>1.036912029898143</v>
       </c>
       <c r="M17">
-        <v>1.046704351362852</v>
+        <v>1.046169999143947</v>
       </c>
       <c r="N17">
-        <v>1.015122716997721</v>
+        <v>1.016215165703809</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.046660550326621</v>
+        <v>1.046238145053885</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.039170852819922</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038505040651614</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022368442535887</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.008564654454999</v>
+        <v>1.008170711508543</v>
       </c>
       <c r="D18">
-        <v>1.026404197773807</v>
+        <v>1.025401133822249</v>
       </c>
       <c r="E18">
-        <v>1.023994290312858</v>
+        <v>1.023640254072975</v>
       </c>
       <c r="F18">
-        <v>1.033471291432359</v>
+        <v>1.032915463224611</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047390662632948</v>
+        <v>1.04734024038142</v>
       </c>
       <c r="J18">
-        <v>1.03530795900906</v>
+        <v>1.034928553739217</v>
       </c>
       <c r="K18">
-        <v>1.039782210559283</v>
+        <v>1.038795356568371</v>
       </c>
       <c r="L18">
-        <v>1.037411316995669</v>
+        <v>1.037063032112228</v>
       </c>
       <c r="M18">
-        <v>1.046736239191697</v>
+        <v>1.046189231755493</v>
       </c>
       <c r="N18">
-        <v>1.015137045164733</v>
+        <v>1.01618843506166</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.04644924504574</v>
+        <v>1.046016746495632</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.039267854552735</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038585560576056</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022355270214396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.008347613539342</v>
+        <v>1.008024800899928</v>
       </c>
       <c r="D19">
-        <v>1.0261064662624</v>
+        <v>1.02517366854257</v>
       </c>
       <c r="E19">
-        <v>1.023655284544889</v>
+        <v>1.023368819608069</v>
       </c>
       <c r="F19">
-        <v>1.032978495317685</v>
+        <v>1.032481708771417</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047236131051858</v>
+        <v>1.047215878806304</v>
       </c>
       <c r="J19">
-        <v>1.034966119091643</v>
+        <v>1.034655155692251</v>
       </c>
       <c r="K19">
-        <v>1.039427074607771</v>
+        <v>1.03850928083433</v>
       </c>
       <c r="L19">
-        <v>1.037015394942606</v>
+        <v>1.036733562389573</v>
       </c>
       <c r="M19">
-        <v>1.04618963713626</v>
+        <v>1.045700701478737</v>
       </c>
       <c r="N19">
-        <v>1.014951711098678</v>
+        <v>1.016058485731325</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.04569333644802</v>
+        <v>1.045306628121011</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.039023135643518</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038390296725496</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022234174641276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.005792797664855</v>
+        <v>1.005777837965323</v>
       </c>
       <c r="D20">
-        <v>1.023979650777614</v>
+        <v>1.023376388374073</v>
       </c>
       <c r="E20">
-        <v>1.021370785132793</v>
+        <v>1.021365637464982</v>
       </c>
       <c r="F20">
-        <v>1.03050545340088</v>
+        <v>1.030270582263639</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046563962761129</v>
+        <v>1.046660155984626</v>
       </c>
       <c r="J20">
-        <v>1.033102228630775</v>
+        <v>1.033087836292661</v>
       </c>
       <c r="K20">
-        <v>1.037613556910118</v>
+        <v>1.03702027987443</v>
       </c>
       <c r="L20">
-        <v>1.035047983155239</v>
+        <v>1.035042921190153</v>
       </c>
       <c r="M20">
-        <v>1.044032302630849</v>
+        <v>1.043801254367747</v>
       </c>
       <c r="N20">
-        <v>1.014193444568878</v>
+        <v>1.015620181925181</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.043461640689065</v>
+        <v>1.043278791167665</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.037744836624457</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037341838892203</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021799483874907</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000368194709544</v>
+        <v>1.000942936108881</v>
       </c>
       <c r="D21">
-        <v>1.019946319990534</v>
+        <v>1.019966212645134</v>
       </c>
       <c r="E21">
-        <v>1.017106507104159</v>
+        <v>1.017627873877949</v>
       </c>
       <c r="F21">
-        <v>1.026422364674089</v>
+        <v>1.02668239048596</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045486641280372</v>
+        <v>1.045797769788025</v>
       </c>
       <c r="J21">
-        <v>1.029850529915813</v>
+        <v>1.030401286384916</v>
       </c>
       <c r="K21">
-        <v>1.034559406700675</v>
+        <v>1.034578941404067</v>
       </c>
       <c r="L21">
-        <v>1.031770880674175</v>
+        <v>1.032282803696163</v>
       </c>
       <c r="M21">
-        <v>1.040919871289187</v>
+        <v>1.041175295827075</v>
       </c>
       <c r="N21">
-        <v>1.013029717265477</v>
+        <v>1.015292581529363</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.040957723704501</v>
+        <v>1.041159874943964</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.035588684788057</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.035619303799557</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02122592910466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9969083809758325</v>
+        <v>0.9978611602239216</v>
       </c>
       <c r="D22">
-        <v>1.017386554763152</v>
+        <v>1.017804545207482</v>
       </c>
       <c r="E22">
-        <v>1.014406580997699</v>
+        <v>1.015265420219772</v>
       </c>
       <c r="F22">
-        <v>1.023855080630575</v>
+        <v>1.024431969014953</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044792512592146</v>
+        <v>1.045241920645885</v>
       </c>
       <c r="J22">
-        <v>1.027784870516227</v>
+        <v>1.028695516896106</v>
       </c>
       <c r="K22">
-        <v>1.032621273926665</v>
+        <v>1.033031353937544</v>
       </c>
       <c r="L22">
-        <v>1.029697943069708</v>
+        <v>1.030540412989634</v>
       </c>
       <c r="M22">
-        <v>1.038968327327621</v>
+        <v>1.039534479513025</v>
       </c>
       <c r="N22">
-        <v>1.012292199062566</v>
+        <v>1.015080129359271</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.039413206831008</v>
+        <v>1.039861278863532</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.034204856537817</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.034510319353315</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020862595133573</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9987293019857429</v>
+        <v>0.9994668922813803</v>
       </c>
       <c r="D23">
-        <v>1.018725113965683</v>
+        <v>1.018920321607189</v>
       </c>
       <c r="E23">
-        <v>1.015823750592452</v>
+        <v>1.016490559899991</v>
       </c>
       <c r="F23">
-        <v>1.025202460474406</v>
+        <v>1.025600503723355</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045155012524529</v>
+        <v>1.045524891157412</v>
       </c>
       <c r="J23">
-        <v>1.028864757290595</v>
+        <v>1.029570708648888</v>
       </c>
       <c r="K23">
-        <v>1.033630090887353</v>
+        <v>1.033821700777886</v>
       </c>
       <c r="L23">
-        <v>1.030782413350199</v>
+        <v>1.031436848876075</v>
       </c>
       <c r="M23">
-        <v>1.039989008934725</v>
+        <v>1.040379838017232</v>
       </c>
       <c r="N23">
-        <v>1.012675434500029</v>
+        <v>1.015142079085476</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.040221008654696</v>
+        <v>1.040530323722544</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.034908500043239</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.03505855225277</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021043612070518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.00577505534402</v>
+        <v>1.005768917724695</v>
       </c>
       <c r="D24">
-        <v>1.023935490243603</v>
+        <v>1.023340659149676</v>
       </c>
       <c r="E24">
-        <v>1.021329815346968</v>
+        <v>1.021333174242962</v>
       </c>
       <c r="F24">
-        <v>1.030442676298347</v>
+        <v>1.030215144017074</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046540287593426</v>
+        <v>1.046640359260461</v>
       </c>
       <c r="J24">
-        <v>1.033052597379706</v>
+        <v>1.033046692217944</v>
       </c>
       <c r="K24">
-        <v>1.037554917596556</v>
+        <v>1.036969920692672</v>
       </c>
       <c r="L24">
-        <v>1.034992430884072</v>
+        <v>1.034995733924814</v>
       </c>
       <c r="M24">
-        <v>1.04395547445704</v>
+        <v>1.043731641411042</v>
       </c>
       <c r="N24">
-        <v>1.014164836869649</v>
+        <v>1.015597263584107</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.043360194570717</v>
+        <v>1.043183046400126</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.037676039602886</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.037276225582842</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021777152865581</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013646737159252</v>
+        <v>1.013039973089038</v>
       </c>
       <c r="D25">
-        <v>1.029791364230779</v>
+        <v>1.028497483782969</v>
       </c>
       <c r="E25">
-        <v>1.027514812977491</v>
+        <v>1.026979417393297</v>
       </c>
       <c r="F25">
-        <v>1.036340092710116</v>
+        <v>1.035583334445146</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048037145401872</v>
+        <v>1.047928278648429</v>
       </c>
       <c r="J25">
-        <v>1.03772340335202</v>
+        <v>1.037136320585111</v>
       </c>
       <c r="K25">
-        <v>1.041944163150469</v>
+        <v>1.040668952577582</v>
       </c>
       <c r="L25">
-        <v>1.039700500910963</v>
+        <v>1.039172866960496</v>
       </c>
       <c r="M25">
-        <v>1.048399301946887</v>
+        <v>1.047653282218003</v>
       </c>
       <c r="N25">
-        <v>1.015824061992909</v>
+        <v>1.016691714508433</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.046877163740388</v>
+        <v>1.046286744071278</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.040776583045893</v>
+        <v>1.03988843510582</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022654007469007</v>
       </c>
     </row>
   </sheetData>
